--- a/AAII_Financials/Quarterly/WEBC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/WEBC_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="92">
   <si>
     <t>WEBC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,206 +665,232 @@
     <col min="1" max="1" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43861</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43769</v>
+      </c>
+      <c r="F7" s="2">
         <v>43677</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43585</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43496</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43404</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43312</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43220</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43131</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43039</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>42947</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>42855</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42766</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42674</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42582</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>112400</v>
+      </c>
+      <c r="E8" s="3">
+        <v>122500</v>
+      </c>
+      <c r="F8" s="3">
         <v>130000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>145700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>135900</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>137000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>147800</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>127300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>111000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>114300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>106600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>98300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>91600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>88300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>84000</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>100700</v>
+      </c>
+      <c r="E9" s="3">
+        <v>108900</v>
+      </c>
+      <c r="F9" s="3">
         <v>118600</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>126000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>117500</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>112800</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>123700</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>108700</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>98000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>100400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>96400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>89400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>84000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>80400</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>77300</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>11700</v>
+      </c>
+      <c r="E10" s="3">
+        <v>13600</v>
+      </c>
+      <c r="F10" s="3">
         <v>11400</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>19700</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>18400</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>24200</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>24100</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>18600</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>13000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>13900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>10200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>8900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>7600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>7900</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>6700</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -881,8 +907,10 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -925,8 +953,14 @@
       <c r="P12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -969,8 +1003,14 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1013,8 +1053,14 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1057,8 +1103,14 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,96 +1124,110 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>109100</v>
+      </c>
+      <c r="E17" s="3">
+        <v>117700</v>
+      </c>
+      <c r="F17" s="3">
         <v>124900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>135700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>127800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>123100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>137500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>120100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>106400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>108500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>103600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>95800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>89800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>86800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>83300</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E18" s="3">
+        <v>4800</v>
+      </c>
+      <c r="F18" s="3">
         <v>5100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>10000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>8100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>13900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>10300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>7200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>4600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>5800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>3000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>2500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>1800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>1500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,228 +1244,260 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="E20" s="3">
         <v>-100</v>
       </c>
       <c r="F20" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H20" s="3">
         <v>-300</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>100</v>
-      </c>
-      <c r="I20" s="3">
-        <v>200</v>
-      </c>
-      <c r="J20" s="3">
-        <v>400</v>
       </c>
       <c r="K20" s="3">
         <v>200</v>
       </c>
       <c r="L20" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="M20" s="3">
         <v>200</v>
       </c>
       <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
+        <v>200</v>
+      </c>
+      <c r="P20" s="3">
         <v>900</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>500</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>6900</v>
+      </c>
+      <c r="E21" s="3">
+        <v>8300</v>
+      </c>
+      <c r="F21" s="3">
         <v>8400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>13300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>11200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>17300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>13700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>10500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>8000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>9100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>6100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>5600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>5600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>4900</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>3600</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>800</v>
+      </c>
+      <c r="E22" s="3">
+        <v>900</v>
+      </c>
+      <c r="F22" s="3">
         <v>1000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="G22" s="3">
         <v>1200</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
         <v>1300</v>
       </c>
-      <c r="G22" s="3">
+      <c r="I22" s="3">
         <v>1300</v>
       </c>
-      <c r="H22" s="3">
+      <c r="J22" s="3">
         <v>1100</v>
       </c>
-      <c r="I22" s="3">
+      <c r="K22" s="3">
         <v>900</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>800</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>800</v>
-      </c>
-      <c r="L22" s="3">
-        <v>600</v>
-      </c>
-      <c r="M22" s="3">
-        <v>500</v>
       </c>
       <c r="N22" s="3">
         <v>600</v>
       </c>
       <c r="O22" s="3">
+        <v>500</v>
+      </c>
+      <c r="P22" s="3">
+        <v>600</v>
+      </c>
+      <c r="Q22" s="3">
         <v>700</v>
       </c>
-      <c r="P22" s="3">
+      <c r="R22" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E23" s="3">
+        <v>3800</v>
+      </c>
+      <c r="F23" s="3">
         <v>4000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>8700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>6500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>12500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>9200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>6500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>4200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>5200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>2400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>2200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>2000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>1300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>500</v>
+      </c>
+      <c r="E24" s="3">
+        <v>700</v>
+      </c>
+      <c r="F24" s="3">
         <v>-400</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>2100</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>1600</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>2800</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>2400</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>1500</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>-4200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>2200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>1000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>900</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>-100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>600</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,96 +1540,114 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E26" s="3">
+        <v>3200</v>
+      </c>
+      <c r="F26" s="3">
         <v>4300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>6600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>4900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>9800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>6800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>5000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>8400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>3000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>1400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>1300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>2200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E27" s="3">
+        <v>3200</v>
+      </c>
+      <c r="F27" s="3">
         <v>4300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>6600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>4900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>9800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>6800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>5000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>8400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>3000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>1400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>1300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>2200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,8 +1690,14 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1618,8 +1740,14 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1790,14 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,96 +1840,114 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E32" s="3">
         <v>100</v>
       </c>
       <c r="F32" s="3">
+        <v>200</v>
+      </c>
+      <c r="G32" s="3">
+        <v>100</v>
+      </c>
+      <c r="H32" s="3">
         <v>300</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>-100</v>
-      </c>
-      <c r="I32" s="3">
-        <v>-200</v>
-      </c>
-      <c r="J32" s="3">
-        <v>-400</v>
       </c>
       <c r="K32" s="3">
         <v>-200</v>
       </c>
       <c r="L32" s="3">
-        <v>0</v>
+        <v>-400</v>
       </c>
       <c r="M32" s="3">
         <v>-200</v>
       </c>
       <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="P32" s="3">
         <v>-900</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>-500</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E33" s="3">
+        <v>3200</v>
+      </c>
+      <c r="F33" s="3">
         <v>4300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>6600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>4900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>9800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>6800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>5000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>8400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>3000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>1400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>1300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>2200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,101 +1990,119 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E35" s="3">
+        <v>3200</v>
+      </c>
+      <c r="F35" s="3">
         <v>4300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>6600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>4900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>9800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>6800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>5000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>8400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>3000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>1400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>1300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>2200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43861</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43769</v>
+      </c>
+      <c r="F38" s="2">
         <v>43677</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43585</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43496</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43404</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43312</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43220</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43131</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43039</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>42947</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>42855</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42766</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42674</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42582</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2119,10 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,52 +2139,60 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E41" s="3">
+        <v>6200</v>
+      </c>
+      <c r="F41" s="3">
         <v>7100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>6800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>4900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>6200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>7100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>4400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>6800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>6300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>7200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>8100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>8000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>8400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>6300</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2055,184 +2235,214 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>54200</v>
+      </c>
+      <c r="E43" s="3">
+        <v>55600</v>
+      </c>
+      <c r="F43" s="3">
         <v>59400</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>67200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>64400</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>64700</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>76500</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>68800</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>55500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>54700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>53000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>49500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>43000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>39700</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>39900</v>
       </c>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>156300</v>
+      </c>
+      <c r="E44" s="3">
+        <v>168800</v>
+      </c>
+      <c r="F44" s="3">
         <v>176400</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>185800</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>197900</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>198600</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>170900</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>153700</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>144900</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>130700</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>124500</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>115200</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>112600</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>117000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>113400</v>
       </c>
     </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E45" s="3">
+        <v>11800</v>
+      </c>
+      <c r="F45" s="3">
         <v>11600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>6700</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>3700</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>5300</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>7200</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>5700</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>2900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>5900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>5500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>3400</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>1200</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>1700</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>9800</v>
       </c>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>215800</v>
+      </c>
+      <c r="E46" s="3">
+        <v>242500</v>
+      </c>
+      <c r="F46" s="3">
         <v>254600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>266400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>270900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>274800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>261700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>232500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>210100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>197600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>190200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>176300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>164800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>166700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>169300</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2275,52 +2485,64 @@
       <c r="P47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>134700</v>
+      </c>
+      <c r="E48" s="3">
+        <v>122800</v>
+      </c>
+      <c r="F48" s="3">
         <v>112500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>107900</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>104700</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>105500</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>104200</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>102500</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>98100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>96100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>97200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>96900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>93700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>93200</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>92600</v>
       </c>
     </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2363,8 +2585,14 @@
       <c r="P49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2635,14 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,52 +2685,64 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>4800</v>
+      </c>
+      <c r="E52" s="3">
         <v>3900</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
+        <v>3900</v>
+      </c>
+      <c r="G52" s="3">
         <v>4500</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>4300</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>3900</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>3600</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>6200</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>5400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>4600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>4700</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>2000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>2300</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>1500</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,52 +2785,64 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>355300</v>
+      </c>
+      <c r="E54" s="3">
+        <v>369200</v>
+      </c>
+      <c r="F54" s="3">
         <v>371000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>378900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>379900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>384100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>369500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>341200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>313600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>298200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>292200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>275200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>260800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>261400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>263200</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2859,10 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,8 +2879,10 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2663,151 +2925,175 @@
       <c r="P57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3">
+        <v>0</v>
+      </c>
+      <c r="R57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>65800</v>
+      </c>
+      <c r="E58" s="3">
+        <v>82500</v>
+      </c>
+      <c r="F58" s="3">
         <v>88600</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>100600</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>107100</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>111200</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>110500</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>90700</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>77800</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>67000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>67900</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>56800</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>49100</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>50200</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>43400</v>
       </c>
     </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>39900</v>
+      </c>
+      <c r="E59" s="3">
+        <v>41800</v>
+      </c>
+      <c r="F59" s="3">
         <v>46400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>46000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>48100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>52500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>46700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>45300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>36400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>35400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>31400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>29100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>26200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>29200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>30200</v>
       </c>
     </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>105700</v>
+      </c>
+      <c r="E60" s="3">
+        <v>124400</v>
+      </c>
+      <c r="F60" s="3">
         <v>135000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>146600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>155200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>163600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>157100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>136000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>114200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>102400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>99200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>85900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>75300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>79300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>73500</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>12200</v>
+        <v>12000</v>
       </c>
       <c r="E61" s="3">
         <v>12000</v>
       </c>
       <c r="F61" s="3">
-        <v>12000</v>
+        <v>12200</v>
       </c>
       <c r="G61" s="3">
         <v>12000</v>
@@ -2839,52 +3125,64 @@
       <c r="P61" s="3">
         <v>12000</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>12000</v>
+      </c>
+      <c r="R61" s="3">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>21000</v>
+      </c>
+      <c r="E62" s="3">
+        <v>15100</v>
+      </c>
+      <c r="F62" s="3">
         <v>8700</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>7200</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>7200</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>8000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>8800</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>7600</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>7100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>12300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>12800</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>11100</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>9100</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>8300</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>17000</v>
       </c>
     </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3225,14 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3275,14 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,52 +3325,64 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>138700</v>
+      </c>
+      <c r="E66" s="3">
+        <v>151500</v>
+      </c>
+      <c r="F66" s="3">
         <v>155900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>165800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>174400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>183700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>177900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>155600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>133300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>126700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>124000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>109000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>96500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>99700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>102500</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3399,10 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3445,14 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3495,14 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3209,8 +3545,14 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,31 +3595,37 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E72" s="3">
+      <c r="E72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G72" s="3">
         <v>213100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>205600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>200500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>191500</v>
-      </c>
-      <c r="I72" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J72" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="K72" s="3" t="s">
         <v>8</v>
@@ -3288,17 +3636,23 @@
       <c r="M72" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N72" s="3">
-        <v>0</v>
-      </c>
-      <c r="O72" s="3">
-        <v>0</v>
+      <c r="N72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O72" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P72" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q72" s="3">
+        <v>0</v>
+      </c>
+      <c r="R72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3695,14 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3745,14 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,52 +3795,64 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>216600</v>
+      </c>
+      <c r="E76" s="3">
+        <v>217800</v>
+      </c>
+      <c r="F76" s="3">
         <v>215200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>213100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>205600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>200500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>191500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>185600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>180400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>171500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>168200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>166200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>164400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>161700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>160600</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,101 +3895,119 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43861</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43769</v>
+      </c>
+      <c r="F80" s="2">
         <v>43677</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43585</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43496</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43404</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43312</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43220</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43131</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43039</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>42947</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>42855</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42766</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42674</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42582</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E81" s="3">
+        <v>3200</v>
+      </c>
+      <c r="F81" s="3">
         <v>4300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>6600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>4900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>9800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>6800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>5000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>8400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>3000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>1400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>1300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>2200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,8 +4024,10 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3637,22 +4035,22 @@
         <v>3500</v>
       </c>
       <c r="E83" s="3">
-        <v>3400</v>
+        <v>3500</v>
       </c>
       <c r="F83" s="3">
-        <v>3400</v>
+        <v>3500</v>
       </c>
       <c r="G83" s="3">
         <v>3400</v>
       </c>
       <c r="H83" s="3">
+        <v>3400</v>
+      </c>
+      <c r="I83" s="3">
+        <v>3400</v>
+      </c>
+      <c r="J83" s="3">
         <v>3300</v>
-      </c>
-      <c r="I83" s="3">
-        <v>3100</v>
-      </c>
-      <c r="J83" s="3">
-        <v>3000</v>
       </c>
       <c r="K83" s="3">
         <v>3100</v>
@@ -3661,19 +4059,25 @@
         <v>3000</v>
       </c>
       <c r="M83" s="3">
-        <v>2900</v>
+        <v>3100</v>
       </c>
       <c r="N83" s="3">
-        <v>2900</v>
+        <v>3000</v>
       </c>
       <c r="O83" s="3">
         <v>2900</v>
       </c>
       <c r="P83" s="3">
+        <v>2900</v>
+      </c>
+      <c r="Q83" s="3">
+        <v>2900</v>
+      </c>
+      <c r="R83" s="3">
         <v>3100</v>
       </c>
     </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +4120,14 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +4170,14 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4220,14 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4270,14 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,52 +4320,64 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>23000</v>
+      </c>
+      <c r="E89" s="3">
+        <v>11100</v>
+      </c>
+      <c r="F89" s="3">
         <v>22600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>12900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>14800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>1400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-9500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-11800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-4300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>2500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-2500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-6000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>7800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-1600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>-3900</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,8 +4394,10 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3998,8 +4440,14 @@
       <c r="P91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4490,14 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,8 +4540,14 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4130,8 +4590,14 @@
       <c r="P94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,8 +4614,10 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4192,8 +4660,14 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4710,14 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4760,14 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,8 +4810,14 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4368,8 +4860,14 @@
       <c r="P100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4412,8 +4910,14 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4454,6 +4958,12 @@
         <v>0</v>
       </c>
       <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/WEBC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/WEBC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="92">
   <si>
     <t>WEBC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,232 +665,244 @@
     <col min="1" max="1" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43951</v>
+      </c>
+      <c r="E7" s="2">
         <v>43861</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43769</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43677</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43585</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43496</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43404</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43312</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43220</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43131</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43039</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42947</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42855</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42766</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42674</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42582</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>104800</v>
+      </c>
+      <c r="E8" s="3">
         <v>112400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>122500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>130000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>145700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>135900</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>137000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>147800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>127300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>111000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>114300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>106600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>98300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>91600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>88300</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>84000</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>94900</v>
+      </c>
+      <c r="E9" s="3">
         <v>100700</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>108900</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>118600</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>126000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>117500</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>112800</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>123700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>108700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>98000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>100400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>96400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>89400</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>84000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>80400</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>77300</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>9900</v>
+      </c>
+      <c r="E10" s="3">
         <v>11700</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>13600</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>11400</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>19700</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>18400</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>24200</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>24100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>18600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>13000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>13900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>10200</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>8900</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>7600</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>7900</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>6700</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -909,8 +921,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -959,8 +972,11 @@
       <c r="R12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1009,31 +1025,34 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
+        <v>400</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
@@ -1059,8 +1078,11 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1109,8 +1131,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1126,108 +1151,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>104200</v>
+      </c>
+      <c r="E17" s="3">
         <v>109100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>117700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>124900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>135700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>127800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>123100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>137500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>120100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>106400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>108500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>103600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>95800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>89800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>86800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>83300</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>600</v>
+      </c>
+      <c r="E18" s="3">
         <v>3300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>4800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>5100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>10000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>8100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>13900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>10300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>7200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>4600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>5800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>3000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>2500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>1800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>1500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1246,8 +1278,9 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1255,249 +1288,264 @@
         <v>0</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>-100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-300</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
       <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>200</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
       <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
         <v>200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>900</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>500</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E21" s="3">
         <v>6900</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>8300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>8400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>13300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>11200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>17300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>13700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>10500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>8000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>9100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>6100</v>
-      </c>
-      <c r="O21" s="3">
-        <v>5600</v>
       </c>
       <c r="P21" s="3">
         <v>5600</v>
       </c>
       <c r="Q21" s="3">
+        <v>5600</v>
+      </c>
+      <c r="R21" s="3">
         <v>4900</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>3600</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>700</v>
+      </c>
+      <c r="E22" s="3">
         <v>800</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>900</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>1000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>1200</v>
-      </c>
-      <c r="H22" s="3">
-        <v>1300</v>
       </c>
       <c r="I22" s="3">
         <v>1300</v>
       </c>
       <c r="J22" s="3">
+        <v>1300</v>
+      </c>
+      <c r="K22" s="3">
         <v>1100</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>900</v>
-      </c>
-      <c r="L22" s="3">
-        <v>800</v>
       </c>
       <c r="M22" s="3">
         <v>800</v>
       </c>
       <c r="N22" s="3">
+        <v>800</v>
+      </c>
+      <c r="O22" s="3">
         <v>600</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>500</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>600</v>
-      </c>
-      <c r="Q22" s="3">
-        <v>700</v>
       </c>
       <c r="R22" s="3">
         <v>700</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E23" s="3">
         <v>2500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>3800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>4000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>8700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>6500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>12500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>9200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>6500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>4200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>5200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>2400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>2200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>2000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>1300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E24" s="3">
         <v>500</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>700</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-400</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>2100</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>1600</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>2800</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>2400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>1500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-4200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>2200</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>1000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>900</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-100</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>600</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1546,108 +1594,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>200</v>
+      </c>
+      <c r="E26" s="3">
         <v>2000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>3200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>4300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>6600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>4900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>9800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>6800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>5000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>8400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>3000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>1400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>1300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>2200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>200</v>
+      </c>
+      <c r="E27" s="3">
         <v>2000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>3200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>4300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>6600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>4900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>9800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>6800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>5000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>8400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>3000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>1400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>1300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>2200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1696,8 +1753,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1746,8 +1806,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1796,8 +1859,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1846,8 +1912,11 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1855,99 +1924,105 @@
         <v>0</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>300</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
       <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>-100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-200</v>
       </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
       <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
         <v>-200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-900</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-500</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>200</v>
+      </c>
+      <c r="E33" s="3">
         <v>2000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>3200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>4300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>6600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>4900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>9800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>6800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>5000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>8400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>3000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>1400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>1300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>2200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1996,113 +2071,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>200</v>
+      </c>
+      <c r="E35" s="3">
         <v>2000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>3200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>4300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>6600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>4900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>9800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>6800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>5000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>8400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>3000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>1400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>1300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>2200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43951</v>
+      </c>
+      <c r="E38" s="2">
         <v>43861</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43769</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43677</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43585</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43496</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43404</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43312</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43220</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43131</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43039</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42947</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42855</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42766</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42674</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42582</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2121,8 +2205,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2141,58 +2226,62 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>11300</v>
+      </c>
+      <c r="E41" s="3">
         <v>3400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>6200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>7100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>6800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>4900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>6200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>7100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>4400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>6800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>6300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>7200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>8100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>8000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>8400</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>6300</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2241,208 +2330,223 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>47300</v>
+      </c>
+      <c r="E43" s="3">
         <v>54200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>55600</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>59400</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>67200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>64400</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>64700</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>76500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>68800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>55500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>54700</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>53000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>49500</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>43000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>39700</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>39900</v>
       </c>
     </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>160200</v>
+      </c>
+      <c r="E44" s="3">
         <v>156300</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>168800</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>176400</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>185800</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>197900</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>198600</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>170900</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>153700</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>144900</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>130700</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>124500</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>115200</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>112600</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>117000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>113400</v>
       </c>
     </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>6700</v>
+      </c>
+      <c r="E45" s="3">
         <v>2000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>11800</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>11600</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>6700</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>3700</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>5300</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>7200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>5700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>2900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>5900</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>5500</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>3400</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>1200</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>1700</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>9800</v>
       </c>
     </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>225500</v>
+      </c>
+      <c r="E46" s="3">
         <v>215800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>242500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>254600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>266400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>270900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>274800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>261700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>232500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>210100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>197600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>190200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>176300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>164800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>166700</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>169300</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2491,58 +2595,64 @@
       <c r="R47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>133400</v>
+      </c>
+      <c r="E48" s="3">
         <v>134700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>122800</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>112500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>107900</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>104700</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>105500</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>104200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>102500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>98100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>96100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>97200</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>96900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>93700</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>93200</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>92600</v>
       </c>
     </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2591,8 +2701,11 @@
       <c r="R49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2641,8 +2754,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2691,58 +2807,64 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>4700</v>
+      </c>
+      <c r="E52" s="3">
         <v>4800</v>
-      </c>
-      <c r="E52" s="3">
-        <v>3900</v>
       </c>
       <c r="F52" s="3">
         <v>3900</v>
       </c>
       <c r="G52" s="3">
+        <v>3900</v>
+      </c>
+      <c r="H52" s="3">
         <v>4500</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>4300</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>3900</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>3600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>6200</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>5400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>4600</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>4700</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>2000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>2300</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>1500</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2791,58 +2913,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>363500</v>
+      </c>
+      <c r="E54" s="3">
         <v>355300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>369200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>371000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>378900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>379900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>384100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>369500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>341200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>313600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>298200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>292200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>275200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>260800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>261400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>263200</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2861,8 +2989,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2881,8 +3010,9 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2931,158 +3061,170 @@
       <c r="R57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>74500</v>
+      </c>
+      <c r="E58" s="3">
         <v>65800</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>82500</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>88600</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>100600</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>107100</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>111200</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>110500</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>90700</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>77800</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>67000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>67900</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>56800</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>49100</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>50200</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>43400</v>
       </c>
     </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>40700</v>
+      </c>
+      <c r="E59" s="3">
         <v>39900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>41800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>46400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>46000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>48100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>52500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>46700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>45300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>36400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>35400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>31400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>29100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>26200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>29200</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>30200</v>
       </c>
     </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>115200</v>
+      </c>
+      <c r="E60" s="3">
         <v>105700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>124400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>135000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>146600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>155200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>163600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>157100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>136000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>114200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>102400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>99200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>85900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>75300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>79300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>73500</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3093,10 +3235,10 @@
         <v>12000</v>
       </c>
       <c r="F61" s="3">
+        <v>12000</v>
+      </c>
+      <c r="G61" s="3">
         <v>12200</v>
-      </c>
-      <c r="G61" s="3">
-        <v>12000</v>
       </c>
       <c r="H61" s="3">
         <v>12000</v>
@@ -3131,58 +3273,64 @@
       <c r="R61" s="3">
         <v>12000</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>19000</v>
+      </c>
+      <c r="E62" s="3">
         <v>21000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>15100</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>8700</v>
-      </c>
-      <c r="G62" s="3">
-        <v>7200</v>
       </c>
       <c r="H62" s="3">
         <v>7200</v>
       </c>
       <c r="I62" s="3">
+        <v>7200</v>
+      </c>
+      <c r="J62" s="3">
         <v>8000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>8800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>7600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>7100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>12300</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>12800</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>11100</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>9100</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>8300</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>17000</v>
       </c>
     </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3231,8 +3379,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3281,8 +3432,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3331,58 +3485,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>146200</v>
+      </c>
+      <c r="E66" s="3">
         <v>138700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>151500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>155900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>165800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>174400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>183700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>177900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>155600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>133300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>126700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>124000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>109000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>96500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>99700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>102500</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3401,8 +3561,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3451,8 +3612,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3501,8 +3665,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3551,8 +3718,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3601,8 +3771,11 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -3615,20 +3788,20 @@
       <c r="F72" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G72" s="3">
+      <c r="G72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H72" s="3">
         <v>213100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>205600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>200500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>191500</v>
-      </c>
-      <c r="K72" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="L72" s="3" t="s">
         <v>8</v>
@@ -3642,8 +3815,8 @@
       <c r="O72" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P72" s="3">
-        <v>0</v>
+      <c r="P72" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q72" s="3">
         <v>0</v>
@@ -3651,8 +3824,11 @@
       <c r="R72" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3701,8 +3877,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3751,8 +3930,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3801,58 +3983,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>217300</v>
+      </c>
+      <c r="E76" s="3">
         <v>216600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>217800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>215200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>213100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>205600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>200500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>191500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>185600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>180400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>171500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>168200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>166200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>164400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>161700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>160600</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3901,113 +4089,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43951</v>
+      </c>
+      <c r="E80" s="2">
         <v>43861</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43769</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43677</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43585</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43496</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43404</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43312</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43220</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43131</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43039</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42947</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42855</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42766</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42674</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42582</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>200</v>
+      </c>
+      <c r="E81" s="3">
         <v>2000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>3200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>4300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>6600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>4900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>9800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>6800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>5000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>8400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>3000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>1400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>1300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>2200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4026,13 +4223,14 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>3500</v>
+        <v>3400</v>
       </c>
       <c r="E83" s="3">
         <v>3500</v>
@@ -4041,7 +4239,7 @@
         <v>3500</v>
       </c>
       <c r="G83" s="3">
-        <v>3400</v>
+        <v>3500</v>
       </c>
       <c r="H83" s="3">
         <v>3400</v>
@@ -4050,22 +4248,22 @@
         <v>3400</v>
       </c>
       <c r="J83" s="3">
+        <v>3400</v>
+      </c>
+      <c r="K83" s="3">
         <v>3300</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>3100</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>3000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>3100</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>3000</v>
-      </c>
-      <c r="O83" s="3">
-        <v>2900</v>
       </c>
       <c r="P83" s="3">
         <v>2900</v>
@@ -4074,10 +4272,13 @@
         <v>2900</v>
       </c>
       <c r="R83" s="3">
+        <v>2900</v>
+      </c>
+      <c r="S83" s="3">
         <v>3100</v>
       </c>
     </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4126,8 +4327,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4176,8 +4380,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4226,8 +4433,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4276,8 +4486,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4326,58 +4539,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E89" s="3">
         <v>23000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>11100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>22600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>12900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>14800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>1400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-9500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-11800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-4300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>2500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-2500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-6000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>7800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-1600</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-3900</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4396,8 +4615,9 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4446,8 +4666,11 @@
       <c r="R91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4496,8 +4719,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4546,8 +4772,11 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4596,8 +4825,11 @@
       <c r="R94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4616,8 +4848,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4666,8 +4899,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4716,8 +4952,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4766,8 +5005,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4816,8 +5058,11 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4866,8 +5111,11 @@
       <c r="R100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4916,8 +5164,11 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4964,6 +5215,9 @@
         <v>0</v>
       </c>
       <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/WEBC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/WEBC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="92">
   <si>
     <t>WEBC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,244 +665,270 @@
     <col min="1" max="1" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44135</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44043</v>
+      </c>
+      <c r="F7" s="2">
         <v>43951</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43861</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43769</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43677</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43585</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43496</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43404</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43312</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43220</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43131</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43039</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42947</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42855</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>42766</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>42674</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>42582</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>99800</v>
+      </c>
+      <c r="E8" s="3">
+        <v>89100</v>
+      </c>
+      <c r="F8" s="3">
         <v>104800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>112400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>122500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>130000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>145700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>135900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>137000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>147800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>127300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>111000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>114300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>106600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>98300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>91600</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>88300</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>84000</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>92500</v>
+      </c>
+      <c r="E9" s="3">
+        <v>86300</v>
+      </c>
+      <c r="F9" s="3">
         <v>94900</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>100700</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>108900</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>118600</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>126000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>117500</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>112800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>123700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>108700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>98000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>100400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>96400</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>89400</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>84000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>80400</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>77300</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>7300</v>
+      </c>
+      <c r="E10" s="3">
+        <v>2800</v>
+      </c>
+      <c r="F10" s="3">
         <v>9900</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>11700</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>13600</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>11400</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>19700</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>18400</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>24200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>24100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>18600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>13000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>13900</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>10200</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>8900</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>7600</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>7900</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>6700</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -922,8 +948,10 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -975,8 +1003,14 @@
       <c r="S12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1028,19 +1062,25 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="3">
+        <v>500</v>
+      </c>
+      <c r="F14" s="3">
         <v>400</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>8</v>
@@ -1054,11 +1094,11 @@
       <c r="J14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M14" s="3">
         <v>0</v>
@@ -1081,8 +1121,14 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1134,8 +1180,14 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,114 +1204,128 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>99600</v>
+      </c>
+      <c r="E17" s="3">
+        <v>91000</v>
+      </c>
+      <c r="F17" s="3">
         <v>104200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>109100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>117700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>124900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>135700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>127800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>123100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>137500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>120100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>106400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>108500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>103600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>95800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>89800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>86800</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>83300</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>200</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="F18" s="3">
         <v>600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>3300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>4800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>5100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>10000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>8100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>13900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>10300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>7200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>4600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>5800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>3000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>2500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>1800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>1500</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,8 +1345,10 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1291,261 +1359,291 @@
         <v>0</v>
       </c>
       <c r="F20" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G20" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="H20" s="3">
         <v>-100</v>
       </c>
       <c r="I20" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K20" s="3">
         <v>-300</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
         <v>100</v>
-      </c>
-      <c r="L20" s="3">
-        <v>200</v>
-      </c>
-      <c r="M20" s="3">
-        <v>400</v>
       </c>
       <c r="N20" s="3">
         <v>200</v>
       </c>
       <c r="O20" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="P20" s="3">
         <v>200</v>
       </c>
       <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
+        <v>200</v>
+      </c>
+      <c r="S20" s="3">
         <v>900</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>500</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>3800</v>
+      </c>
+      <c r="E21" s="3">
+        <v>1700</v>
+      </c>
+      <c r="F21" s="3">
         <v>4000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>6900</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>8300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>8400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>13300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>11200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>17300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>13700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>10500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>8000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>9100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>6100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>5600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>5600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>4900</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>3600</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>400</v>
+      </c>
+      <c r="E22" s="3">
+        <v>400</v>
+      </c>
+      <c r="F22" s="3">
         <v>700</v>
       </c>
-      <c r="E22" s="3">
+      <c r="G22" s="3">
         <v>800</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
         <v>900</v>
       </c>
-      <c r="G22" s="3">
+      <c r="I22" s="3">
         <v>1000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="J22" s="3">
         <v>1200</v>
       </c>
-      <c r="I22" s="3">
+      <c r="K22" s="3">
         <v>1300</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>1300</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>1100</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>900</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>800</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>800</v>
-      </c>
-      <c r="O22" s="3">
-        <v>600</v>
-      </c>
-      <c r="P22" s="3">
-        <v>500</v>
       </c>
       <c r="Q22" s="3">
         <v>600</v>
       </c>
       <c r="R22" s="3">
+        <v>500</v>
+      </c>
+      <c r="S22" s="3">
+        <v>600</v>
+      </c>
+      <c r="T22" s="3">
         <v>700</v>
       </c>
-      <c r="S22" s="3">
+      <c r="U22" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="F23" s="3">
         <v>-100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>2500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>3800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>4000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>8700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>6500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>12500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>9200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>6500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>4200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>5200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>2400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>2200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>2000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>1300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>0</v>
+      </c>
+      <c r="E24" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="F24" s="3">
         <v>-300</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>500</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>700</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>-400</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>2100</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>1600</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>2800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>2400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>1500</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>-4200</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>2200</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>1000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>900</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>-100</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>600</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,114 +1695,132 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="F26" s="3">
         <v>200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>2000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>3200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>4300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>6600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>4900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>9800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>6800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>5000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>8400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>3000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>1400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>1300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>2200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>700</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="F27" s="3">
         <v>200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>2000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>3200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>4300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>6600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>4900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>9800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>6800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>5000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>8400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>3000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>1400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>1300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>2200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>700</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,8 +1872,14 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1809,8 +1931,14 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1990,14 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,8 +2049,14 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1927,102 +2067,114 @@
         <v>0</v>
       </c>
       <c r="F32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G32" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="H32" s="3">
         <v>100</v>
       </c>
       <c r="I32" s="3">
+        <v>200</v>
+      </c>
+      <c r="J32" s="3">
+        <v>100</v>
+      </c>
+      <c r="K32" s="3">
         <v>300</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
         <v>-100</v>
-      </c>
-      <c r="L32" s="3">
-        <v>-200</v>
-      </c>
-      <c r="M32" s="3">
-        <v>-400</v>
       </c>
       <c r="N32" s="3">
         <v>-200</v>
       </c>
       <c r="O32" s="3">
-        <v>0</v>
+        <v>-400</v>
       </c>
       <c r="P32" s="3">
         <v>-200</v>
       </c>
       <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="S32" s="3">
         <v>-900</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>-500</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="F33" s="3">
         <v>200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>2000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>3200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>4300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>6600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>4900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>9800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>6800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>5000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>8400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>3000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>1400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>1300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>2200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>700</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,119 +2226,137 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="F35" s="3">
         <v>200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>2000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>3200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>4300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>6600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>4900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>9800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>6800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>5000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>8400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>3000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>1400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>1300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>2200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>700</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44135</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44043</v>
+      </c>
+      <c r="F38" s="2">
         <v>43951</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43861</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43769</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43677</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43585</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43496</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43404</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43312</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43220</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43131</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43039</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42947</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42855</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>42766</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>42674</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>42582</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2376,10 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,61 +2399,69 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>6200</v>
+      </c>
+      <c r="E41" s="3">
+        <v>4600</v>
+      </c>
+      <c r="F41" s="3">
         <v>11300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>3400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>6200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>7100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>6800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>4900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>6200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>7100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>4400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>6800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>6300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>7200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>8100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>8000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>8400</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>6300</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2333,220 +2513,250 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>48900</v>
+      </c>
+      <c r="E43" s="3">
+        <v>41700</v>
+      </c>
+      <c r="F43" s="3">
         <v>47300</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>54200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>55600</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>59400</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>67200</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>64400</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>64700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>76500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>68800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>55500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>54700</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>53000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>49500</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>43000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>39700</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>39900</v>
       </c>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>112500</v>
+      </c>
+      <c r="E44" s="3">
+        <v>135800</v>
+      </c>
+      <c r="F44" s="3">
         <v>160200</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>156300</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>168800</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>176400</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>185800</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>197900</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>198600</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>170900</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>153700</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>144900</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>130700</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>124500</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>115200</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="S44" s="3">
         <v>112600</v>
       </c>
-      <c r="R44" s="3">
+      <c r="T44" s="3">
         <v>117000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="U44" s="3">
         <v>113400</v>
       </c>
     </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>7400</v>
+      </c>
+      <c r="E45" s="3">
+        <v>5600</v>
+      </c>
+      <c r="F45" s="3">
         <v>6700</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>2000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>11800</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>11600</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>6700</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>3700</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>5300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>7200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>5700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>2900</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>5900</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>5500</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>3400</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>1200</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>1700</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>9800</v>
       </c>
     </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>175100</v>
+      </c>
+      <c r="E46" s="3">
+        <v>187600</v>
+      </c>
+      <c r="F46" s="3">
         <v>225500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>215800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>242500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>254600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>266400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>270900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>274800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>261700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>232500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>210100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>197600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>190200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>176300</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>164800</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>166700</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>169300</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2598,61 +2808,73 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>135400</v>
+      </c>
+      <c r="E48" s="3">
+        <v>134600</v>
+      </c>
+      <c r="F48" s="3">
         <v>133400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>134700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>122800</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>112500</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>107900</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>104700</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>105500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>104200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>102500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>98100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>96100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>97200</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>96900</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>93700</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>93200</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>92600</v>
       </c>
     </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2704,8 +2926,14 @@
       <c r="S49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3">
+        <v>0</v>
+      </c>
+      <c r="U49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2985,14 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,61 +3044,73 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>6600</v>
+      </c>
+      <c r="E52" s="3">
+        <v>5500</v>
+      </c>
+      <c r="F52" s="3">
         <v>4700</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>4800</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>3900</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>3900</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>4500</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>4300</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>3900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>3600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>6200</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>5400</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>4600</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>4700</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>2000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>2300</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>1500</v>
       </c>
-      <c r="S52" s="3">
+      <c r="U52" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,61 +3162,73 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>317000</v>
+      </c>
+      <c r="E54" s="3">
+        <v>327700</v>
+      </c>
+      <c r="F54" s="3">
         <v>363500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>355300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>369200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>371000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>378900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>379900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>384100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>369500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>341200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>313600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>298200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>292200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>275200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>260800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>261400</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>263200</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3248,10 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,31 +3271,33 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>0</v>
+        <v>8300</v>
       </c>
       <c r="E57" s="3">
-        <v>0</v>
-      </c>
-      <c r="F57" s="3">
-        <v>0</v>
-      </c>
-      <c r="G57" s="3">
-        <v>0</v>
-      </c>
-      <c r="H57" s="3">
-        <v>0</v>
-      </c>
-      <c r="I57" s="3">
-        <v>0</v>
-      </c>
-      <c r="J57" s="3">
-        <v>0</v>
+        <v>14500</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J57" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K57" s="3">
         <v>0</v>
@@ -3064,187 +3326,211 @@
       <c r="S57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T57" s="3">
+        <v>0</v>
+      </c>
+      <c r="U57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>35400</v>
+      </c>
+      <c r="E58" s="3">
+        <v>42000</v>
+      </c>
+      <c r="F58" s="3">
         <v>74500</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>65800</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>82500</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>88600</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>100600</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>107100</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>111200</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>110500</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>90700</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>77800</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>67000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>67900</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>56800</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>49100</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>50200</v>
       </c>
-      <c r="S58" s="3">
+      <c r="U58" s="3">
         <v>43400</v>
       </c>
     </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>21000</v>
+      </c>
+      <c r="E59" s="3">
+        <v>19500</v>
+      </c>
+      <c r="F59" s="3">
         <v>40700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>39900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>41800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>46400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>46000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>48100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>52500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>46700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>45300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>36400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>35400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>31400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>29100</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>26200</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>29200</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>30200</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>64700</v>
+      </c>
+      <c r="E60" s="3">
+        <v>75900</v>
+      </c>
+      <c r="F60" s="3">
         <v>115200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>105700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>124400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>135000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>146600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>155200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>163600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>157100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>136000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>114200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>102400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>99200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>85900</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>75300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>79300</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>73500</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="E61" s="3">
-        <v>12000</v>
+        <v>13100</v>
       </c>
       <c r="F61" s="3">
         <v>12000</v>
       </c>
       <c r="G61" s="3">
-        <v>12200</v>
+        <v>12000</v>
       </c>
       <c r="H61" s="3">
         <v>12000</v>
       </c>
       <c r="I61" s="3">
-        <v>12000</v>
+        <v>12200</v>
       </c>
       <c r="J61" s="3">
         <v>12000</v>
@@ -3276,61 +3562,73 @@
       <c r="S61" s="3">
         <v>12000</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>12000</v>
+      </c>
+      <c r="U61" s="3">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>22700</v>
+      </c>
+      <c r="E62" s="3">
+        <v>22200</v>
+      </c>
+      <c r="F62" s="3">
         <v>19000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>21000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>15100</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>8700</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>7200</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>7200</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>8000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>8800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>7600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>7100</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>12300</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>12800</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>11100</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>9100</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>8300</v>
       </c>
-      <c r="S62" s="3">
+      <c r="U62" s="3">
         <v>17000</v>
       </c>
     </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3680,14 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3739,14 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,61 +3798,73 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>100400</v>
+      </c>
+      <c r="E66" s="3">
+        <v>111200</v>
+      </c>
+      <c r="F66" s="3">
         <v>146200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>138700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>151500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>155900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>165800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>174400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>183700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>177900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>155600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>133300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>126700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>124000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>109000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>96500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>99700</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>102500</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3884,10 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3939,14 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3998,14 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3721,8 +4057,14 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,16 +4116,22 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E72" s="3" t="s">
-        <v>8</v>
+      <c r="D72" s="3">
+        <v>165500</v>
+      </c>
+      <c r="E72" s="3">
+        <v>165600</v>
       </c>
       <c r="F72" s="3" t="s">
         <v>8</v>
@@ -3791,23 +4139,23 @@
       <c r="G72" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H72" s="3">
+      <c r="H72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J72" s="3">
         <v>213100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>205600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>200500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>191500</v>
-      </c>
-      <c r="L72" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M72" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="N72" s="3" t="s">
         <v>8</v>
@@ -3818,17 +4166,23 @@
       <c r="P72" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q72" s="3">
-        <v>0</v>
-      </c>
-      <c r="R72" s="3">
-        <v>0</v>
+      <c r="Q72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R72" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="S72" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T72" s="3">
+        <v>0</v>
+      </c>
+      <c r="U72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4234,14 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4293,14 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,61 +4352,73 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>216600</v>
+      </c>
+      <c r="E76" s="3">
+        <v>216500</v>
+      </c>
+      <c r="F76" s="3">
         <v>217300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>216600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>217800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>215200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>213100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>205600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>200500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>191500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>185600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>180400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>171500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>168200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>166200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>164400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>161700</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>160600</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,119 +4470,137 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44135</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44043</v>
+      </c>
+      <c r="F80" s="2">
         <v>43951</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43861</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43769</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43677</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43585</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43496</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43404</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43312</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43220</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43131</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43039</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42947</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42855</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>42766</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>42674</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>42582</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="F81" s="3">
         <v>200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>2000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>3200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>4300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>6600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>4900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>9800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>6800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>5000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>8400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>3000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>1400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>1300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>2200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>700</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,40 +4620,42 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>3400</v>
+        <v>3600</v>
       </c>
       <c r="E83" s="3">
         <v>3500</v>
       </c>
       <c r="F83" s="3">
-        <v>3500</v>
+        <v>3400</v>
       </c>
       <c r="G83" s="3">
         <v>3500</v>
       </c>
       <c r="H83" s="3">
-        <v>3400</v>
+        <v>3500</v>
       </c>
       <c r="I83" s="3">
-        <v>3400</v>
+        <v>3500</v>
       </c>
       <c r="J83" s="3">
         <v>3400</v>
       </c>
       <c r="K83" s="3">
+        <v>3400</v>
+      </c>
+      <c r="L83" s="3">
+        <v>3400</v>
+      </c>
+      <c r="M83" s="3">
         <v>3300</v>
-      </c>
-      <c r="L83" s="3">
-        <v>3100</v>
-      </c>
-      <c r="M83" s="3">
-        <v>3000</v>
       </c>
       <c r="N83" s="3">
         <v>3100</v>
@@ -4266,19 +4664,25 @@
         <v>3000</v>
       </c>
       <c r="P83" s="3">
-        <v>2900</v>
+        <v>3100</v>
       </c>
       <c r="Q83" s="3">
-        <v>2900</v>
+        <v>3000</v>
       </c>
       <c r="R83" s="3">
         <v>2900</v>
       </c>
       <c r="S83" s="3">
+        <v>2900</v>
+      </c>
+      <c r="T83" s="3">
+        <v>2900</v>
+      </c>
+      <c r="U83" s="3">
         <v>3100</v>
       </c>
     </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4734,14 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4793,14 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4852,14 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4911,14 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,61 +4970,73 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>12600</v>
+      </c>
+      <c r="E89" s="3">
+        <v>23600</v>
+      </c>
+      <c r="F89" s="3">
         <v>5000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>23000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>11100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>22600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>12900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>14800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>1400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-9500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-11800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-4300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>2500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-2500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>-6000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>7800</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>-1600</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>-3900</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,8 +5056,10 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4669,8 +5111,14 @@
       <c r="S91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +5170,14 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,8 +5229,14 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4828,8 +5288,14 @@
       <c r="S94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3">
+        <v>0</v>
+      </c>
+      <c r="U94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,8 +5315,10 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4902,8 +5370,14 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5429,14 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5488,14 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,8 +5547,14 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5114,8 +5606,14 @@
       <c r="S100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T100" s="3">
+        <v>0</v>
+      </c>
+      <c r="U100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5167,8 +5665,14 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5218,6 +5722,12 @@
         <v>0</v>
       </c>
       <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3">
+        <v>0</v>
+      </c>
+      <c r="U102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/WEBC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/WEBC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="92">
   <si>
     <t>WEBC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,270 +665,295 @@
     <col min="1" max="1" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44316</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44227</v>
+      </c>
+      <c r="F7" s="2">
         <v>44135</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44043</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43951</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43861</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43769</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43677</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43585</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43496</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43404</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43312</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43220</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43131</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43039</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>42947</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>42855</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>42766</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>42674</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>42582</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>127000</v>
+      </c>
+      <c r="E8" s="3">
+        <v>94300</v>
+      </c>
+      <c r="F8" s="3">
         <v>99800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>89100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>104800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>112400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>122500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>130000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>145700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>135900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>137000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>147800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>127300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>111000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>114300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>106600</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>98300</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>91600</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>88300</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>84000</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>108400</v>
+      </c>
+      <c r="E9" s="3">
+        <v>87000</v>
+      </c>
+      <c r="F9" s="3">
         <v>92500</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>86300</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>94900</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>100700</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>108900</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>118600</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>126000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>117500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>112800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>123700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>108700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>98000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>100400</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>96400</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>89400</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>84000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>80400</v>
       </c>
-      <c r="U9" s="3">
+      <c r="W9" s="3">
         <v>77300</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>18600</v>
+      </c>
+      <c r="E10" s="3">
         <v>7300</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
+        <v>7300</v>
+      </c>
+      <c r="G10" s="3">
         <v>2800</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>9900</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>11700</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>13600</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>11400</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>19700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>18400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>24200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>24100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>18600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>13000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>13900</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>10200</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>8900</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>7600</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>7900</v>
       </c>
-      <c r="U10" s="3">
+      <c r="W10" s="3">
         <v>6700</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -950,8 +975,10 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1009,8 +1036,14 @@
       <c r="U12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1068,25 +1101,31 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G14" s="3">
         <v>500</v>
       </c>
-      <c r="F14" s="3">
+      <c r="H14" s="3">
         <v>400</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>8</v>
@@ -1100,11 +1139,11 @@
       <c r="L14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
-      <c r="N14" s="3">
-        <v>0</v>
+      <c r="M14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O14" s="3">
         <v>0</v>
@@ -1127,8 +1166,14 @@
       <c r="U14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1186,8 +1231,14 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1206,126 +1257,140 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>118500</v>
+      </c>
+      <c r="E17" s="3">
+        <v>94100</v>
+      </c>
+      <c r="F17" s="3">
         <v>99600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>91000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>104200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>109100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>117700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>124900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>135700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>127800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>123100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>137500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>120100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>106400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>108500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>103600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>95800</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>89800</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>86800</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>83300</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>8500</v>
+      </c>
+      <c r="E18" s="3">
         <v>200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
+        <v>200</v>
+      </c>
+      <c r="G18" s="3">
         <v>-1900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>3300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>4800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>5100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>10000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>8100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>13900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>10300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>7200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>4600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>5800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>3000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>2500</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>1800</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>1500</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1347,8 +1412,10 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1365,285 +1432,315 @@
         <v>0</v>
       </c>
       <c r="H20" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I20" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="J20" s="3">
         <v>-100</v>
       </c>
       <c r="K20" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M20" s="3">
         <v>-300</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
         <v>100</v>
-      </c>
-      <c r="N20" s="3">
-        <v>200</v>
-      </c>
-      <c r="O20" s="3">
-        <v>400</v>
       </c>
       <c r="P20" s="3">
         <v>200</v>
       </c>
       <c r="Q20" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="R20" s="3">
         <v>200</v>
       </c>
       <c r="S20" s="3">
+        <v>0</v>
+      </c>
+      <c r="T20" s="3">
+        <v>200</v>
+      </c>
+      <c r="U20" s="3">
         <v>900</v>
       </c>
-      <c r="T20" s="3">
+      <c r="V20" s="3">
         <v>500</v>
       </c>
-      <c r="U20" s="3">
+      <c r="W20" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>11900</v>
+      </c>
+      <c r="E21" s="3">
         <v>3800</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
+        <v>3800</v>
+      </c>
+      <c r="G21" s="3">
         <v>1700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>4000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>6900</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>8300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>8400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>13300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>11200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>17300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>13700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>10500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>8000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>9100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>6100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>5600</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>5600</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>4900</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>3600</v>
       </c>
     </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>300</v>
+      </c>
+      <c r="E22" s="3">
+        <v>300</v>
+      </c>
+      <c r="F22" s="3">
         <v>400</v>
       </c>
-      <c r="E22" s="3">
+      <c r="G22" s="3">
         <v>400</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
         <v>700</v>
       </c>
-      <c r="G22" s="3">
+      <c r="I22" s="3">
         <v>800</v>
       </c>
-      <c r="H22" s="3">
+      <c r="J22" s="3">
         <v>900</v>
       </c>
-      <c r="I22" s="3">
+      <c r="K22" s="3">
         <v>1000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>1200</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>1300</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>1300</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>1100</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>900</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>800</v>
       </c>
-      <c r="P22" s="3">
+      <c r="R22" s="3">
         <v>800</v>
-      </c>
-      <c r="Q22" s="3">
-        <v>600</v>
-      </c>
-      <c r="R22" s="3">
-        <v>500</v>
       </c>
       <c r="S22" s="3">
         <v>600</v>
       </c>
       <c r="T22" s="3">
+        <v>500</v>
+      </c>
+      <c r="U22" s="3">
+        <v>600</v>
+      </c>
+      <c r="V22" s="3">
         <v>700</v>
       </c>
-      <c r="U22" s="3">
+      <c r="W22" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>8200</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F23" s="3">
         <v>-200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-2300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>2500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>3800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>4000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>8700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>6500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>12500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>9200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>6500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>4200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>5200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>2400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>2200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>2000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>1300</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>0</v>
+        <v>1700</v>
       </c>
       <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3">
         <v>-1200</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>-300</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>500</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>700</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>-400</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>2100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>1600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>2800</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>2400</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>1500</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>-4200</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>2200</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>1000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>900</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>-100</v>
       </c>
-      <c r="T24" s="3">
+      <c r="V24" s="3">
         <v>600</v>
       </c>
-      <c r="U24" s="3">
+      <c r="W24" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1701,126 +1798,144 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>6500</v>
+      </c>
+      <c r="E26" s="3">
+        <v>0</v>
+      </c>
+      <c r="F26" s="3">
         <v>-200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-1100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>2000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>3200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>4300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>6600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>4900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>9800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>6800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>5000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>8400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>3000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>1400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>1300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>2200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>700</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>6500</v>
+      </c>
+      <c r="E27" s="3">
+        <v>0</v>
+      </c>
+      <c r="F27" s="3">
         <v>-200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-1100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>2000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>3200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>4300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>6600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>4900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>9800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>6800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>5000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>8400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>3000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>1400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>1300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>2200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>700</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1878,8 +1993,14 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1937,8 +2058,14 @@
       <c r="U29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1996,8 +2123,14 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2055,8 +2188,14 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2073,108 +2212,120 @@
         <v>0</v>
       </c>
       <c r="H32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I32" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="J32" s="3">
         <v>100</v>
       </c>
       <c r="K32" s="3">
+        <v>200</v>
+      </c>
+      <c r="L32" s="3">
+        <v>100</v>
+      </c>
+      <c r="M32" s="3">
         <v>300</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
         <v>-100</v>
-      </c>
-      <c r="N32" s="3">
-        <v>-200</v>
-      </c>
-      <c r="O32" s="3">
-        <v>-400</v>
       </c>
       <c r="P32" s="3">
         <v>-200</v>
       </c>
       <c r="Q32" s="3">
-        <v>0</v>
+        <v>-400</v>
       </c>
       <c r="R32" s="3">
         <v>-200</v>
       </c>
       <c r="S32" s="3">
+        <v>0</v>
+      </c>
+      <c r="T32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="U32" s="3">
         <v>-900</v>
       </c>
-      <c r="T32" s="3">
+      <c r="V32" s="3">
         <v>-500</v>
       </c>
-      <c r="U32" s="3">
+      <c r="W32" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>6500</v>
+      </c>
+      <c r="E33" s="3">
+        <v>0</v>
+      </c>
+      <c r="F33" s="3">
         <v>-200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-1100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>2000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>3200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>4300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>6600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>4900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>9800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>6800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>5000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>8400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>3000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>1400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>1300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>2200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>700</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2232,131 +2383,149 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>6500</v>
+      </c>
+      <c r="E35" s="3">
+        <v>0</v>
+      </c>
+      <c r="F35" s="3">
         <v>-200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-1100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>2000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>3200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>4300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>6600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>4900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>9800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>6800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>5000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>8400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>3000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>1400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>1300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>2200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>700</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44316</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44227</v>
+      </c>
+      <c r="F38" s="2">
         <v>44135</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44043</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43951</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43861</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43769</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43677</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43585</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43496</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43404</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43312</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43220</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43131</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43039</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>42947</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>42855</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>42766</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>42674</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>42582</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2378,8 +2547,10 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2401,67 +2572,75 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>7100</v>
+      </c>
+      <c r="E41" s="3">
+        <v>5400</v>
+      </c>
+      <c r="F41" s="3">
         <v>6200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>4600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>11300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>3400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>6200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>7100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>6800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>4900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>6200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>7100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>4400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>6800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>6300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>7200</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>8100</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>8000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>8400</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>6300</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2519,244 +2698,274 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>59900</v>
+      </c>
+      <c r="E43" s="3">
+        <v>45000</v>
+      </c>
+      <c r="F43" s="3">
         <v>48900</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>41700</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>47300</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>54200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>55600</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>59400</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>67200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>64400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>64700</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>76500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>68800</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>55500</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>54700</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>53000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>49500</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>43000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="V43" s="3">
         <v>39700</v>
       </c>
-      <c r="U43" s="3">
+      <c r="W43" s="3">
         <v>39900</v>
       </c>
     </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>121100</v>
+      </c>
+      <c r="E44" s="3">
+        <v>114900</v>
+      </c>
+      <c r="F44" s="3">
         <v>112500</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>135800</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>160200</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>156300</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>168800</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>176400</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>185800</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>197900</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>198600</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>170900</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>153700</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>144900</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>130700</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="S44" s="3">
         <v>124500</v>
       </c>
-      <c r="R44" s="3">
+      <c r="T44" s="3">
         <v>115200</v>
       </c>
-      <c r="S44" s="3">
+      <c r="U44" s="3">
         <v>112600</v>
       </c>
-      <c r="T44" s="3">
+      <c r="V44" s="3">
         <v>117000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="W44" s="3">
         <v>113400</v>
       </c>
     </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>6700</v>
+      </c>
+      <c r="E45" s="3">
+        <v>2400</v>
+      </c>
+      <c r="F45" s="3">
         <v>7400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>5600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>6700</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>2000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>11800</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>11600</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>6700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>3700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>5300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>7200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>5700</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>2900</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>5900</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>5500</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>3400</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>1200</v>
       </c>
-      <c r="T45" s="3">
+      <c r="V45" s="3">
         <v>1700</v>
       </c>
-      <c r="U45" s="3">
+      <c r="W45" s="3">
         <v>9800</v>
       </c>
     </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>194800</v>
+      </c>
+      <c r="E46" s="3">
+        <v>167700</v>
+      </c>
+      <c r="F46" s="3">
         <v>175100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>187600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>225500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>215800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>242500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>254600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>266400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>270900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>274800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>261700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>232500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>210100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>197600</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>190200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>176300</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>164800</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>166700</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>169300</v>
       </c>
     </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2814,67 +3023,79 @@
       <c r="U47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>135700</v>
+      </c>
+      <c r="E48" s="3">
+        <v>139000</v>
+      </c>
+      <c r="F48" s="3">
         <v>135400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>134600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>133400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>134700</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>122800</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>112500</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>107900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>104700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>105500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>104200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>102500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>98100</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>96100</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>97200</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>96900</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>93700</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>93200</v>
       </c>
-      <c r="U48" s="3">
+      <c r="W48" s="3">
         <v>92600</v>
       </c>
     </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2932,8 +3153,14 @@
       <c r="U49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V49" s="3">
+        <v>0</v>
+      </c>
+      <c r="W49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2991,8 +3218,14 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3050,67 +3283,79 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>6200</v>
+      </c>
+      <c r="E52" s="3">
+        <v>6100</v>
+      </c>
+      <c r="F52" s="3">
         <v>6600</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>5500</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>4700</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>4800</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>3900</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>3900</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>4500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>4300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>3900</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>3600</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>6200</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>5400</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>4600</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>4700</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>2000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="U52" s="3">
         <v>2300</v>
       </c>
-      <c r="T52" s="3">
+      <c r="V52" s="3">
         <v>1500</v>
       </c>
-      <c r="U52" s="3">
+      <c r="W52" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3168,67 +3413,79 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>336800</v>
+      </c>
+      <c r="E54" s="3">
+        <v>312800</v>
+      </c>
+      <c r="F54" s="3">
         <v>317000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>327700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>363500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>355300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>369200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>371000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>378900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>379900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>384100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>369500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>341200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>313600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>298200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>292200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>275200</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>260800</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>261400</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>263200</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3250,8 +3507,10 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3273,22 +3532,24 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>19000</v>
+      </c>
+      <c r="E57" s="3">
+        <v>16400</v>
+      </c>
+      <c r="F57" s="3">
         <v>8300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>14500</v>
-      </c>
-      <c r="F57" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G57" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="H57" s="3" t="s">
         <v>8</v>
@@ -3299,11 +3560,11 @@
       <c r="J57" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K57" s="3">
-        <v>0</v>
-      </c>
-      <c r="L57" s="3">
-        <v>0</v>
+      <c r="K57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L57" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M57" s="3">
         <v>0</v>
@@ -3332,211 +3593,235 @@
       <c r="U57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V57" s="3">
+        <v>0</v>
+      </c>
+      <c r="W57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>32700</v>
+      </c>
+      <c r="E58" s="3">
+        <v>21300</v>
+      </c>
+      <c r="F58" s="3">
         <v>35400</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>42000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>74500</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>65800</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>82500</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>88600</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>100600</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>107100</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>111200</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>110500</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>90700</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>77800</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>67000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>67900</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>56800</v>
       </c>
-      <c r="S58" s="3">
+      <c r="U58" s="3">
         <v>49100</v>
       </c>
-      <c r="T58" s="3">
+      <c r="V58" s="3">
         <v>50200</v>
       </c>
-      <c r="U58" s="3">
+      <c r="W58" s="3">
         <v>43400</v>
       </c>
     </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>23500</v>
+      </c>
+      <c r="E59" s="3">
+        <v>22000</v>
+      </c>
+      <c r="F59" s="3">
         <v>21000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>19500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>40700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>39900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>41800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>46400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>46000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>48100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>52500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>46700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>45300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>36400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>35400</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>31400</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>29100</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>26200</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>29200</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>30200</v>
       </c>
     </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>75200</v>
+      </c>
+      <c r="E60" s="3">
+        <v>59600</v>
+      </c>
+      <c r="F60" s="3">
         <v>64700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>75900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>115200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>105700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>124400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>135000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>146600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>155200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>163600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>157100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>136000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>114200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>102400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>99200</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>85900</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>75300</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>79300</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>73500</v>
       </c>
     </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>13000</v>
+        <v>13100</v>
       </c>
       <c r="E61" s="3">
         <v>13100</v>
       </c>
       <c r="F61" s="3">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="G61" s="3">
-        <v>12000</v>
+        <v>13100</v>
       </c>
       <c r="H61" s="3">
         <v>12000</v>
       </c>
       <c r="I61" s="3">
-        <v>12200</v>
+        <v>12000</v>
       </c>
       <c r="J61" s="3">
         <v>12000</v>
       </c>
       <c r="K61" s="3">
-        <v>12000</v>
+        <v>12200</v>
       </c>
       <c r="L61" s="3">
         <v>12000</v>
@@ -3568,67 +3853,79 @@
       <c r="U61" s="3">
         <v>12000</v>
       </c>
-    </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V61" s="3">
+        <v>12000</v>
+      </c>
+      <c r="W61" s="3">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>23900</v>
+      </c>
+      <c r="E62" s="3">
+        <v>22900</v>
+      </c>
+      <c r="F62" s="3">
         <v>22700</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>22200</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>19000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>21000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>15100</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>8700</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>7200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>7200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>8000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>8800</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>7600</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>7100</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>12300</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>12800</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>11100</v>
       </c>
-      <c r="S62" s="3">
+      <c r="U62" s="3">
         <v>9100</v>
       </c>
-      <c r="T62" s="3">
+      <c r="V62" s="3">
         <v>8300</v>
       </c>
-      <c r="U62" s="3">
+      <c r="W62" s="3">
         <v>17000</v>
       </c>
     </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3686,8 +3983,14 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3745,8 +4048,14 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3804,67 +4113,79 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>112200</v>
+      </c>
+      <c r="E66" s="3">
+        <v>95700</v>
+      </c>
+      <c r="F66" s="3">
         <v>100400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>111200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>146200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>138700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>151500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>155900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>165800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>174400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>183700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>177900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>155600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>133300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>126700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>124000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>109000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>96500</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>99700</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>102500</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3886,8 +4207,10 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3945,8 +4268,14 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4004,8 +4333,14 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4063,8 +4398,14 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4122,22 +4463,28 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>171700</v>
+      </c>
+      <c r="E72" s="3">
+        <v>165400</v>
+      </c>
+      <c r="F72" s="3">
         <v>165500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>165600</v>
-      </c>
-      <c r="F72" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G72" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="H72" s="3" t="s">
         <v>8</v>
@@ -4145,23 +4492,23 @@
       <c r="I72" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J72" s="3">
+      <c r="J72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L72" s="3">
         <v>213100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>205600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>200500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>191500</v>
-      </c>
-      <c r="N72" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O72" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="P72" s="3" t="s">
         <v>8</v>
@@ -4172,17 +4519,23 @@
       <c r="R72" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S72" s="3">
-        <v>0</v>
-      </c>
-      <c r="T72" s="3">
-        <v>0</v>
+      <c r="S72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T72" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="U72" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V72" s="3">
+        <v>0</v>
+      </c>
+      <c r="W72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4240,8 +4593,14 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4299,8 +4658,14 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4358,67 +4723,79 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>224600</v>
+      </c>
+      <c r="E76" s="3">
+        <v>217100</v>
+      </c>
+      <c r="F76" s="3">
         <v>216600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>216500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>217300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>216600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>217800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>215200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>213100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>205600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>200500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>191500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>185600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>180400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>171500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>168200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>166200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>164400</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>161700</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>160600</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4476,131 +4853,149 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44316</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44227</v>
+      </c>
+      <c r="F80" s="2">
         <v>44135</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44043</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43951</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43861</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43769</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43677</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43585</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43496</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43404</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43312</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43220</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43131</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43039</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>42947</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>42855</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>42766</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>42674</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>42582</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>6500</v>
+      </c>
+      <c r="E81" s="3">
+        <v>0</v>
+      </c>
+      <c r="F81" s="3">
         <v>-200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-1100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>2000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>3200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>4300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>6600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>4900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>9800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>6800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>5000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>8400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>3000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>1400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>1300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>2200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>700</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4622,46 +5017,48 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>3600</v>
+        <v>3400</v>
       </c>
       <c r="E83" s="3">
         <v>3500</v>
       </c>
       <c r="F83" s="3">
-        <v>3400</v>
+        <v>3600</v>
       </c>
       <c r="G83" s="3">
         <v>3500</v>
       </c>
       <c r="H83" s="3">
-        <v>3500</v>
+        <v>3400</v>
       </c>
       <c r="I83" s="3">
         <v>3500</v>
       </c>
       <c r="J83" s="3">
-        <v>3400</v>
+        <v>3500</v>
       </c>
       <c r="K83" s="3">
-        <v>3400</v>
+        <v>3500</v>
       </c>
       <c r="L83" s="3">
         <v>3400</v>
       </c>
       <c r="M83" s="3">
+        <v>3400</v>
+      </c>
+      <c r="N83" s="3">
+        <v>3400</v>
+      </c>
+      <c r="O83" s="3">
         <v>3300</v>
-      </c>
-      <c r="N83" s="3">
-        <v>3100</v>
-      </c>
-      <c r="O83" s="3">
-        <v>3000</v>
       </c>
       <c r="P83" s="3">
         <v>3100</v>
@@ -4670,19 +5067,25 @@
         <v>3000</v>
       </c>
       <c r="R83" s="3">
-        <v>2900</v>
+        <v>3100</v>
       </c>
       <c r="S83" s="3">
-        <v>2900</v>
+        <v>3000</v>
       </c>
       <c r="T83" s="3">
         <v>2900</v>
       </c>
       <c r="U83" s="3">
+        <v>2900</v>
+      </c>
+      <c r="V83" s="3">
+        <v>2900</v>
+      </c>
+      <c r="W83" s="3">
         <v>3100</v>
       </c>
     </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4740,8 +5143,14 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4799,8 +5208,14 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4858,8 +5273,14 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4917,8 +5338,14 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4976,67 +5403,79 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-4600</v>
+      </c>
+      <c r="E89" s="3">
+        <v>12200</v>
+      </c>
+      <c r="F89" s="3">
         <v>12600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>23600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>5000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>23000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>11100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>22600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>12900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>14800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>1400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-9500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-11800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-4300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>2500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>-2500</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>-6000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>7800</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>-1600</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>-3900</v>
       </c>
     </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5058,8 +5497,10 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5117,8 +5558,14 @@
       <c r="U91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V91" s="3">
+        <v>0</v>
+      </c>
+      <c r="W91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5176,8 +5623,14 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5235,8 +5688,14 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5294,8 +5753,14 @@
       <c r="U94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V94" s="3">
+        <v>0</v>
+      </c>
+      <c r="W94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5317,8 +5782,10 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5376,8 +5843,14 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5435,8 +5908,14 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5494,8 +5973,14 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5553,8 +6038,14 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5612,8 +6103,14 @@
       <c r="U100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V100" s="3">
+        <v>0</v>
+      </c>
+      <c r="W100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5671,8 +6168,14 @@
       <c r="U101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5728,6 +6231,12 @@
         <v>0</v>
       </c>
       <c r="U102" s="3">
+        <v>0</v>
+      </c>
+      <c r="V102" s="3">
+        <v>0</v>
+      </c>
+      <c r="W102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/WEBC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/WEBC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="92">
   <si>
     <t>WEBC</t>
   </si>
@@ -5418,10 +5418,10 @@
         <v>-4600</v>
       </c>
       <c r="E89" s="3">
-        <v>12200</v>
+        <v>21200</v>
       </c>
       <c r="F89" s="3">
-        <v>12600</v>
+        <v>3600</v>
       </c>
       <c r="G89" s="3">
         <v>23600</v>
@@ -5699,26 +5699,26 @@
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3">
-        <v>0</v>
-      </c>
-      <c r="E94" s="3">
-        <v>0</v>
+      <c r="D94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F94" s="3">
-        <v>0</v>
-      </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
-      <c r="J94" s="3">
-        <v>0</v>
+        <v>4100</v>
+      </c>
+      <c r="G94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K94" s="3">
         <v>0</v>

--- a/AAII_Financials/Quarterly/WEBC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/WEBC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="92">
   <si>
     <t>WEBC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,295 +665,321 @@
     <col min="1" max="1" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44500</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44408</v>
+      </c>
+      <c r="F7" s="2">
         <v>44316</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44227</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44135</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44043</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43951</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43861</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43769</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43677</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43585</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43496</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43404</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43312</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43220</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43131</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43039</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>42947</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>42855</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>42766</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>42674</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>42582</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>167500</v>
+      </c>
+      <c r="E8" s="3">
+        <v>145500</v>
+      </c>
+      <c r="F8" s="3">
         <v>127000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>94300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>99800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>89100</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>104800</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>112400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>122500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>130000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>145700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>135900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>137000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>147800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>127300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>111000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>114300</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>106600</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>98300</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>91600</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>88300</v>
       </c>
-      <c r="W8" s="3">
+      <c r="Y8" s="3">
         <v>84000</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>133100</v>
+      </c>
+      <c r="E9" s="3">
+        <v>116900</v>
+      </c>
+      <c r="F9" s="3">
         <v>108400</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>87000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>92500</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>86300</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>94900</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>100700</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>108900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>118600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>126000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>117500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>112800</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>123700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>108700</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>98000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>100400</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>96400</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>89400</v>
       </c>
-      <c r="U9" s="3">
+      <c r="W9" s="3">
         <v>84000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="X9" s="3">
         <v>80400</v>
       </c>
-      <c r="W9" s="3">
+      <c r="Y9" s="3">
         <v>77300</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>34400</v>
+      </c>
+      <c r="E10" s="3">
+        <v>28600</v>
+      </c>
+      <c r="F10" s="3">
         <v>18600</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>7300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>7300</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>2800</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>9900</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>11700</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>13600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>11400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>19700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>18400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>24200</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>24100</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>18600</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>13000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>13900</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>10200</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>8900</v>
       </c>
-      <c r="U10" s="3">
+      <c r="W10" s="3">
         <v>7600</v>
       </c>
-      <c r="V10" s="3">
+      <c r="X10" s="3">
         <v>7900</v>
       </c>
-      <c r="W10" s="3">
+      <c r="Y10" s="3">
         <v>6700</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -977,8 +1003,10 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1042,8 +1070,14 @@
       <c r="W12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1107,8 +1141,14 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1121,17 +1161,17 @@
       <c r="F14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G14" s="3">
+      <c r="G14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I14" s="3">
         <v>500</v>
       </c>
-      <c r="H14" s="3">
+      <c r="J14" s="3">
         <v>400</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>8</v>
@@ -1145,11 +1185,11 @@
       <c r="N14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
-      <c r="P14" s="3">
-        <v>0</v>
+      <c r="O14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q14" s="3">
         <v>0</v>
@@ -1172,8 +1212,14 @@
       <c r="W14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1237,8 +1283,14 @@
       <c r="W15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1259,138 +1311,152 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>148100</v>
+      </c>
+      <c r="E17" s="3">
+        <v>128500</v>
+      </c>
+      <c r="F17" s="3">
         <v>118500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>94100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>99600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>91000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>104200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>109100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>117700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>124900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>135700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>127800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>123100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>137500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>120100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>106400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>108500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>103600</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>95800</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>89800</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>86800</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>83300</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>19400</v>
+      </c>
+      <c r="E18" s="3">
+        <v>17000</v>
+      </c>
+      <c r="F18" s="3">
         <v>8500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-1900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>3300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>4800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>5100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>10000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>8100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>13900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>10300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>7200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>4600</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>5800</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>3000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>2500</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>1800</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>1500</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1414,8 +1480,10 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1438,309 +1506,339 @@
         <v>0</v>
       </c>
       <c r="J20" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K20" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="L20" s="3">
         <v>-100</v>
       </c>
       <c r="M20" s="3">
+        <v>-200</v>
+      </c>
+      <c r="N20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O20" s="3">
         <v>-300</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
         <v>100</v>
-      </c>
-      <c r="P20" s="3">
-        <v>200</v>
-      </c>
-      <c r="Q20" s="3">
-        <v>400</v>
       </c>
       <c r="R20" s="3">
         <v>200</v>
       </c>
       <c r="S20" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="T20" s="3">
         <v>200</v>
       </c>
       <c r="U20" s="3">
+        <v>0</v>
+      </c>
+      <c r="V20" s="3">
+        <v>200</v>
+      </c>
+      <c r="W20" s="3">
         <v>900</v>
       </c>
-      <c r="V20" s="3">
+      <c r="X20" s="3">
         <v>500</v>
       </c>
-      <c r="W20" s="3">
+      <c r="Y20" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>23000</v>
+      </c>
+      <c r="E21" s="3">
+        <v>20500</v>
+      </c>
+      <c r="F21" s="3">
         <v>11900</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>3800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>3800</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>1700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>4000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>6900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>8300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>8400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>13300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>11200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>17300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>13700</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>10500</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>8000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>9100</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>6100</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>5600</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>5600</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>4900</v>
       </c>
-      <c r="W21" s="3">
+      <c r="Y21" s="3">
         <v>3600</v>
       </c>
     </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>600</v>
+      </c>
+      <c r="E22" s="3">
+        <v>400</v>
+      </c>
+      <c r="F22" s="3">
         <v>300</v>
       </c>
-      <c r="E22" s="3">
+      <c r="G22" s="3">
         <v>300</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
         <v>400</v>
       </c>
-      <c r="G22" s="3">
+      <c r="I22" s="3">
         <v>400</v>
       </c>
-      <c r="H22" s="3">
+      <c r="J22" s="3">
         <v>700</v>
       </c>
-      <c r="I22" s="3">
+      <c r="K22" s="3">
         <v>800</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>900</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>1000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>1200</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>1300</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>1300</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>1100</v>
       </c>
-      <c r="P22" s="3">
+      <c r="R22" s="3">
         <v>900</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="S22" s="3">
         <v>800</v>
       </c>
-      <c r="R22" s="3">
+      <c r="T22" s="3">
         <v>800</v>
-      </c>
-      <c r="S22" s="3">
-        <v>600</v>
-      </c>
-      <c r="T22" s="3">
-        <v>500</v>
       </c>
       <c r="U22" s="3">
         <v>600</v>
       </c>
       <c r="V22" s="3">
+        <v>500</v>
+      </c>
+      <c r="W22" s="3">
+        <v>600</v>
+      </c>
+      <c r="X22" s="3">
         <v>700</v>
       </c>
-      <c r="W22" s="3">
+      <c r="Y22" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>18800</v>
+      </c>
+      <c r="E23" s="3">
+        <v>16700</v>
+      </c>
+      <c r="F23" s="3">
         <v>8200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-2300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>2500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>3800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>4000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>8700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>6500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>12500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>9200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>6500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>4200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>5200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>2400</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>2200</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>2000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>1300</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E24" s="3">
+        <v>3300</v>
+      </c>
+      <c r="F24" s="3">
         <v>1700</v>
       </c>
-      <c r="E24" s="3">
-        <v>0</v>
-      </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
       <c r="G24" s="3">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3">
         <v>-1200</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>-300</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>500</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>-400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>2100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>1600</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>2800</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>2400</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>1500</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>-4200</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>2200</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>1000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="V24" s="3">
         <v>900</v>
       </c>
-      <c r="U24" s="3">
+      <c r="W24" s="3">
         <v>-100</v>
       </c>
-      <c r="V24" s="3">
+      <c r="X24" s="3">
         <v>600</v>
       </c>
-      <c r="W24" s="3">
+      <c r="Y24" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1804,138 +1902,156 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>14600</v>
+      </c>
+      <c r="E26" s="3">
+        <v>13400</v>
+      </c>
+      <c r="F26" s="3">
         <v>6500</v>
       </c>
-      <c r="E26" s="3">
-        <v>0</v>
-      </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
+        <v>0</v>
+      </c>
+      <c r="H26" s="3">
         <v>-200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-1100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>2000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>3200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>4300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>6600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>4900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>9800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>6800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>5000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>8400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>3000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>1400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>1300</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>2200</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>700</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>14600</v>
+      </c>
+      <c r="E27" s="3">
+        <v>13400</v>
+      </c>
+      <c r="F27" s="3">
         <v>6500</v>
       </c>
-      <c r="E27" s="3">
-        <v>0</v>
-      </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
+        <v>0</v>
+      </c>
+      <c r="H27" s="3">
         <v>-200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-1100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>2000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>3200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>4300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>6600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>4900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>9800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>6800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>5000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>8400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>3000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>1400</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>1300</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>2200</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>700</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1999,8 +2115,14 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2064,8 +2186,14 @@
       <c r="W29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2129,8 +2257,14 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2194,8 +2328,14 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2218,114 +2358,126 @@
         <v>0</v>
       </c>
       <c r="J32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K32" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="L32" s="3">
         <v>100</v>
       </c>
       <c r="M32" s="3">
+        <v>200</v>
+      </c>
+      <c r="N32" s="3">
+        <v>100</v>
+      </c>
+      <c r="O32" s="3">
         <v>300</v>
       </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
         <v>-100</v>
-      </c>
-      <c r="P32" s="3">
-        <v>-200</v>
-      </c>
-      <c r="Q32" s="3">
-        <v>-400</v>
       </c>
       <c r="R32" s="3">
         <v>-200</v>
       </c>
       <c r="S32" s="3">
-        <v>0</v>
+        <v>-400</v>
       </c>
       <c r="T32" s="3">
         <v>-200</v>
       </c>
       <c r="U32" s="3">
+        <v>0</v>
+      </c>
+      <c r="V32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="W32" s="3">
         <v>-900</v>
       </c>
-      <c r="V32" s="3">
+      <c r="X32" s="3">
         <v>-500</v>
       </c>
-      <c r="W32" s="3">
+      <c r="Y32" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>14600</v>
+      </c>
+      <c r="E33" s="3">
+        <v>13400</v>
+      </c>
+      <c r="F33" s="3">
         <v>6500</v>
       </c>
-      <c r="E33" s="3">
-        <v>0</v>
-      </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
+        <v>0</v>
+      </c>
+      <c r="H33" s="3">
         <v>-200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-1100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>2000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>3200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>4300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>6600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>4900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>9800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>6800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>5000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>8400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>3000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>1400</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>1300</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>2200</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>700</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2389,143 +2541,161 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>14600</v>
+      </c>
+      <c r="E35" s="3">
+        <v>13400</v>
+      </c>
+      <c r="F35" s="3">
         <v>6500</v>
       </c>
-      <c r="E35" s="3">
-        <v>0</v>
-      </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
+        <v>0</v>
+      </c>
+      <c r="H35" s="3">
         <v>-200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-1100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>2000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>3200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>4300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>6600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>4900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>9800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>6800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>5000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>8400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>3000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>1400</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>1300</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>2200</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>700</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44500</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44408</v>
+      </c>
+      <c r="F38" s="2">
         <v>44316</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44227</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44135</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44043</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43951</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43861</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43769</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43677</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43585</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43496</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43404</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43312</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43220</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43131</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43039</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>42947</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>42855</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>42766</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>42674</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>42582</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2549,8 +2719,10 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2574,73 +2746,81 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>8800</v>
+      </c>
+      <c r="E41" s="3">
+        <v>8400</v>
+      </c>
+      <c r="F41" s="3">
         <v>7100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>5400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>6200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>4600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>11300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>3400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>6200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>7100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>6800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>4900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>6200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>7100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>4400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>6800</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>6300</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>7200</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>8100</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>8000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>8400</v>
       </c>
-      <c r="W41" s="3">
+      <c r="Y41" s="3">
         <v>6300</v>
       </c>
     </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2704,268 +2884,298 @@
       <c r="W42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>83700</v>
+      </c>
+      <c r="E43" s="3">
+        <v>75200</v>
+      </c>
+      <c r="F43" s="3">
         <v>59900</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>45000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>48900</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>41700</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>47300</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>54200</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>55600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>59400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>67200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>64400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>64700</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>76500</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>68800</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>55500</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>54700</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>53000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="V43" s="3">
         <v>49500</v>
       </c>
-      <c r="U43" s="3">
+      <c r="W43" s="3">
         <v>43000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="X43" s="3">
         <v>39700</v>
       </c>
-      <c r="W43" s="3">
+      <c r="Y43" s="3">
         <v>39900</v>
       </c>
     </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>203000</v>
+      </c>
+      <c r="E44" s="3">
+        <v>149800</v>
+      </c>
+      <c r="F44" s="3">
         <v>121100</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>114900</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>112500</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>135800</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>160200</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>156300</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>168800</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>176400</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>185800</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>197900</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>198600</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>170900</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>153700</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="S44" s="3">
         <v>144900</v>
       </c>
-      <c r="R44" s="3">
+      <c r="T44" s="3">
         <v>130700</v>
       </c>
-      <c r="S44" s="3">
+      <c r="U44" s="3">
         <v>124500</v>
       </c>
-      <c r="T44" s="3">
+      <c r="V44" s="3">
         <v>115200</v>
       </c>
-      <c r="U44" s="3">
+      <c r="W44" s="3">
         <v>112600</v>
       </c>
-      <c r="V44" s="3">
+      <c r="X44" s="3">
         <v>117000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="Y44" s="3">
         <v>113400</v>
       </c>
     </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>8400</v>
+      </c>
+      <c r="E45" s="3">
+        <v>7200</v>
+      </c>
+      <c r="F45" s="3">
         <v>6700</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>2400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>7400</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>5600</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>6700</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>2000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>11800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>11600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>6700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>3700</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>5300</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>7200</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>5700</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>2900</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>5900</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>5500</v>
       </c>
-      <c r="T45" s="3">
+      <c r="V45" s="3">
         <v>3400</v>
       </c>
-      <c r="U45" s="3">
+      <c r="W45" s="3">
         <v>1200</v>
       </c>
-      <c r="V45" s="3">
+      <c r="X45" s="3">
         <v>1700</v>
       </c>
-      <c r="W45" s="3">
+      <c r="Y45" s="3">
         <v>9800</v>
       </c>
     </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>304000</v>
+      </c>
+      <c r="E46" s="3">
+        <v>240600</v>
+      </c>
+      <c r="F46" s="3">
         <v>194800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>167700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>175100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>187600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>225500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>215800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>242500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>254600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>266400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>270900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>274800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>261700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>232500</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>210100</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>197600</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>190200</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>176300</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>164800</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>166700</v>
       </c>
-      <c r="W46" s="3">
+      <c r="Y46" s="3">
         <v>169300</v>
       </c>
     </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3029,73 +3239,85 @@
       <c r="W47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X47" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>137800</v>
+      </c>
+      <c r="E48" s="3">
+        <v>137400</v>
+      </c>
+      <c r="F48" s="3">
         <v>135700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>139000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>135400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>134600</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>133400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>134700</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>122800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>112500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>107900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>104700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>105500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>104200</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>102500</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>98100</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>96100</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>97200</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>96900</v>
       </c>
-      <c r="U48" s="3">
+      <c r="W48" s="3">
         <v>93700</v>
       </c>
-      <c r="V48" s="3">
+      <c r="X48" s="3">
         <v>93200</v>
       </c>
-      <c r="W48" s="3">
+      <c r="Y48" s="3">
         <v>92600</v>
       </c>
     </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3159,8 +3381,14 @@
       <c r="W49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X49" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3224,8 +3452,14 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3289,73 +3523,85 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>7200</v>
+      </c>
+      <c r="E52" s="3">
+        <v>7200</v>
+      </c>
+      <c r="F52" s="3">
         <v>6200</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>6100</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>6600</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>5500</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>4700</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>4800</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>3900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>3900</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>4500</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>4300</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>3900</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>3600</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>6200</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>5400</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>4600</v>
       </c>
-      <c r="S52" s="3">
+      <c r="U52" s="3">
         <v>4700</v>
       </c>
-      <c r="T52" s="3">
+      <c r="V52" s="3">
         <v>2000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="W52" s="3">
         <v>2300</v>
       </c>
-      <c r="V52" s="3">
+      <c r="X52" s="3">
         <v>1500</v>
       </c>
-      <c r="W52" s="3">
+      <c r="Y52" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3419,73 +3665,85 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>449000</v>
+      </c>
+      <c r="E54" s="3">
+        <v>385200</v>
+      </c>
+      <c r="F54" s="3">
         <v>336800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>312800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>317000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>327700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>363500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>355300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>369200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>371000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>378900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>379900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>384100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>369500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>341200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>313600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>298200</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>292200</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>275200</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>260800</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>261400</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>263200</v>
       </c>
     </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3509,8 +3767,10 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3534,28 +3794,30 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>38500</v>
+      </c>
+      <c r="E57" s="3">
+        <v>34600</v>
+      </c>
+      <c r="F57" s="3">
         <v>19000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>16400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>8300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>14500</v>
-      </c>
-      <c r="H57" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I57" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="J57" s="3" t="s">
         <v>8</v>
@@ -3566,11 +3828,11 @@
       <c r="L57" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M57" s="3">
-        <v>0</v>
-      </c>
-      <c r="N57" s="3">
-        <v>0</v>
+      <c r="M57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N57" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O57" s="3">
         <v>0</v>
@@ -3599,235 +3861,259 @@
       <c r="W57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X57" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>104400</v>
+      </c>
+      <c r="E58" s="3">
+        <v>59000</v>
+      </c>
+      <c r="F58" s="3">
         <v>32700</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>21300</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>35400</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>42000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>74500</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>65800</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>82500</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>88600</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>100600</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>107100</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>111200</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>110500</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>90700</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>77800</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>67000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="U58" s="3">
         <v>67900</v>
       </c>
-      <c r="T58" s="3">
+      <c r="V58" s="3">
         <v>56800</v>
       </c>
-      <c r="U58" s="3">
+      <c r="W58" s="3">
         <v>49100</v>
       </c>
-      <c r="V58" s="3">
+      <c r="X58" s="3">
         <v>50200</v>
       </c>
-      <c r="W58" s="3">
+      <c r="Y58" s="3">
         <v>43400</v>
       </c>
     </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>31900</v>
+      </c>
+      <c r="E59" s="3">
+        <v>26900</v>
+      </c>
+      <c r="F59" s="3">
         <v>23500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>22000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>21000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>19500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>40700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>39900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>41800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>46400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>46000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>48100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>52500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>46700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>45300</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>36400</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>35400</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>31400</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>29100</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>26200</v>
       </c>
-      <c r="V59" s="3">
+      <c r="X59" s="3">
         <v>29200</v>
       </c>
-      <c r="W59" s="3">
+      <c r="Y59" s="3">
         <v>30200</v>
       </c>
     </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>174800</v>
+      </c>
+      <c r="E60" s="3">
+        <v>120500</v>
+      </c>
+      <c r="F60" s="3">
         <v>75200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>59600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>64700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>75900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>115200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>105700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>124400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>135000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>146600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>155200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>163600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>157100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>136000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>114200</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>102400</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>99200</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>85900</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>75300</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>79300</v>
       </c>
-      <c r="W60" s="3">
+      <c r="Y60" s="3">
         <v>73500</v>
       </c>
     </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>12900</v>
+      </c>
+      <c r="E61" s="3">
+        <v>12900</v>
+      </c>
+      <c r="F61" s="3">
         <v>13100</v>
-      </c>
-      <c r="E61" s="3">
-        <v>13100</v>
-      </c>
-      <c r="F61" s="3">
-        <v>13000</v>
       </c>
       <c r="G61" s="3">
         <v>13100</v>
       </c>
       <c r="H61" s="3">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="I61" s="3">
-        <v>12000</v>
+        <v>13100</v>
       </c>
       <c r="J61" s="3">
         <v>12000</v>
       </c>
       <c r="K61" s="3">
-        <v>12200</v>
+        <v>12000</v>
       </c>
       <c r="L61" s="3">
         <v>12000</v>
       </c>
       <c r="M61" s="3">
-        <v>12000</v>
+        <v>12200</v>
       </c>
       <c r="N61" s="3">
         <v>12000</v>
@@ -3859,73 +4145,85 @@
       <c r="W61" s="3">
         <v>12000</v>
       </c>
-    </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X61" s="3">
+        <v>12000</v>
+      </c>
+      <c r="Y61" s="3">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>18500</v>
+      </c>
+      <c r="E62" s="3">
+        <v>20600</v>
+      </c>
+      <c r="F62" s="3">
         <v>23900</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>22900</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>22700</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>22200</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>19000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>21000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>15100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>8700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>7200</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>7200</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>8000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>8800</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>7600</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>7100</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>12300</v>
       </c>
-      <c r="S62" s="3">
+      <c r="U62" s="3">
         <v>12800</v>
       </c>
-      <c r="T62" s="3">
+      <c r="V62" s="3">
         <v>11100</v>
       </c>
-      <c r="U62" s="3">
+      <c r="W62" s="3">
         <v>9100</v>
       </c>
-      <c r="V62" s="3">
+      <c r="X62" s="3">
         <v>8300</v>
       </c>
-      <c r="W62" s="3">
+      <c r="Y62" s="3">
         <v>17000</v>
       </c>
     </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3989,8 +4287,14 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4054,8 +4358,14 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4119,73 +4429,85 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>206200</v>
+      </c>
+      <c r="E66" s="3">
+        <v>154100</v>
+      </c>
+      <c r="F66" s="3">
         <v>112200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>95700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>100400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>111200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>146200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>138700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>151500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>155900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>165800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>174400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>183700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>177900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>155600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>133300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>126700</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>124000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>109000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>96500</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>99700</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>102500</v>
       </c>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4209,8 +4531,10 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4274,8 +4598,14 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4339,8 +4669,14 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4404,8 +4740,14 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4469,28 +4811,34 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>193800</v>
+      </c>
+      <c r="E72" s="3">
+        <v>181000</v>
+      </c>
+      <c r="F72" s="3">
         <v>171700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>165400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>165500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>165600</v>
-      </c>
-      <c r="H72" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I72" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="J72" s="3" t="s">
         <v>8</v>
@@ -4498,23 +4846,23 @@
       <c r="K72" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L72" s="3">
+      <c r="L72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N72" s="3">
         <v>213100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>205600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>200500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>191500</v>
-      </c>
-      <c r="P72" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q72" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="R72" s="3" t="s">
         <v>8</v>
@@ -4525,17 +4873,23 @@
       <c r="T72" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U72" s="3">
-        <v>0</v>
-      </c>
-      <c r="V72" s="3">
-        <v>0</v>
+      <c r="U72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V72" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="W72" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X72" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4599,8 +4953,14 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4664,8 +5024,14 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4729,73 +5095,85 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>242800</v>
+      </c>
+      <c r="E76" s="3">
+        <v>231100</v>
+      </c>
+      <c r="F76" s="3">
         <v>224600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>217100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>216600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>216500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>217300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>216600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>217800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>215200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>213100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>205600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>200500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>191500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>185600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>180400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>171500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>168200</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>166200</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>164400</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>161700</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>160600</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4859,143 +5237,161 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44500</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44408</v>
+      </c>
+      <c r="F80" s="2">
         <v>44316</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44227</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44135</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44043</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43951</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43861</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43769</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43677</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43585</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43496</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43404</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43312</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43220</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43131</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43039</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>42947</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>42855</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>42766</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>42674</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>42582</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>14600</v>
+      </c>
+      <c r="E81" s="3">
+        <v>13400</v>
+      </c>
+      <c r="F81" s="3">
         <v>6500</v>
       </c>
-      <c r="E81" s="3">
-        <v>0</v>
-      </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
+        <v>0</v>
+      </c>
+      <c r="H81" s="3">
         <v>-200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-1100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>2000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>3200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>4300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>6600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>4900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>9800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>6800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>5000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>8400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>3000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>1400</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>1300</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>2200</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>700</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5019,52 +5415,54 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E83" s="3">
         <v>3400</v>
       </c>
-      <c r="E83" s="3">
-        <v>3500</v>
-      </c>
       <c r="F83" s="3">
-        <v>3600</v>
+        <v>3400</v>
       </c>
       <c r="G83" s="3">
         <v>3500</v>
       </c>
       <c r="H83" s="3">
-        <v>3400</v>
+        <v>3600</v>
       </c>
       <c r="I83" s="3">
         <v>3500</v>
       </c>
       <c r="J83" s="3">
-        <v>3500</v>
+        <v>3400</v>
       </c>
       <c r="K83" s="3">
         <v>3500</v>
       </c>
       <c r="L83" s="3">
-        <v>3400</v>
+        <v>3500</v>
       </c>
       <c r="M83" s="3">
-        <v>3400</v>
+        <v>3500</v>
       </c>
       <c r="N83" s="3">
         <v>3400</v>
       </c>
       <c r="O83" s="3">
+        <v>3400</v>
+      </c>
+      <c r="P83" s="3">
+        <v>3400</v>
+      </c>
+      <c r="Q83" s="3">
         <v>3300</v>
-      </c>
-      <c r="P83" s="3">
-        <v>3100</v>
-      </c>
-      <c r="Q83" s="3">
-        <v>3000</v>
       </c>
       <c r="R83" s="3">
         <v>3100</v>
@@ -5073,19 +5471,25 @@
         <v>3000</v>
       </c>
       <c r="T83" s="3">
-        <v>2900</v>
+        <v>3100</v>
       </c>
       <c r="U83" s="3">
-        <v>2900</v>
+        <v>3000</v>
       </c>
       <c r="V83" s="3">
         <v>2900</v>
       </c>
       <c r="W83" s="3">
+        <v>2900</v>
+      </c>
+      <c r="X83" s="3">
+        <v>2900</v>
+      </c>
+      <c r="Y83" s="3">
         <v>3100</v>
       </c>
     </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5149,8 +5553,14 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5214,8 +5624,14 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5279,8 +5695,14 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5344,8 +5766,14 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5409,73 +5837,85 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-40800</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-6300</v>
+      </c>
+      <c r="F89" s="3">
         <v>-4600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>21200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>3600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>23600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>5000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>23000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>11100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>22600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>12900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>14800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>1400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-9500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>-11800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>-4300</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>2500</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>-2500</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>-6000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>7800</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>-1600</v>
       </c>
-      <c r="W89" s="3">
+      <c r="Y89" s="3">
         <v>-3900</v>
       </c>
     </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5499,8 +5939,10 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5564,8 +6006,14 @@
       <c r="W91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5629,8 +6077,14 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5694,8 +6148,14 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5705,14 +6165,14 @@
       <c r="E94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F94" s="3">
-        <v>4100</v>
+      <c r="F94" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H94" s="3" t="s">
-        <v>8</v>
+      <c r="H94" s="3">
+        <v>4100</v>
       </c>
       <c r="I94" s="3" t="s">
         <v>8</v>
@@ -5720,11 +6180,11 @@
       <c r="J94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
-      <c r="L94" s="3">
-        <v>0</v>
+      <c r="K94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L94" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M94" s="3">
         <v>0</v>
@@ -5759,8 +6219,14 @@
       <c r="W94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5784,8 +6250,10 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5849,8 +6317,14 @@
       <c r="W96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5914,8 +6388,14 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5979,8 +6459,14 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6044,8 +6530,14 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -6109,8 +6601,14 @@
       <c r="W100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6174,8 +6672,14 @@
       <c r="W101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -6237,6 +6741,12 @@
         <v>0</v>
       </c>
       <c r="W102" s="3">
+        <v>0</v>
+      </c>
+      <c r="X102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/WEBC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/WEBC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="92">
   <si>
     <t>WEBC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,321 +665,334 @@
     <col min="1" max="1" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44592</v>
+      </c>
+      <c r="E7" s="2">
         <v>44500</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44408</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44316</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44227</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44135</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44043</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43951</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43861</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43769</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43677</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43585</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43496</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43404</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43312</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43220</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43131</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43039</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42947</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42855</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42766</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42674</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42582</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>173400</v>
+      </c>
+      <c r="E8" s="3">
         <v>167500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>145500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>127000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>94300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>99800</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>89100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>104800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>112400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>122500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>130000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>145700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>135900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>137000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>147800</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>127300</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>111000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>114300</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>106600</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>98300</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>91600</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>88300</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>84000</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>144300</v>
+      </c>
+      <c r="E9" s="3">
         <v>133100</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>116900</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>108400</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>87000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>92500</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>86300</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>94900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>100700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>108900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>118600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>126000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>117500</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>112800</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>123700</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>108700</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>98000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>100400</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>96400</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>89400</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>84000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>80400</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>77300</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>29100</v>
+      </c>
+      <c r="E10" s="3">
         <v>34400</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>28600</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>18600</v>
-      </c>
-      <c r="G10" s="3">
-        <v>7300</v>
       </c>
       <c r="H10" s="3">
         <v>7300</v>
       </c>
       <c r="I10" s="3">
+        <v>7300</v>
+      </c>
+      <c r="J10" s="3">
         <v>2800</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>9900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>11700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>13600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>11400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>19700</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>18400</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>24200</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>24100</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>18600</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>13000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>13900</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>10200</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>8900</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>7600</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>7900</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>6700</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1005,8 +1018,9 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1076,8 +1090,11 @@
       <c r="Y12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1147,8 +1164,11 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1167,14 +1187,14 @@
       <c r="H14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I14" s="3">
+      <c r="I14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J14" s="3">
         <v>500</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>400</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>8</v>
@@ -1191,8 +1211,8 @@
       <c r="P14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
+      <c r="Q14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="R14" s="3">
         <v>0</v>
@@ -1218,8 +1238,11 @@
       <c r="Y14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1289,8 +1312,11 @@
       <c r="Y15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1313,150 +1339,157 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>160200</v>
+      </c>
+      <c r="E17" s="3">
         <v>148100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>128500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>118500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>94100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>99600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>91000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>104200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>109100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>117700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>124900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>135700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>127800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>123100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>137500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>120100</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>106400</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>108500</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>103600</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>95800</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>89800</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>86800</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>83300</v>
       </c>
     </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>13200</v>
+      </c>
+      <c r="E18" s="3">
         <v>19400</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>17000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>8500</v>
-      </c>
-      <c r="G18" s="3">
-        <v>200</v>
       </c>
       <c r="H18" s="3">
         <v>200</v>
       </c>
       <c r="I18" s="3">
+        <v>200</v>
+      </c>
+      <c r="J18" s="3">
         <v>-1900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>3300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>4800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>5100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>10000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>8100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>13900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>10300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>7200</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>4600</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>5800</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>3000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>2500</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>1800</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>1500</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1482,8 +1515,9 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1512,333 +1546,348 @@
         <v>0</v>
       </c>
       <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
         <v>-100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-300</v>
       </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
       <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
         <v>100</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>200</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>400</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>200</v>
       </c>
-      <c r="U20" s="3">
-        <v>0</v>
-      </c>
       <c r="V20" s="3">
+        <v>0</v>
+      </c>
+      <c r="W20" s="3">
         <v>200</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>900</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>500</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>16700</v>
+      </c>
+      <c r="E21" s="3">
         <v>23000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>20500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>11900</v>
-      </c>
-      <c r="G21" s="3">
-        <v>3800</v>
       </c>
       <c r="H21" s="3">
         <v>3800</v>
       </c>
       <c r="I21" s="3">
+        <v>3800</v>
+      </c>
+      <c r="J21" s="3">
         <v>1700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>4000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>6900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>8300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>8400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>13300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>11200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>17300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>13700</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>10500</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>8000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>9100</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>6100</v>
-      </c>
-      <c r="V21" s="3">
-        <v>5600</v>
       </c>
       <c r="W21" s="3">
         <v>5600</v>
       </c>
       <c r="X21" s="3">
+        <v>5600</v>
+      </c>
+      <c r="Y21" s="3">
         <v>4900</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>3600</v>
       </c>
     </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>700</v>
+      </c>
+      <c r="E22" s="3">
         <v>600</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>400</v>
-      </c>
-      <c r="F22" s="3">
-        <v>300</v>
       </c>
       <c r="G22" s="3">
         <v>300</v>
       </c>
       <c r="H22" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="I22" s="3">
         <v>400</v>
       </c>
       <c r="J22" s="3">
+        <v>400</v>
+      </c>
+      <c r="K22" s="3">
         <v>700</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>800</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>900</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>1000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>1200</v>
-      </c>
-      <c r="O22" s="3">
-        <v>1300</v>
       </c>
       <c r="P22" s="3">
         <v>1300</v>
       </c>
       <c r="Q22" s="3">
+        <v>1300</v>
+      </c>
+      <c r="R22" s="3">
         <v>1100</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>900</v>
-      </c>
-      <c r="S22" s="3">
-        <v>800</v>
       </c>
       <c r="T22" s="3">
         <v>800</v>
       </c>
       <c r="U22" s="3">
+        <v>800</v>
+      </c>
+      <c r="V22" s="3">
         <v>600</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>500</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>600</v>
-      </c>
-      <c r="X22" s="3">
-        <v>700</v>
       </c>
       <c r="Y22" s="3">
         <v>700</v>
       </c>
-    </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z22" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>12600</v>
+      </c>
+      <c r="E23" s="3">
         <v>18800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>16700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>8200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-2300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>2500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>3800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>4000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>8700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>6500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>12500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>9200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>6500</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>4200</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>5200</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>2400</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>2200</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>2000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>1300</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E24" s="3">
         <v>4200</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>3300</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>1700</v>
       </c>
-      <c r="G24" s="3">
-        <v>0</v>
-      </c>
       <c r="H24" s="3">
         <v>0</v>
       </c>
       <c r="I24" s="3">
+        <v>0</v>
+      </c>
+      <c r="J24" s="3">
         <v>-1200</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>700</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-400</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>2100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>1600</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>2800</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>2400</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>1500</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-4200</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>2200</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>1000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>900</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>-100</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>600</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1908,150 +1957,159 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>9500</v>
+      </c>
+      <c r="E26" s="3">
         <v>14600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>13400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>6500</v>
       </c>
-      <c r="G26" s="3">
-        <v>0</v>
-      </c>
       <c r="H26" s="3">
+        <v>0</v>
+      </c>
+      <c r="I26" s="3">
         <v>-200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-1100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>2000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>3200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>4300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>6600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>4900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>9800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>6800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>5000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>8400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>3000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>1400</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>1300</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>2200</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>700</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>9500</v>
+      </c>
+      <c r="E27" s="3">
         <v>14600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>13400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>6500</v>
       </c>
-      <c r="G27" s="3">
-        <v>0</v>
-      </c>
       <c r="H27" s="3">
+        <v>0</v>
+      </c>
+      <c r="I27" s="3">
         <v>-200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-1100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>2000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>3200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>4300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>6600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>4900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>9800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>6800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>5000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>8400</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>3000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>1400</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>1300</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>2200</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>700</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2121,8 +2179,11 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2192,8 +2253,11 @@
       <c r="Y29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2263,8 +2327,11 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2334,8 +2401,11 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2364,120 +2434,126 @@
         <v>0</v>
       </c>
       <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
         <v>100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>300</v>
       </c>
-      <c r="P32" s="3">
-        <v>0</v>
-      </c>
       <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
         <v>-100</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-200</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-400</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-200</v>
       </c>
-      <c r="U32" s="3">
-        <v>0</v>
-      </c>
       <c r="V32" s="3">
+        <v>0</v>
+      </c>
+      <c r="W32" s="3">
         <v>-200</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-900</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-500</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>9500</v>
+      </c>
+      <c r="E33" s="3">
         <v>14600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>13400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>6500</v>
       </c>
-      <c r="G33" s="3">
-        <v>0</v>
-      </c>
       <c r="H33" s="3">
+        <v>0</v>
+      </c>
+      <c r="I33" s="3">
         <v>-200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-1100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>2000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>3200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>4300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>6600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>4900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>9800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>6800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>5000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>8400</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>3000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>1400</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>1300</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>2200</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>700</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2547,155 +2623,164 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>9500</v>
+      </c>
+      <c r="E35" s="3">
         <v>14600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>13400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>6500</v>
       </c>
-      <c r="G35" s="3">
-        <v>0</v>
-      </c>
       <c r="H35" s="3">
+        <v>0</v>
+      </c>
+      <c r="I35" s="3">
         <v>-200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-1100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>2000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>3200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>4300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>6600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>4900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>9800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>6800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>5000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>8400</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>3000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>1400</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>1300</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>2200</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>700</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44592</v>
+      </c>
+      <c r="E38" s="2">
         <v>44500</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44408</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44316</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44227</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44135</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44043</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43951</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43861</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43769</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43677</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43585</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43496</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43404</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43312</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43220</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43131</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43039</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42947</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42855</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42766</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42674</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42582</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2721,8 +2806,9 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2748,79 +2834,83 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>10900</v>
+      </c>
+      <c r="E41" s="3">
         <v>8800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>8400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>7100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>5400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>6200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>4600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>11300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>3400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>6200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>7100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>6800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>4900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>6200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>7100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>4400</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>6800</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>6300</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>7200</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>8100</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>8000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>8400</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>6300</v>
       </c>
     </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2890,292 +2980,307 @@
       <c r="Y42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>79500</v>
+      </c>
+      <c r="E43" s="3">
         <v>83700</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>75200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>59900</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>45000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>48900</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>41700</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>47300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>54200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>55600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>59400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>67200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>64400</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>64700</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>76500</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>68800</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>55500</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>54700</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>53000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>49500</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>43000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>39700</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>39900</v>
       </c>
     </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>232600</v>
+      </c>
+      <c r="E44" s="3">
         <v>203000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>149800</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>121100</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>114900</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>112500</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>135800</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>160200</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>156300</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>168800</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>176400</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>185800</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>197900</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>198600</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>170900</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>153700</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>144900</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>130700</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>124500</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>115200</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>112600</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>117000</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>113400</v>
       </c>
     </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>8200</v>
+      </c>
+      <c r="E45" s="3">
         <v>8400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>7200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>6700</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>2400</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>7400</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>5600</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>6700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>2000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>11800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>11600</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>6700</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>3700</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>5300</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>7200</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>5700</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>2900</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>5900</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>5500</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>3400</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>1200</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>1700</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>9800</v>
       </c>
     </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>331100</v>
+      </c>
+      <c r="E46" s="3">
         <v>304000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>240600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>194800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>167700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>175100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>187600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>225500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>215800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>242500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>254600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>266400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>270900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>274800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>261700</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>232500</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>210100</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>197600</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>190200</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>176300</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>164800</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>166700</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>169300</v>
       </c>
     </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3245,79 +3350,85 @@
       <c r="Y47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>140800</v>
+      </c>
+      <c r="E48" s="3">
         <v>137800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>137400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>135700</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>139000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>135400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>134600</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>133400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>134700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>122800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>112500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>107900</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>104700</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>105500</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>104200</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>102500</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>98100</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>96100</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>97200</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>96900</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>93700</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>93200</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>92600</v>
       </c>
     </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3387,8 +3498,11 @@
       <c r="Y49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3458,8 +3572,11 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3529,79 +3646,85 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>7200</v>
+        <v>9500</v>
       </c>
       <c r="E52" s="3">
         <v>7200</v>
       </c>
       <c r="F52" s="3">
+        <v>7200</v>
+      </c>
+      <c r="G52" s="3">
         <v>6200</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>6100</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>6600</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>5500</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>4700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>4800</v>
-      </c>
-      <c r="L52" s="3">
-        <v>3900</v>
       </c>
       <c r="M52" s="3">
         <v>3900</v>
       </c>
       <c r="N52" s="3">
+        <v>3900</v>
+      </c>
+      <c r="O52" s="3">
         <v>4500</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>4300</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>3900</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>3600</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>6200</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>5400</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>4600</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>4700</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>2000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>2300</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>1500</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3671,79 +3794,85 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>481500</v>
+      </c>
+      <c r="E54" s="3">
         <v>449000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>385200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>336800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>312800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>317000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>327700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>363500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>355300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>369200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>371000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>378900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>379900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>384100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>369500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>341200</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>313600</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>298200</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>292200</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>275200</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>260800</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>261400</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>263200</v>
       </c>
     </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3769,8 +3898,9 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3796,31 +3926,32 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>52800</v>
+      </c>
+      <c r="E57" s="3">
         <v>38500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>34600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>19000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>16400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>8300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>14500</v>
-      </c>
-      <c r="J57" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="K57" s="3" t="s">
         <v>8</v>
@@ -3834,8 +3965,8 @@
       <c r="N57" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O57" s="3">
-        <v>0</v>
+      <c r="O57" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P57" s="3">
         <v>0</v>
@@ -3867,244 +3998,256 @@
       <c r="Y57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>113800</v>
+      </c>
+      <c r="E58" s="3">
         <v>104400</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>59000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>32700</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>21300</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>35400</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>42000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>74500</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>65800</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>82500</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>88600</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>100600</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>107100</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>111200</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>110500</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>90700</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>77800</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>67000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>67900</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>56800</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>49100</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>50200</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>43400</v>
       </c>
     </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>35200</v>
+      </c>
+      <c r="E59" s="3">
         <v>31900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>26900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>23500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>22000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>21000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>19500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>40700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>39900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>41800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>46400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>46000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>48100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>52500</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>46700</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>45300</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>36400</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>35400</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>31400</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>29100</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>26200</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>29200</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>30200</v>
       </c>
     </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>201800</v>
+      </c>
+      <c r="E60" s="3">
         <v>174800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>120500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>75200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>59600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>64700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>75900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>115200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>105700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>124400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>135000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>146600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>155200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>163600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>157100</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>136000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>114200</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>102400</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>99200</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>85900</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>75300</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>79300</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>73500</v>
       </c>
     </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>12900</v>
+        <v>12800</v>
       </c>
       <c r="E61" s="3">
         <v>12900</v>
       </c>
       <c r="F61" s="3">
-        <v>13100</v>
+        <v>12900</v>
       </c>
       <c r="G61" s="3">
         <v>13100</v>
       </c>
       <c r="H61" s="3">
+        <v>13100</v>
+      </c>
+      <c r="I61" s="3">
         <v>13000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>13100</v>
-      </c>
-      <c r="J61" s="3">
-        <v>12000</v>
       </c>
       <c r="K61" s="3">
         <v>12000</v>
@@ -4113,10 +4256,10 @@
         <v>12000</v>
       </c>
       <c r="M61" s="3">
+        <v>12000</v>
+      </c>
+      <c r="N61" s="3">
         <v>12200</v>
-      </c>
-      <c r="N61" s="3">
-        <v>12000</v>
       </c>
       <c r="O61" s="3">
         <v>12000</v>
@@ -4151,79 +4294,85 @@
       <c r="Y61" s="3">
         <v>12000</v>
       </c>
-    </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z61" s="3">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>17100</v>
+      </c>
+      <c r="E62" s="3">
         <v>18500</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>20600</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>23900</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>22900</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>22700</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>22200</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>19000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>21000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>15100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>8700</v>
-      </c>
-      <c r="N62" s="3">
-        <v>7200</v>
       </c>
       <c r="O62" s="3">
         <v>7200</v>
       </c>
       <c r="P62" s="3">
+        <v>7200</v>
+      </c>
+      <c r="Q62" s="3">
         <v>8000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>8800</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>7600</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>7100</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>12300</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>12800</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>11100</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>9100</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>8300</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>17000</v>
       </c>
     </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4293,8 +4442,11 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4364,8 +4516,11 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4435,79 +4590,85 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>231700</v>
+      </c>
+      <c r="E66" s="3">
         <v>206200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>154100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>112200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>95700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>100400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>111200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>146200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>138700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>151500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>155900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>165800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>174400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>183700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>177900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>155600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>133300</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>126700</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>124000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>109000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>96500</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>99700</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>102500</v>
       </c>
     </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4533,8 +4694,9 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4604,8 +4766,11 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4675,8 +4840,11 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4746,8 +4914,11 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4817,31 +4988,34 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>201300</v>
+      </c>
+      <c r="E72" s="3">
         <v>193800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>181000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>171700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>165400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>165500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>165600</v>
-      </c>
-      <c r="J72" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="K72" s="3" t="s">
         <v>8</v>
@@ -4852,20 +5026,20 @@
       <c r="M72" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N72" s="3">
+      <c r="N72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O72" s="3">
         <v>213100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>205600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>200500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>191500</v>
-      </c>
-      <c r="R72" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="S72" s="3" t="s">
         <v>8</v>
@@ -4879,8 +5053,8 @@
       <c r="V72" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W72" s="3">
-        <v>0</v>
+      <c r="W72" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="X72" s="3">
         <v>0</v>
@@ -4888,8 +5062,11 @@
       <c r="Y72" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4959,8 +5136,11 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5030,8 +5210,11 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5101,79 +5284,85 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>249800</v>
+      </c>
+      <c r="E76" s="3">
         <v>242800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>231100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>224600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>217100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>216600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>216500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>217300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>216600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>217800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>215200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>213100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>205600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>200500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>191500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>185600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>180400</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>171500</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>168200</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>166200</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>164400</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>161700</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>160600</v>
       </c>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5243,155 +5432,164 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44592</v>
+      </c>
+      <c r="E80" s="2">
         <v>44500</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44408</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44316</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44227</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44135</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44043</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43951</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43861</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43769</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43677</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43585</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43496</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43404</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43312</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43220</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43131</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43039</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42947</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42855</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42766</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42674</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42582</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>9500</v>
+      </c>
+      <c r="E81" s="3">
         <v>14600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>13400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>6500</v>
       </c>
-      <c r="G81" s="3">
-        <v>0</v>
-      </c>
       <c r="H81" s="3">
+        <v>0</v>
+      </c>
+      <c r="I81" s="3">
         <v>-200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-1100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>2000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>3200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>4300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>6600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>4900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>9800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>6800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>5000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>8400</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>3000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>1400</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>1300</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>2200</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>700</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5417,34 +5615,35 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E83" s="3">
         <v>3600</v>
-      </c>
-      <c r="E83" s="3">
-        <v>3400</v>
       </c>
       <c r="F83" s="3">
         <v>3400</v>
       </c>
       <c r="G83" s="3">
+        <v>3400</v>
+      </c>
+      <c r="H83" s="3">
         <v>3500</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>3600</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>3500</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>3400</v>
-      </c>
-      <c r="K83" s="3">
-        <v>3500</v>
       </c>
       <c r="L83" s="3">
         <v>3500</v>
@@ -5453,7 +5652,7 @@
         <v>3500</v>
       </c>
       <c r="N83" s="3">
-        <v>3400</v>
+        <v>3500</v>
       </c>
       <c r="O83" s="3">
         <v>3400</v>
@@ -5462,22 +5661,22 @@
         <v>3400</v>
       </c>
       <c r="Q83" s="3">
+        <v>3400</v>
+      </c>
+      <c r="R83" s="3">
         <v>3300</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>3100</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>3000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>3100</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>3000</v>
-      </c>
-      <c r="V83" s="3">
-        <v>2900</v>
       </c>
       <c r="W83" s="3">
         <v>2900</v>
@@ -5486,10 +5685,13 @@
         <v>2900</v>
       </c>
       <c r="Y83" s="3">
+        <v>2900</v>
+      </c>
+      <c r="Z83" s="3">
         <v>3100</v>
       </c>
     </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5559,8 +5761,11 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5630,8 +5835,11 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5701,8 +5909,11 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5772,8 +5983,11 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5843,79 +6057,85 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>10600</v>
+      </c>
+      <c r="E89" s="3">
         <v>-40800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-6300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-4600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>21200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>3600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>23600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>5000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>23000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>11100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>22600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>12900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>14800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>1400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-9500</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-11800</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-4300</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>2500</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-2500</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-6000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>7800</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-1600</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>-3900</v>
       </c>
     </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5941,8 +6161,9 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6012,8 +6233,11 @@
       <c r="Y91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6083,8 +6307,11 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6154,8 +6381,11 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6171,11 +6401,11 @@
       <c r="G94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H94" s="3">
+      <c r="H94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I94" s="3">
         <v>4100</v>
-      </c>
-      <c r="I94" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="J94" s="3" t="s">
         <v>8</v>
@@ -6186,8 +6416,8 @@
       <c r="L94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M94" s="3">
-        <v>0</v>
+      <c r="M94" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N94" s="3">
         <v>0</v>
@@ -6225,8 +6455,11 @@
       <c r="Y94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6252,8 +6485,9 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6323,8 +6557,11 @@
       <c r="Y96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6394,8 +6631,11 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6465,8 +6705,11 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6536,8 +6779,11 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -6607,8 +6853,11 @@
       <c r="Y100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6678,8 +6927,11 @@
       <c r="Y101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -6747,6 +6999,9 @@
         <v>0</v>
       </c>
       <c r="Y102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/WEBC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/WEBC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="92">
   <si>
     <t>WEBC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Z102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,334 +665,346 @@
     <col min="1" max="1" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44681</v>
+      </c>
+      <c r="E7" s="2">
         <v>44592</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44500</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44408</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44316</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44227</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44135</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44043</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43951</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43861</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43769</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43677</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43585</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43496</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43404</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43312</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43220</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43131</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43039</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42947</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42855</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42766</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42674</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42582</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>190600</v>
+      </c>
+      <c r="E8" s="3">
         <v>173400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>167500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>145500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>127000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>94300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>99800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>89100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>104800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>112400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>122500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>130000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>145700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>135900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>137000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>147800</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>127300</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>111000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>114300</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>106600</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>98300</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>91600</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>88300</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>84000</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>157100</v>
+      </c>
+      <c r="E9" s="3">
         <v>144300</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>133100</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>116900</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>108400</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>87000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>92500</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>86300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>94900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>100700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>108900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>118600</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>126000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>117500</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>112800</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>123700</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>108700</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>98000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>100400</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>96400</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>89400</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>84000</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>80400</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>77300</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>33500</v>
+      </c>
+      <c r="E10" s="3">
         <v>29100</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>34400</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>28600</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>18600</v>
-      </c>
-      <c r="H10" s="3">
-        <v>7300</v>
       </c>
       <c r="I10" s="3">
         <v>7300</v>
       </c>
       <c r="J10" s="3">
+        <v>7300</v>
+      </c>
+      <c r="K10" s="3">
         <v>2800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>9900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>11700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>13600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>11400</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>19700</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>18400</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>24200</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>24100</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>18600</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>13000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>13900</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>10200</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>8900</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>7600</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>7900</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>6700</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1019,8 +1031,9 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1093,8 +1106,11 @@
       <c r="Z12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1167,8 +1183,11 @@
       <c r="Z13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1190,14 +1209,14 @@
       <c r="I14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J14" s="3">
+      <c r="J14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K14" s="3">
         <v>500</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>400</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>8</v>
@@ -1214,8 +1233,8 @@
       <c r="Q14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
+      <c r="R14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="S14" s="3">
         <v>0</v>
@@ -1241,8 +1260,11 @@
       <c r="Z14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1315,8 +1337,11 @@
       <c r="Z15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1340,156 +1365,163 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>169500</v>
+      </c>
+      <c r="E17" s="3">
         <v>160200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>148100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>128500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>118500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>94100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>99600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>91000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>104200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>109100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>117700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>124900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>135700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>127800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>123100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>137500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>120100</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>106400</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>108500</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>103600</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>95800</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>89800</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>86800</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>83300</v>
       </c>
     </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>21100</v>
+      </c>
+      <c r="E18" s="3">
         <v>13200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>19400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>17000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>8500</v>
-      </c>
-      <c r="H18" s="3">
-        <v>200</v>
       </c>
       <c r="I18" s="3">
         <v>200</v>
       </c>
       <c r="J18" s="3">
+        <v>200</v>
+      </c>
+      <c r="K18" s="3">
         <v>-1900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>3300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>4800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>5100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>10000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>8100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>13900</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>10300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>7200</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>4600</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>5800</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>3000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>2500</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>1800</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>1500</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1516,8 +1548,9 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1549,345 +1582,360 @@
         <v>0</v>
       </c>
       <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
         <v>-100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-300</v>
       </c>
-      <c r="Q20" s="3">
-        <v>0</v>
-      </c>
       <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
         <v>100</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>200</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>400</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>200</v>
       </c>
-      <c r="V20" s="3">
-        <v>0</v>
-      </c>
       <c r="W20" s="3">
+        <v>0</v>
+      </c>
+      <c r="X20" s="3">
         <v>200</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>900</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>500</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>24500</v>
+      </c>
+      <c r="E21" s="3">
         <v>16700</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>23000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>20500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>11900</v>
-      </c>
-      <c r="H21" s="3">
-        <v>3800</v>
       </c>
       <c r="I21" s="3">
         <v>3800</v>
       </c>
       <c r="J21" s="3">
+        <v>3800</v>
+      </c>
+      <c r="K21" s="3">
         <v>1700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>4000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>6900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>8300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>8400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>13300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>11200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>17300</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>13700</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>10500</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>8000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>9100</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>6100</v>
-      </c>
-      <c r="W21" s="3">
-        <v>5600</v>
       </c>
       <c r="X21" s="3">
         <v>5600</v>
       </c>
       <c r="Y21" s="3">
+        <v>5600</v>
+      </c>
+      <c r="Z21" s="3">
         <v>4900</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>3600</v>
       </c>
     </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>800</v>
+      </c>
+      <c r="E22" s="3">
         <v>700</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>600</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>400</v>
-      </c>
-      <c r="G22" s="3">
-        <v>300</v>
       </c>
       <c r="H22" s="3">
         <v>300</v>
       </c>
       <c r="I22" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="J22" s="3">
         <v>400</v>
       </c>
       <c r="K22" s="3">
+        <v>400</v>
+      </c>
+      <c r="L22" s="3">
         <v>700</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>800</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>900</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>1000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>1200</v>
-      </c>
-      <c r="P22" s="3">
-        <v>1300</v>
       </c>
       <c r="Q22" s="3">
         <v>1300</v>
       </c>
       <c r="R22" s="3">
+        <v>1300</v>
+      </c>
+      <c r="S22" s="3">
         <v>1100</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>900</v>
-      </c>
-      <c r="T22" s="3">
-        <v>800</v>
       </c>
       <c r="U22" s="3">
         <v>800</v>
       </c>
       <c r="V22" s="3">
+        <v>800</v>
+      </c>
+      <c r="W22" s="3">
         <v>600</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>500</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>600</v>
-      </c>
-      <c r="Y22" s="3">
-        <v>700</v>
       </c>
       <c r="Z22" s="3">
         <v>700</v>
       </c>
-    </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA22" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>20300</v>
+      </c>
+      <c r="E23" s="3">
         <v>12600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>18800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>16700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>8200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-2300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>2500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>3800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>4000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>8700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>6500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>12500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>9200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>6500</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>4200</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>5200</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>2400</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>2200</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>2000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>1300</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>4300</v>
+      </c>
+      <c r="E24" s="3">
         <v>3000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>4200</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>3300</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>1700</v>
       </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
       <c r="I24" s="3">
         <v>0</v>
       </c>
       <c r="J24" s="3">
+        <v>0</v>
+      </c>
+      <c r="K24" s="3">
         <v>-1200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>500</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>700</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-400</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>2100</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>1600</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>2800</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>2400</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>1500</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>-4200</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>2200</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>1000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>900</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>-100</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>600</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1960,156 +2008,165 @@
       <c r="Z25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>16000</v>
+      </c>
+      <c r="E26" s="3">
         <v>9500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>14600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>13400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>6500</v>
       </c>
-      <c r="H26" s="3">
-        <v>0</v>
-      </c>
       <c r="I26" s="3">
+        <v>0</v>
+      </c>
+      <c r="J26" s="3">
         <v>-200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-1100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>2000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>3200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>4300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>6600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>4900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>9800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>6800</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>5000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>8400</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>3000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>1400</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>1300</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>2200</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>700</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>16000</v>
+      </c>
+      <c r="E27" s="3">
         <v>9500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>14600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>13400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>6500</v>
       </c>
-      <c r="H27" s="3">
-        <v>0</v>
-      </c>
       <c r="I27" s="3">
+        <v>0</v>
+      </c>
+      <c r="J27" s="3">
         <v>-200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-1100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>2000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>3200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>4300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>6600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>4900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>9800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>6800</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>5000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>8400</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>3000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>1400</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>1300</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>2200</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>700</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2182,8 +2239,11 @@
       <c r="Z28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2256,8 +2316,11 @@
       <c r="Z29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2330,8 +2393,11 @@
       <c r="Z30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2404,8 +2470,11 @@
       <c r="Z31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2437,123 +2506,129 @@
         <v>0</v>
       </c>
       <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
         <v>100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>100</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>300</v>
       </c>
-      <c r="Q32" s="3">
-        <v>0</v>
-      </c>
       <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3">
         <v>-100</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-200</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-400</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-200</v>
       </c>
-      <c r="V32" s="3">
-        <v>0</v>
-      </c>
       <c r="W32" s="3">
+        <v>0</v>
+      </c>
+      <c r="X32" s="3">
         <v>-200</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-900</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-500</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>16000</v>
+      </c>
+      <c r="E33" s="3">
         <v>9500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>14600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>13400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>6500</v>
       </c>
-      <c r="H33" s="3">
-        <v>0</v>
-      </c>
       <c r="I33" s="3">
+        <v>0</v>
+      </c>
+      <c r="J33" s="3">
         <v>-200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-1100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>2000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>3200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>4300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>6600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>4900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>9800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>6800</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>5000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>8400</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>3000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>1400</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>1300</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>2200</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>700</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2626,161 +2701,170 @@
       <c r="Z34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>16000</v>
+      </c>
+      <c r="E35" s="3">
         <v>9500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>14600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>13400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>6500</v>
       </c>
-      <c r="H35" s="3">
-        <v>0</v>
-      </c>
       <c r="I35" s="3">
+        <v>0</v>
+      </c>
+      <c r="J35" s="3">
         <v>-200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-1100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>2000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>3200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>4300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>6600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>4900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>9800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>6800</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>5000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>8400</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>3000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>1400</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>1300</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>2200</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>700</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44681</v>
+      </c>
+      <c r="E38" s="2">
         <v>44592</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44500</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44408</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44316</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44227</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44135</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44043</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43951</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43861</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43769</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43677</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43585</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43496</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43404</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43312</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43220</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43131</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43039</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42947</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42855</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42766</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42674</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42582</v>
       </c>
     </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2807,8 +2891,9 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2835,82 +2920,86 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>11800</v>
+      </c>
+      <c r="E41" s="3">
         <v>10900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>8800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>8400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>7100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>5400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>6200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>4600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>11300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>3400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>6200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>7100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>6800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>4900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>6200</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>7100</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>4400</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>6800</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>6300</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>7200</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>8100</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>8000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>8400</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>6300</v>
       </c>
     </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2983,304 +3072,319 @@
       <c r="Z42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>94100</v>
+      </c>
+      <c r="E43" s="3">
         <v>79500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>83700</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>75200</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>59900</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>45000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>48900</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>41700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>47300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>54200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>55600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>59400</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>67200</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>64400</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>64700</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>76500</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>68800</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>55500</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>54700</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>53000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>49500</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>43000</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>39700</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>39900</v>
       </c>
     </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>225500</v>
+      </c>
+      <c r="E44" s="3">
         <v>232600</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>203000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>149800</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>121100</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>114900</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>112500</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>135800</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>160200</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>156300</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>168800</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>176400</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>185800</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>197900</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>198600</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>170900</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>153700</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>144900</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>130700</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>124500</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>115200</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>112600</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>117000</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>113400</v>
       </c>
     </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>7600</v>
+      </c>
+      <c r="E45" s="3">
         <v>8200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>8400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>7200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>6700</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>2400</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>7400</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>5600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>6700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>2000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>11800</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>11600</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>6700</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>3700</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>5300</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>7200</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>5700</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>2900</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>5900</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>5500</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>3400</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>1200</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>1700</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>9800</v>
       </c>
     </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>339000</v>
+      </c>
+      <c r="E46" s="3">
         <v>331100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>304000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>240600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>194800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>167700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>175100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>187600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>225500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>215800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>242500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>254600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>266400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>270900</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>274800</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>261700</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>232500</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>210100</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>197600</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>190200</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>176300</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>164800</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>166700</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>169300</v>
       </c>
     </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3353,82 +3457,88 @@
       <c r="Z47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>141400</v>
+      </c>
+      <c r="E48" s="3">
         <v>140800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>137800</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>137400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>135700</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>139000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>135400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>134600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>133400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>134700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>122800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>112500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>107900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>104700</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>105500</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>104200</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>102500</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>98100</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>96100</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>97200</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>96900</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>93700</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>93200</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>92600</v>
       </c>
     </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3501,8 +3611,11 @@
       <c r="Z49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3575,8 +3688,11 @@
       <c r="Z50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3649,82 +3765,88 @@
       <c r="Z51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>10600</v>
+      </c>
+      <c r="E52" s="3">
         <v>9500</v>
-      </c>
-      <c r="E52" s="3">
-        <v>7200</v>
       </c>
       <c r="F52" s="3">
         <v>7200</v>
       </c>
       <c r="G52" s="3">
+        <v>7200</v>
+      </c>
+      <c r="H52" s="3">
         <v>6200</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>6100</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>6600</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>5500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>4700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>4800</v>
-      </c>
-      <c r="M52" s="3">
-        <v>3900</v>
       </c>
       <c r="N52" s="3">
         <v>3900</v>
       </c>
       <c r="O52" s="3">
+        <v>3900</v>
+      </c>
+      <c r="P52" s="3">
         <v>4500</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>4300</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>3900</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>3600</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>6200</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>5400</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>4600</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>4700</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>2000</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>2300</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>1500</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3797,82 +3919,88 @@
       <c r="Z53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>490900</v>
+      </c>
+      <c r="E54" s="3">
         <v>481500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>449000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>385200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>336800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>312800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>317000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>327700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>363500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>355300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>369200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>371000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>378900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>379900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>384100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>369500</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>341200</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>313600</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>298200</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>292200</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>275200</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>260800</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>261400</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>263200</v>
       </c>
     </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3899,8 +4027,9 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
-    </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3927,34 +4056,35 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>40800</v>
+      </c>
+      <c r="E57" s="3">
         <v>52800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>38500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>34600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>19000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>16400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>8300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>14500</v>
-      </c>
-      <c r="K57" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="L57" s="3" t="s">
         <v>8</v>
@@ -3968,8 +4098,8 @@
       <c r="O57" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P57" s="3">
-        <v>0</v>
+      <c r="P57" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q57" s="3">
         <v>0</v>
@@ -4001,256 +4131,268 @@
       <c r="Z57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>111400</v>
+      </c>
+      <c r="E58" s="3">
         <v>113800</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>104400</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>59000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>32700</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>21300</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>35400</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>42000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>74500</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>65800</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>82500</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>88600</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>100600</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>107100</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>111200</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>110500</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>90700</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>77800</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>67000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>67900</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>56800</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>49100</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>50200</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>43400</v>
       </c>
     </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>43400</v>
+      </c>
+      <c r="E59" s="3">
         <v>35200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>31900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>26900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>23500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>22000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>21000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>19500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>40700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>39900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>41800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>46400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>46000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>48100</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>52500</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>46700</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>45300</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>36400</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>35400</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>31400</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>29100</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>26200</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>29200</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>30200</v>
       </c>
     </row>
-    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>195600</v>
+      </c>
+      <c r="E60" s="3">
         <v>201800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>174800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>120500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>75200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>59600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>64700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>75900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>115200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>105700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>124400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>135000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>146600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>155200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>163600</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>157100</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>136000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>114200</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>102400</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>99200</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>85900</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>75300</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>79300</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>73500</v>
       </c>
     </row>
-    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>12700</v>
+      </c>
+      <c r="E61" s="3">
         <v>12800</v>
-      </c>
-      <c r="E61" s="3">
-        <v>12900</v>
       </c>
       <c r="F61" s="3">
         <v>12900</v>
       </c>
       <c r="G61" s="3">
-        <v>13100</v>
+        <v>12900</v>
       </c>
       <c r="H61" s="3">
         <v>13100</v>
       </c>
       <c r="I61" s="3">
+        <v>13100</v>
+      </c>
+      <c r="J61" s="3">
         <v>13000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>13100</v>
-      </c>
-      <c r="K61" s="3">
-        <v>12000</v>
       </c>
       <c r="L61" s="3">
         <v>12000</v>
@@ -4259,10 +4401,10 @@
         <v>12000</v>
       </c>
       <c r="N61" s="3">
+        <v>12000</v>
+      </c>
+      <c r="O61" s="3">
         <v>12200</v>
-      </c>
-      <c r="O61" s="3">
-        <v>12000</v>
       </c>
       <c r="P61" s="3">
         <v>12000</v>
@@ -4297,82 +4439,88 @@
       <c r="Z61" s="3">
         <v>12000</v>
       </c>
-    </row>
-    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA61" s="3">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>18200</v>
+      </c>
+      <c r="E62" s="3">
         <v>17100</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>18500</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>20600</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>23900</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>22900</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>22700</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>22200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>19000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>21000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>15100</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>8700</v>
-      </c>
-      <c r="O62" s="3">
-        <v>7200</v>
       </c>
       <c r="P62" s="3">
         <v>7200</v>
       </c>
       <c r="Q62" s="3">
+        <v>7200</v>
+      </c>
+      <c r="R62" s="3">
         <v>8000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>8800</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>7600</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>7100</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>12300</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>12800</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>11100</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>9100</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>8300</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>17000</v>
       </c>
     </row>
-    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4445,8 +4593,11 @@
       <c r="Z63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4519,8 +4670,11 @@
       <c r="Z64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4593,82 +4747,88 @@
       <c r="Z65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>226400</v>
+      </c>
+      <c r="E66" s="3">
         <v>231700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>206200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>154100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>112200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>95700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>100400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>111200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>146200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>138700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>151500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>155900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>165800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>174400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>183700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>177900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>155600</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>133300</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>126700</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>124000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>109000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>96500</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>99700</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>102500</v>
       </c>
     </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4695,8 +4855,9 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
-    </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4769,8 +4930,11 @@
       <c r="Z68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4843,8 +5007,11 @@
       <c r="Z69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4917,8 +5084,11 @@
       <c r="Z70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4991,34 +5161,37 @@
       <c r="Z71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>216200</v>
+      </c>
+      <c r="E72" s="3">
         <v>201300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>193800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>181000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>171700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>165400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>165500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>165600</v>
-      </c>
-      <c r="K72" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="L72" s="3" t="s">
         <v>8</v>
@@ -5029,20 +5202,20 @@
       <c r="N72" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O72" s="3">
+      <c r="O72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P72" s="3">
         <v>213100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>205600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>200500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>191500</v>
-      </c>
-      <c r="S72" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="T72" s="3" t="s">
         <v>8</v>
@@ -5056,8 +5229,8 @@
       <c r="W72" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="X72" s="3">
-        <v>0</v>
+      <c r="X72" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Y72" s="3">
         <v>0</v>
@@ -5065,8 +5238,11 @@
       <c r="Z72" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5139,8 +5315,11 @@
       <c r="Z73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5213,8 +5392,11 @@
       <c r="Z74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5287,82 +5469,88 @@
       <c r="Z75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>264500</v>
+      </c>
+      <c r="E76" s="3">
         <v>249800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>242800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>231100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>224600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>217100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>216600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>216500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>217300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>216600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>217800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>215200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>213100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>205600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>200500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>191500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>185600</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>180400</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>171500</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>168200</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>166200</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>164400</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>161700</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>160600</v>
       </c>
     </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5435,161 +5623,170 @@
       <c r="Z77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44681</v>
+      </c>
+      <c r="E80" s="2">
         <v>44592</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44500</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44408</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44316</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44227</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44135</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44043</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43951</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43861</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43769</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43677</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43585</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43496</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43404</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43312</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43220</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43131</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43039</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42947</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42855</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42766</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42674</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42582</v>
       </c>
     </row>
-    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>16000</v>
+      </c>
+      <c r="E81" s="3">
         <v>9500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>14600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>13400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>6500</v>
       </c>
-      <c r="H81" s="3">
-        <v>0</v>
-      </c>
       <c r="I81" s="3">
+        <v>0</v>
+      </c>
+      <c r="J81" s="3">
         <v>-200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-1100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>2000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>3200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>4300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>6600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>4900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>9800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>6800</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>5000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>8400</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>3000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>1400</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>1300</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>2200</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>700</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5616,8 +5813,9 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
-    </row>
-    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5625,28 +5823,28 @@
         <v>3500</v>
       </c>
       <c r="E83" s="3">
+        <v>3500</v>
+      </c>
+      <c r="F83" s="3">
         <v>3600</v>
-      </c>
-      <c r="F83" s="3">
-        <v>3400</v>
       </c>
       <c r="G83" s="3">
         <v>3400</v>
       </c>
       <c r="H83" s="3">
+        <v>3400</v>
+      </c>
+      <c r="I83" s="3">
         <v>3500</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>3600</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>3500</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>3400</v>
-      </c>
-      <c r="L83" s="3">
-        <v>3500</v>
       </c>
       <c r="M83" s="3">
         <v>3500</v>
@@ -5655,7 +5853,7 @@
         <v>3500</v>
       </c>
       <c r="O83" s="3">
-        <v>3400</v>
+        <v>3500</v>
       </c>
       <c r="P83" s="3">
         <v>3400</v>
@@ -5664,22 +5862,22 @@
         <v>3400</v>
       </c>
       <c r="R83" s="3">
+        <v>3400</v>
+      </c>
+      <c r="S83" s="3">
         <v>3300</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>3100</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>3000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>3100</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>3000</v>
-      </c>
-      <c r="W83" s="3">
-        <v>2900</v>
       </c>
       <c r="X83" s="3">
         <v>2900</v>
@@ -5688,10 +5886,13 @@
         <v>2900</v>
       </c>
       <c r="Z83" s="3">
+        <v>2900</v>
+      </c>
+      <c r="AA83" s="3">
         <v>3100</v>
       </c>
     </row>
-    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5764,8 +5965,11 @@
       <c r="Z84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5838,8 +6042,11 @@
       <c r="Z85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5912,8 +6119,11 @@
       <c r="Z86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5986,8 +6196,11 @@
       <c r="Z87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6060,82 +6273,88 @@
       <c r="Z88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>5100</v>
+      </c>
+      <c r="E89" s="3">
         <v>10600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-40800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-6300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-4600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>21200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>3600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>23600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>5000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>23000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>11100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>22600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>12900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>14800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>1400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-9500</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-11800</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-4300</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>2500</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-2500</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-6000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>7800</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>-1600</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>-3900</v>
       </c>
     </row>
-    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6162,8 +6381,9 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
-    </row>
-    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6236,8 +6456,11 @@
       <c r="Z91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6310,8 +6533,11 @@
       <c r="Z92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6384,8 +6610,11 @@
       <c r="Z93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6404,11 +6633,11 @@
       <c r="H94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I94" s="3">
+      <c r="I94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J94" s="3">
         <v>4100</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>8</v>
@@ -6419,8 +6648,8 @@
       <c r="M94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N94" s="3">
-        <v>0</v>
+      <c r="N94" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O94" s="3">
         <v>0</v>
@@ -6458,8 +6687,11 @@
       <c r="Z94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6486,8 +6718,9 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
-    </row>
-    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6560,8 +6793,11 @@
       <c r="Z96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6634,8 +6870,11 @@
       <c r="Z97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6708,8 +6947,11 @@
       <c r="Z98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6782,8 +7024,11 @@
       <c r="Z99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -6856,8 +7101,11 @@
       <c r="Z100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6930,8 +7178,11 @@
       <c r="Z101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -7002,6 +7253,9 @@
         <v>0</v>
       </c>
       <c r="Z102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/WEBC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/WEBC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="92">
   <si>
     <t>WEBC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AC102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,346 +665,372 @@
     <col min="1" max="1" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44865</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44773</v>
+      </c>
+      <c r="F7" s="2">
         <v>44681</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44592</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44500</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44408</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44316</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44227</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44135</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44043</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43951</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43861</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43769</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43677</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43585</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43496</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43404</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43312</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43220</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43131</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>43039</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>42947</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>42855</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>42766</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AB7" s="2">
         <v>42674</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AC7" s="2">
         <v>42582</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>188500</v>
+      </c>
+      <c r="E8" s="3">
+        <v>704000</v>
+      </c>
+      <c r="F8" s="3">
         <v>190600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>173400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>167500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>145500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>127000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>94300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>99800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>89100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>104800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>112400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>122500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>130000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>145700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>135900</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>137000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>147800</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>127300</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>111000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>114300</v>
       </c>
-      <c r="W8" s="3">
+      <c r="Y8" s="3">
         <v>106600</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Z8" s="3">
         <v>98300</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="AA8" s="3">
         <v>91600</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AB8" s="3">
         <v>88300</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AC8" s="3">
         <v>84000</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>162500</v>
+      </c>
+      <c r="E9" s="3">
+        <v>585900</v>
+      </c>
+      <c r="F9" s="3">
         <v>157100</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>144300</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>133100</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>116900</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>108400</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>87000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>92500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>86300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>94900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>100700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>108900</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>118600</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>126000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>117500</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>112800</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>123700</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>108700</v>
       </c>
-      <c r="U9" s="3">
+      <c r="W9" s="3">
         <v>98000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="X9" s="3">
         <v>100400</v>
       </c>
-      <c r="W9" s="3">
+      <c r="Y9" s="3">
         <v>96400</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Z9" s="3">
         <v>89400</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="AA9" s="3">
         <v>84000</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AB9" s="3">
         <v>80400</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AC9" s="3">
         <v>77300</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>26000</v>
+      </c>
+      <c r="E10" s="3">
+        <v>118100</v>
+      </c>
+      <c r="F10" s="3">
         <v>33500</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>29100</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>34400</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>28600</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>18600</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>7300</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>7300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>2800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>9900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>11700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>13600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>11400</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>19700</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>18400</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>24200</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>24100</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>18600</v>
       </c>
-      <c r="U10" s="3">
+      <c r="W10" s="3">
         <v>13000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="X10" s="3">
         <v>13900</v>
       </c>
-      <c r="W10" s="3">
+      <c r="Y10" s="3">
         <v>10200</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Z10" s="3">
         <v>8900</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="AA10" s="3">
         <v>7600</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AB10" s="3">
         <v>7900</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AC10" s="3">
         <v>6700</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1032,8 +1058,10 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+      <c r="AC11" s="3"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1109,8 +1137,14 @@
       <c r="AA12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1186,8 +1220,14 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1212,17 +1252,17 @@
       <c r="J14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K14" s="3">
+      <c r="K14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M14" s="3">
         <v>500</v>
       </c>
-      <c r="L14" s="3">
+      <c r="N14" s="3">
         <v>400</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>8</v>
@@ -1236,11 +1276,11 @@
       <c r="R14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
-      </c>
-      <c r="T14" s="3">
-        <v>0</v>
+      <c r="S14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="U14" s="3">
         <v>0</v>
@@ -1263,8 +1303,14 @@
       <c r="AA14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1340,8 +1386,14 @@
       <c r="AA15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1366,162 +1418,176 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+      <c r="AC16" s="3"/>
+    </row>
+    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>176100</v>
+      </c>
+      <c r="E17" s="3">
+        <v>639200</v>
+      </c>
+      <c r="F17" s="3">
         <v>169500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>160200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>148100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>128500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>118500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>94100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>99600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>91000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>104200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>109100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>117700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>124900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>135700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>127800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>123100</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>137500</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>120100</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>106400</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>108500</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>103600</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Z17" s="3">
         <v>95800</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="AA17" s="3">
         <v>89800</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AB17" s="3">
         <v>86800</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AC17" s="3">
         <v>83300</v>
       </c>
     </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>12400</v>
+      </c>
+      <c r="E18" s="3">
+        <v>64800</v>
+      </c>
+      <c r="F18" s="3">
         <v>21100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>13200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>19400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>17000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>8500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-1900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>3300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>4800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>5100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>10000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>8100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>13900</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>10300</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>7200</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>4600</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>5800</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>3000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Z18" s="3">
         <v>2500</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="AA18" s="3">
         <v>1800</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AB18" s="3">
         <v>1500</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AC18" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1549,8 +1615,10 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+      <c r="AC19" s="3"/>
+    </row>
+    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1585,357 +1653,387 @@
         <v>0</v>
       </c>
       <c r="N20" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O20" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="P20" s="3">
         <v>-100</v>
       </c>
       <c r="Q20" s="3">
+        <v>-200</v>
+      </c>
+      <c r="R20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S20" s="3">
         <v>-300</v>
       </c>
-      <c r="R20" s="3">
-        <v>0</v>
-      </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
+        <v>0</v>
+      </c>
+      <c r="U20" s="3">
         <v>100</v>
-      </c>
-      <c r="T20" s="3">
-        <v>200</v>
-      </c>
-      <c r="U20" s="3">
-        <v>400</v>
       </c>
       <c r="V20" s="3">
         <v>200</v>
       </c>
       <c r="W20" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="X20" s="3">
         <v>200</v>
       </c>
       <c r="Y20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="3">
+        <v>200</v>
+      </c>
+      <c r="AA20" s="3">
         <v>900</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AB20" s="3">
         <v>500</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AC20" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>15700</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F21" s="3">
         <v>24500</v>
       </c>
-      <c r="E21" s="3">
-        <v>16700</v>
-      </c>
-      <c r="F21" s="3">
-        <v>23000</v>
-      </c>
       <c r="G21" s="3">
+        <v>20200</v>
+      </c>
+      <c r="H21" s="3">
+        <v>9100</v>
+      </c>
+      <c r="I21" s="3">
         <v>20500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>11900</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>3800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>3800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>1700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>4000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>6900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>8300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>8400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>13300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>11200</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>17300</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>13700</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>10500</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>8000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>9100</v>
       </c>
-      <c r="W21" s="3">
+      <c r="Y21" s="3">
         <v>6100</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Z21" s="3">
         <v>5600</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="AA21" s="3">
         <v>5600</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AB21" s="3">
         <v>4900</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AC21" s="3">
         <v>3600</v>
       </c>
     </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E22" s="3">
+        <v>3300</v>
+      </c>
+      <c r="F22" s="3">
         <v>800</v>
       </c>
-      <c r="E22" s="3">
+      <c r="G22" s="3">
         <v>700</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
         <v>600</v>
       </c>
-      <c r="G22" s="3">
+      <c r="I22" s="3">
         <v>400</v>
       </c>
-      <c r="H22" s="3">
+      <c r="J22" s="3">
         <v>300</v>
       </c>
-      <c r="I22" s="3">
+      <c r="K22" s="3">
         <v>300</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>400</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>400</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>700</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>800</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>900</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>1000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="R22" s="3">
         <v>1200</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="S22" s="3">
         <v>1300</v>
       </c>
-      <c r="R22" s="3">
+      <c r="T22" s="3">
         <v>1300</v>
       </c>
-      <c r="S22" s="3">
+      <c r="U22" s="3">
         <v>1100</v>
       </c>
-      <c r="T22" s="3">
+      <c r="V22" s="3">
         <v>900</v>
       </c>
-      <c r="U22" s="3">
+      <c r="W22" s="3">
         <v>800</v>
       </c>
-      <c r="V22" s="3">
+      <c r="X22" s="3">
         <v>800</v>
-      </c>
-      <c r="W22" s="3">
-        <v>600</v>
-      </c>
-      <c r="X22" s="3">
-        <v>500</v>
       </c>
       <c r="Y22" s="3">
         <v>600</v>
       </c>
       <c r="Z22" s="3">
+        <v>500</v>
+      </c>
+      <c r="AA22" s="3">
+        <v>600</v>
+      </c>
+      <c r="AB22" s="3">
         <v>700</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AC22" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>10900</v>
+      </c>
+      <c r="E23" s="3">
+        <v>61500</v>
+      </c>
+      <c r="F23" s="3">
         <v>20300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>12600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>18800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>16700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>8200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-2300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>2500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>3800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>4000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>8700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>6500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>12500</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>9200</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>6500</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>4200</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>5200</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>2400</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Z23" s="3">
         <v>2200</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="AA23" s="3">
         <v>2000</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AB23" s="3">
         <v>1300</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AC23" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E24" s="3">
+        <v>13200</v>
+      </c>
+      <c r="F24" s="3">
         <v>4300</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>3000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>4200</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>3300</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>1700</v>
       </c>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
-      <c r="J24" s="3">
-        <v>0</v>
-      </c>
       <c r="K24" s="3">
+        <v>0</v>
+      </c>
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
         <v>-1200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>-300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>500</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>700</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>-400</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>2100</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>1600</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>2800</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>2400</v>
       </c>
-      <c r="T24" s="3">
+      <c r="V24" s="3">
         <v>1500</v>
       </c>
-      <c r="U24" s="3">
+      <c r="W24" s="3">
         <v>-4200</v>
       </c>
-      <c r="V24" s="3">
+      <c r="X24" s="3">
         <v>2200</v>
       </c>
-      <c r="W24" s="3">
+      <c r="Y24" s="3">
         <v>1000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Z24" s="3">
         <v>900</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="AA24" s="3">
         <v>-100</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AB24" s="3">
         <v>600</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AC24" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2011,162 +2109,180 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>8400</v>
+      </c>
+      <c r="E26" s="3">
+        <v>48400</v>
+      </c>
+      <c r="F26" s="3">
         <v>16000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>9500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>14600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>13400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>6500</v>
       </c>
-      <c r="I26" s="3">
-        <v>0</v>
-      </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
+        <v>0</v>
+      </c>
+      <c r="L26" s="3">
         <v>-200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-1100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>2000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>3200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>4300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>6600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>4900</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>9800</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>6800</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>5000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>8400</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>3000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>1400</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Z26" s="3">
         <v>1300</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="AA26" s="3">
         <v>2200</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AB26" s="3">
         <v>700</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AC26" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>8400</v>
+      </c>
+      <c r="E27" s="3">
+        <v>48400</v>
+      </c>
+      <c r="F27" s="3">
         <v>16000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>9500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>14600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>13400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>6500</v>
       </c>
-      <c r="I27" s="3">
-        <v>0</v>
-      </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
+        <v>0</v>
+      </c>
+      <c r="L27" s="3">
         <v>-200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-1100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>2000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>3200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>4300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>6600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>4900</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>9800</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>6800</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>5000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>8400</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>3000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>1400</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Z27" s="3">
         <v>1300</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="AA27" s="3">
         <v>2200</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AB27" s="3">
         <v>700</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AC27" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2242,8 +2358,14 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2319,8 +2441,14 @@
       <c r="AA29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2396,8 +2524,14 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2473,8 +2607,14 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2509,126 +2649,138 @@
         <v>0</v>
       </c>
       <c r="N32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O32" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="P32" s="3">
         <v>100</v>
       </c>
       <c r="Q32" s="3">
+        <v>200</v>
+      </c>
+      <c r="R32" s="3">
+        <v>100</v>
+      </c>
+      <c r="S32" s="3">
         <v>300</v>
       </c>
-      <c r="R32" s="3">
-        <v>0</v>
-      </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
+        <v>0</v>
+      </c>
+      <c r="U32" s="3">
         <v>-100</v>
-      </c>
-      <c r="T32" s="3">
-        <v>-200</v>
-      </c>
-      <c r="U32" s="3">
-        <v>-400</v>
       </c>
       <c r="V32" s="3">
         <v>-200</v>
       </c>
       <c r="W32" s="3">
-        <v>0</v>
+        <v>-400</v>
       </c>
       <c r="X32" s="3">
         <v>-200</v>
       </c>
       <c r="Y32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="AA32" s="3">
         <v>-900</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AB32" s="3">
         <v>-500</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AC32" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>8400</v>
+      </c>
+      <c r="E33" s="3">
+        <v>48400</v>
+      </c>
+      <c r="F33" s="3">
         <v>16000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>9500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>14600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>13400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>6500</v>
       </c>
-      <c r="I33" s="3">
-        <v>0</v>
-      </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
+        <v>0</v>
+      </c>
+      <c r="L33" s="3">
         <v>-200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-1100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>2000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>3200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>4300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>6600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>4900</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>9800</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>6800</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>5000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>8400</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>3000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>1400</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Z33" s="3">
         <v>1300</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="AA33" s="3">
         <v>2200</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AB33" s="3">
         <v>700</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AC33" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2704,167 +2856,185 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>8400</v>
+      </c>
+      <c r="E35" s="3">
+        <v>48400</v>
+      </c>
+      <c r="F35" s="3">
         <v>16000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>9500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>14600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>13400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>6500</v>
       </c>
-      <c r="I35" s="3">
-        <v>0</v>
-      </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
+        <v>0</v>
+      </c>
+      <c r="L35" s="3">
         <v>-200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-1100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>2000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>3200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>4300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>6600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>4900</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>9800</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>6800</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>5000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>8400</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>3000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>1400</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Z35" s="3">
         <v>1300</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="AA35" s="3">
         <v>2200</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AB35" s="3">
         <v>700</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AC35" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44865</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44773</v>
+      </c>
+      <c r="F38" s="2">
         <v>44681</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44592</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44500</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44408</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44316</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44227</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44135</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44043</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43951</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43861</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43769</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43677</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43585</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43496</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43404</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43312</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43220</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43131</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>43039</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>42947</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>42855</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>42766</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AB38" s="2">
         <v>42674</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AC38" s="2">
         <v>42582</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2892,8 +3062,10 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+      <c r="AC39" s="3"/>
+    </row>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2921,85 +3093,93 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+      <c r="AC40" s="3"/>
+    </row>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>12800</v>
+      </c>
+      <c r="E41" s="3">
         <v>11800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>10900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>8800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>8400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>7100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>5400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
+        <v>5400</v>
+      </c>
+      <c r="L41" s="3">
         <v>6200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>4600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>11300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>3400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>6200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>7100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>6800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>4900</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>6200</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>7100</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>4400</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>6800</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>6300</v>
       </c>
-      <c r="W41" s="3">
+      <c r="Y41" s="3">
         <v>7200</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Z41" s="3">
         <v>8100</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="AA41" s="3">
         <v>8000</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AB41" s="3">
         <v>8400</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AC41" s="3">
         <v>6300</v>
       </c>
     </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3075,316 +3255,346 @@
       <c r="AA42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>87400</v>
+      </c>
+      <c r="E43" s="3">
         <v>94100</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>79500</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>83700</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>75200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>59900</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>45000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
+        <v>45000</v>
+      </c>
+      <c r="L43" s="3">
         <v>48900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>41700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>47300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>54200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>55600</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>59400</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>67200</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>64400</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>64700</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>76500</v>
       </c>
-      <c r="T43" s="3">
+      <c r="V43" s="3">
         <v>68800</v>
       </c>
-      <c r="U43" s="3">
+      <c r="W43" s="3">
         <v>55500</v>
       </c>
-      <c r="V43" s="3">
+      <c r="X43" s="3">
         <v>54700</v>
       </c>
-      <c r="W43" s="3">
+      <c r="Y43" s="3">
         <v>53000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Z43" s="3">
         <v>49500</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="AA43" s="3">
         <v>43000</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AB43" s="3">
         <v>39700</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AC43" s="3">
         <v>39900</v>
       </c>
     </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>234700</v>
+      </c>
+      <c r="E44" s="3">
         <v>225500</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>232600</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>203000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>149800</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>121100</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>114900</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
+        <v>114900</v>
+      </c>
+      <c r="L44" s="3">
         <v>112500</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>135800</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>160200</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>156300</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>168800</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>176400</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>185800</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="S44" s="3">
         <v>197900</v>
       </c>
-      <c r="R44" s="3">
+      <c r="T44" s="3">
         <v>198600</v>
       </c>
-      <c r="S44" s="3">
+      <c r="U44" s="3">
         <v>170900</v>
       </c>
-      <c r="T44" s="3">
+      <c r="V44" s="3">
         <v>153700</v>
       </c>
-      <c r="U44" s="3">
+      <c r="W44" s="3">
         <v>144900</v>
       </c>
-      <c r="V44" s="3">
+      <c r="X44" s="3">
         <v>130700</v>
       </c>
-      <c r="W44" s="3">
+      <c r="Y44" s="3">
         <v>124500</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Z44" s="3">
         <v>115200</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="AA44" s="3">
         <v>112600</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AB44" s="3">
         <v>117000</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AC44" s="3">
         <v>113400</v>
       </c>
     </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>13900</v>
+      </c>
+      <c r="E45" s="3">
         <v>7600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>8200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>8400</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>7200</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>6700</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>2400</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
+        <v>2400</v>
+      </c>
+      <c r="L45" s="3">
         <v>7400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>5600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>6700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>2000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>11800</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>11600</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>6700</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>3700</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>5300</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>7200</v>
       </c>
-      <c r="T45" s="3">
+      <c r="V45" s="3">
         <v>5700</v>
       </c>
-      <c r="U45" s="3">
+      <c r="W45" s="3">
         <v>2900</v>
       </c>
-      <c r="V45" s="3">
+      <c r="X45" s="3">
         <v>5900</v>
       </c>
-      <c r="W45" s="3">
+      <c r="Y45" s="3">
         <v>5500</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Z45" s="3">
         <v>3400</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="AA45" s="3">
         <v>1200</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AB45" s="3">
         <v>1700</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AC45" s="3">
         <v>9800</v>
       </c>
     </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>348800</v>
+      </c>
+      <c r="E46" s="3">
         <v>339000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>331100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>304000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>240600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>194800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>167700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
+        <v>167700</v>
+      </c>
+      <c r="L46" s="3">
         <v>175100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>187600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>225500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>215800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>242500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>254600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>266400</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>270900</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>274800</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>261700</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>232500</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>210100</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>197600</v>
       </c>
-      <c r="W46" s="3">
+      <c r="Y46" s="3">
         <v>190200</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Z46" s="3">
         <v>176300</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="AA46" s="3">
         <v>164800</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AB46" s="3">
         <v>166700</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AC46" s="3">
         <v>169300</v>
       </c>
     </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3460,85 +3670,97 @@
       <c r="AA47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>151000</v>
+      </c>
+      <c r="E48" s="3">
         <v>141400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>140800</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>137800</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>137400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>135700</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>139000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
+        <v>139000</v>
+      </c>
+      <c r="L48" s="3">
         <v>135400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>134600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>133400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>134700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>122800</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>112500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>107900</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>104700</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>105500</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>104200</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>102500</v>
       </c>
-      <c r="U48" s="3">
+      <c r="W48" s="3">
         <v>98100</v>
       </c>
-      <c r="V48" s="3">
+      <c r="X48" s="3">
         <v>96100</v>
       </c>
-      <c r="W48" s="3">
+      <c r="Y48" s="3">
         <v>97200</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Z48" s="3">
         <v>96900</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="AA48" s="3">
         <v>93700</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AB48" s="3">
         <v>93200</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AC48" s="3">
         <v>92600</v>
       </c>
     </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3614,8 +3836,14 @@
       <c r="AA49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB49" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3691,8 +3919,14 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3768,85 +4002,97 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>9300</v>
+      </c>
+      <c r="E52" s="3">
         <v>10600</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>9500</v>
-      </c>
-      <c r="F52" s="3">
-        <v>7200</v>
       </c>
       <c r="G52" s="3">
         <v>7200</v>
       </c>
       <c r="H52" s="3">
+        <v>7200</v>
+      </c>
+      <c r="I52" s="3">
         <v>6200</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>6100</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
+        <v>6100</v>
+      </c>
+      <c r="L52" s="3">
         <v>6600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>5500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>4700</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>4800</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>3900</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>3900</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>4500</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>4300</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>3900</v>
       </c>
-      <c r="S52" s="3">
+      <c r="U52" s="3">
         <v>3600</v>
       </c>
-      <c r="T52" s="3">
+      <c r="V52" s="3">
         <v>6200</v>
       </c>
-      <c r="U52" s="3">
+      <c r="W52" s="3">
         <v>5400</v>
       </c>
-      <c r="V52" s="3">
+      <c r="X52" s="3">
         <v>4600</v>
       </c>
-      <c r="W52" s="3">
+      <c r="Y52" s="3">
         <v>4700</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Z52" s="3">
         <v>2000</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="AA52" s="3">
         <v>2300</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AB52" s="3">
         <v>1500</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AC52" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3922,85 +4168,97 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>509200</v>
+      </c>
+      <c r="E54" s="3">
         <v>490900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>481500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>449000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>385200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>336800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>312800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
+        <v>312800</v>
+      </c>
+      <c r="L54" s="3">
         <v>317000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>327700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>363500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>355300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>369200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>371000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>378900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>379900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>384100</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>369500</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>341200</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>313600</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>298200</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>292200</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Z54" s="3">
         <v>275200</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="AA54" s="3">
         <v>260800</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AB54" s="3">
         <v>261400</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AC54" s="3">
         <v>263200</v>
       </c>
     </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4028,8 +4286,10 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+      <c r="AC55" s="3"/>
+    </row>
+    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4057,40 +4317,42 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+      <c r="AC56" s="3"/>
+    </row>
+    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>39200</v>
+      </c>
+      <c r="E57" s="3">
         <v>40800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>52800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>38500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>34600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>19000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>16400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
+        <v>16400</v>
+      </c>
+      <c r="L57" s="3">
         <v>8300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>14500</v>
-      </c>
-      <c r="L57" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M57" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="N57" s="3" t="s">
         <v>8</v>
@@ -4101,11 +4363,11 @@
       <c r="P57" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q57" s="3">
-        <v>0</v>
-      </c>
-      <c r="R57" s="3">
-        <v>0</v>
+      <c r="Q57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R57" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="S57" s="3">
         <v>0</v>
@@ -4134,283 +4396,307 @@
       <c r="AA57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB57" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>117200</v>
+      </c>
+      <c r="E58" s="3">
         <v>111400</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>113800</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>104400</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>59000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>32700</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>21300</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
+        <v>21300</v>
+      </c>
+      <c r="L58" s="3">
         <v>35400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>42000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>74500</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>65800</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>82500</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>88600</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>100600</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>107100</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>111200</v>
       </c>
-      <c r="S58" s="3">
+      <c r="U58" s="3">
         <v>110500</v>
       </c>
-      <c r="T58" s="3">
+      <c r="V58" s="3">
         <v>90700</v>
       </c>
-      <c r="U58" s="3">
+      <c r="W58" s="3">
         <v>77800</v>
       </c>
-      <c r="V58" s="3">
+      <c r="X58" s="3">
         <v>67000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="Y58" s="3">
         <v>67900</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Z58" s="3">
         <v>56800</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="AA58" s="3">
         <v>49100</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AB58" s="3">
         <v>50200</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AC58" s="3">
         <v>43400</v>
       </c>
     </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>35500</v>
+      </c>
+      <c r="E59" s="3">
         <v>43400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>35200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>31900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>26900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>23500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>22000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
+        <v>22000</v>
+      </c>
+      <c r="L59" s="3">
         <v>21000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>19500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>40700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>39900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>41800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>46400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>46000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>48100</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>52500</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>46700</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>45300</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>36400</v>
       </c>
-      <c r="V59" s="3">
+      <c r="X59" s="3">
         <v>35400</v>
       </c>
-      <c r="W59" s="3">
+      <c r="Y59" s="3">
         <v>31400</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Z59" s="3">
         <v>29100</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="AA59" s="3">
         <v>26200</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AB59" s="3">
         <v>29200</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AC59" s="3">
         <v>30200</v>
       </c>
     </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>192000</v>
+      </c>
+      <c r="E60" s="3">
         <v>195600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>201800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>174800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>120500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>75200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>59600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
+        <v>59600</v>
+      </c>
+      <c r="L60" s="3">
         <v>64700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>75900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>115200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>105700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>124400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>135000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>146600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>155200</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>163600</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>157100</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>136000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>114200</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>102400</v>
       </c>
-      <c r="W60" s="3">
+      <c r="Y60" s="3">
         <v>99200</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Z60" s="3">
         <v>85900</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="AA60" s="3">
         <v>75300</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AB60" s="3">
         <v>79300</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AC60" s="3">
         <v>73500</v>
       </c>
     </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>20500</v>
+      </c>
+      <c r="E61" s="3">
         <v>12700</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>12800</v>
-      </c>
-      <c r="F61" s="3">
-        <v>12900</v>
       </c>
       <c r="G61" s="3">
         <v>12900</v>
       </c>
       <c r="H61" s="3">
-        <v>13100</v>
+        <v>12900</v>
       </c>
       <c r="I61" s="3">
         <v>13100</v>
       </c>
       <c r="J61" s="3">
-        <v>13000</v>
+        <v>13100</v>
       </c>
       <c r="K61" s="3">
         <v>13100</v>
       </c>
       <c r="L61" s="3">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="M61" s="3">
-        <v>12000</v>
+        <v>13100</v>
       </c>
       <c r="N61" s="3">
         <v>12000</v>
       </c>
       <c r="O61" s="3">
-        <v>12200</v>
+        <v>12000</v>
       </c>
       <c r="P61" s="3">
         <v>12000</v>
       </c>
       <c r="Q61" s="3">
-        <v>12000</v>
+        <v>12200</v>
       </c>
       <c r="R61" s="3">
         <v>12000</v>
@@ -4442,85 +4728,97 @@
       <c r="AA61" s="3">
         <v>12000</v>
       </c>
-    </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB61" s="3">
+        <v>12000</v>
+      </c>
+      <c r="AC61" s="3">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>16000</v>
+      </c>
+      <c r="E62" s="3">
         <v>18200</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>17100</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>18500</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>20600</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>23900</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>22900</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
+        <v>22900</v>
+      </c>
+      <c r="L62" s="3">
         <v>22700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>22200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>19000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>21000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>15100</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>8700</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>7200</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>7200</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>8000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="U62" s="3">
         <v>8800</v>
       </c>
-      <c r="T62" s="3">
+      <c r="V62" s="3">
         <v>7600</v>
       </c>
-      <c r="U62" s="3">
+      <c r="W62" s="3">
         <v>7100</v>
       </c>
-      <c r="V62" s="3">
+      <c r="X62" s="3">
         <v>12300</v>
       </c>
-      <c r="W62" s="3">
+      <c r="Y62" s="3">
         <v>12800</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Z62" s="3">
         <v>11100</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="AA62" s="3">
         <v>9100</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AB62" s="3">
         <v>8300</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AC62" s="3">
         <v>17000</v>
       </c>
     </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4596,8 +4894,14 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4673,8 +4977,14 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4750,85 +5060,97 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>228400</v>
+      </c>
+      <c r="E66" s="3">
         <v>226400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>231700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>206200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>154100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>112200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>95700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
+        <v>95700</v>
+      </c>
+      <c r="L66" s="3">
         <v>100400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>111200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>146200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>138700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>151500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>155900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>165800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>174400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>183700</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>177900</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>155600</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>133300</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>126700</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>124000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Z66" s="3">
         <v>109000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="AA66" s="3">
         <v>96500</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AB66" s="3">
         <v>99700</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AC66" s="3">
         <v>102500</v>
       </c>
     </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4856,8 +5178,10 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+      <c r="AC67" s="3"/>
+    </row>
+    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4933,8 +5257,14 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5010,8 +5340,14 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5087,8 +5423,14 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5164,40 +5506,46 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>232100</v>
+      </c>
+      <c r="E72" s="3">
         <v>216200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>201300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>193800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>181000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>171700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>165400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
+        <v>165400</v>
+      </c>
+      <c r="L72" s="3">
         <v>165500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>165600</v>
-      </c>
-      <c r="L72" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M72" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="N72" s="3" t="s">
         <v>8</v>
@@ -5205,23 +5553,23 @@
       <c r="O72" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P72" s="3">
+      <c r="P72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R72" s="3">
         <v>213100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>205600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>200500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>191500</v>
-      </c>
-      <c r="T72" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U72" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="V72" s="3" t="s">
         <v>8</v>
@@ -5232,17 +5580,23 @@
       <c r="X72" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Y72" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z72" s="3">
-        <v>0</v>
+      <c r="Y72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z72" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="AA72" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB72" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5318,8 +5672,14 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5395,8 +5755,14 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5472,85 +5838,97 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>280700</v>
+      </c>
+      <c r="E76" s="3">
         <v>264500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>249800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>242800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>231100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>224600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>217100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
+        <v>217100</v>
+      </c>
+      <c r="L76" s="3">
         <v>216600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>216500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>217300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>216600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>217800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>215200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>213100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>205600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>200500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>191500</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>185600</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>180400</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>171500</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>168200</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>166200</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="AA76" s="3">
         <v>164400</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AB76" s="3">
         <v>161700</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AC76" s="3">
         <v>160600</v>
       </c>
     </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5626,167 +6004,185 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44865</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44773</v>
+      </c>
+      <c r="F80" s="2">
         <v>44681</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44592</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44500</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44408</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44316</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44227</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44135</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44043</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43951</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43861</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43769</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43677</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43585</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43496</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43404</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43312</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43220</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43131</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>43039</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>42947</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>42855</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>42766</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AB80" s="2">
         <v>42674</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AC80" s="2">
         <v>42582</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>8400</v>
+      </c>
+      <c r="E81" s="3">
+        <v>48400</v>
+      </c>
+      <c r="F81" s="3">
         <v>16000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>9500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>14600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>13400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>6500</v>
       </c>
-      <c r="I81" s="3">
-        <v>0</v>
-      </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
+        <v>0</v>
+      </c>
+      <c r="L81" s="3">
         <v>-200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-1100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>2000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>3200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>4300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>6600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>4900</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>9800</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>6800</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>5000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>8400</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>3000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>1400</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Z81" s="3">
         <v>1300</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="AA81" s="3">
         <v>2200</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AB81" s="3">
         <v>700</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AC81" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5814,64 +6210,66 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+      <c r="AC82" s="3"/>
+    </row>
+    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F83" s="3">
         <v>3500</v>
       </c>
-      <c r="E83" s="3">
-        <v>3500</v>
-      </c>
-      <c r="F83" s="3">
-        <v>3600</v>
-      </c>
       <c r="G83" s="3">
+        <v>7000</v>
+      </c>
+      <c r="H83" s="3">
+        <v>-10300</v>
+      </c>
+      <c r="I83" s="3">
         <v>3400</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>3400</v>
-      </c>
-      <c r="I83" s="3">
-        <v>3500</v>
-      </c>
-      <c r="J83" s="3">
-        <v>3600</v>
       </c>
       <c r="K83" s="3">
         <v>3500</v>
       </c>
       <c r="L83" s="3">
-        <v>3400</v>
+        <v>3600</v>
       </c>
       <c r="M83" s="3">
         <v>3500</v>
       </c>
       <c r="N83" s="3">
-        <v>3500</v>
+        <v>3400</v>
       </c>
       <c r="O83" s="3">
         <v>3500</v>
       </c>
       <c r="P83" s="3">
-        <v>3400</v>
+        <v>3500</v>
       </c>
       <c r="Q83" s="3">
-        <v>3400</v>
+        <v>3500</v>
       </c>
       <c r="R83" s="3">
         <v>3400</v>
       </c>
       <c r="S83" s="3">
+        <v>3400</v>
+      </c>
+      <c r="T83" s="3">
+        <v>3400</v>
+      </c>
+      <c r="U83" s="3">
         <v>3300</v>
-      </c>
-      <c r="T83" s="3">
-        <v>3100</v>
-      </c>
-      <c r="U83" s="3">
-        <v>3000</v>
       </c>
       <c r="V83" s="3">
         <v>3100</v>
@@ -5880,19 +6278,25 @@
         <v>3000</v>
       </c>
       <c r="X83" s="3">
-        <v>2900</v>
+        <v>3100</v>
       </c>
       <c r="Y83" s="3">
-        <v>2900</v>
+        <v>3000</v>
       </c>
       <c r="Z83" s="3">
         <v>2900</v>
       </c>
       <c r="AA83" s="3">
+        <v>2900</v>
+      </c>
+      <c r="AB83" s="3">
+        <v>2900</v>
+      </c>
+      <c r="AC83" s="3">
         <v>3100</v>
       </c>
     </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5968,8 +6372,14 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6045,8 +6455,14 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6122,8 +6538,14 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6199,8 +6621,14 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6276,85 +6704,97 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F89" s="3">
         <v>5100</v>
       </c>
-      <c r="E89" s="3">
-        <v>10600</v>
-      </c>
-      <c r="F89" s="3">
-        <v>-40800</v>
-      </c>
       <c r="G89" s="3">
+        <v>-30200</v>
+      </c>
+      <c r="H89" s="3">
+        <v>-54700</v>
+      </c>
+      <c r="I89" s="3">
         <v>-6300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-4600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>21200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>3600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>23600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>5000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>23000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>11100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>22600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>12900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>14800</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>1400</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>-9500</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>-11800</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>-4300</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>2500</v>
       </c>
-      <c r="W89" s="3">
+      <c r="Y89" s="3">
         <v>-2500</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Z89" s="3">
         <v>-6000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="AA89" s="3">
         <v>7800</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AB89" s="3">
         <v>-1600</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AC89" s="3">
         <v>-3900</v>
       </c>
     </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6382,8 +6822,10 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+      <c r="AC90" s="3"/>
+    </row>
+    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6459,8 +6901,14 @@
       <c r="AA91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6536,8 +6984,14 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6613,37 +7067,43 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E94" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F94" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G94" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H94" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I94" s="3" t="s">
-        <v>8</v>
+      <c r="D94" s="3">
+        <v>0</v>
+      </c>
+      <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
+        <v>0</v>
       </c>
       <c r="J94" s="3">
-        <v>4100</v>
+        <v>0</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L94" s="3" t="s">
-        <v>8</v>
+      <c r="L94" s="3">
+        <v>4100</v>
       </c>
       <c r="M94" s="3" t="s">
         <v>8</v>
@@ -6651,11 +7111,11 @@
       <c r="N94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O94" s="3">
-        <v>0</v>
-      </c>
-      <c r="P94" s="3">
-        <v>0</v>
+      <c r="O94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P94" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q94" s="3">
         <v>0</v>
@@ -6690,8 +7150,14 @@
       <c r="AA94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6719,8 +7185,10 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+      <c r="AC95" s="3"/>
+    </row>
+    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6796,8 +7264,14 @@
       <c r="AA96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6873,8 +7347,14 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6950,8 +7430,14 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7027,8 +7513,14 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -7104,8 +7596,14 @@
       <c r="AA100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7181,8 +7679,14 @@
       <c r="AA101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -7256,6 +7760,12 @@
         <v>0</v>
       </c>
       <c r="AA102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/WEBC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/WEBC_QTR_FIN.xlsx
@@ -6716,7 +6716,7 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>3300</v>
+        <v>-100</v>
       </c>
       <c r="E89" s="3" t="s">
         <v>8</v>

--- a/AAII_Financials/Quarterly/WEBC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/WEBC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="92">
   <si>
     <t>WEBC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AC102"/>
+  <dimension ref="A5:AD102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,372 +665,385 @@
     <col min="1" max="1" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44957</v>
+      </c>
+      <c r="E7" s="2">
         <v>44865</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44773</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44681</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44592</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44500</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44408</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44316</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44227</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44135</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44043</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43951</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43861</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43769</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43677</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43585</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43496</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43404</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43312</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43220</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43131</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43039</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42947</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42855</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42766</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42674</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42582</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>173400</v>
+      </c>
+      <c r="E8" s="3">
         <v>188500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>704000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>190600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>173400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>167500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>145500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>127000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>94300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>99800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>89100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>104800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>112400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>122500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>130000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>145700</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>135900</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>137000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>147800</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>127300</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>111000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>114300</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>106600</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>98300</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>91600</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>88300</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>84000</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>158100</v>
+      </c>
+      <c r="E9" s="3">
         <v>162500</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>585900</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>157100</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>144300</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>133100</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>116900</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>108400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>87000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>92500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>86300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>94900</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>100700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>108900</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>118600</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>126000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>117500</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>112800</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>123700</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>108700</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>98000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>100400</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>96400</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>89400</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>84000</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>80400</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>77300</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>15300</v>
+      </c>
+      <c r="E10" s="3">
         <v>26000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>118100</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>33500</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>29100</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>34400</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>28600</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>18600</v>
-      </c>
-      <c r="K10" s="3">
-        <v>7300</v>
       </c>
       <c r="L10" s="3">
         <v>7300</v>
       </c>
       <c r="M10" s="3">
+        <v>7300</v>
+      </c>
+      <c r="N10" s="3">
         <v>2800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>9900</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>11700</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>13600</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>11400</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>19700</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>18400</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>24200</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>24100</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>18600</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>13000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>13900</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>10200</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>8900</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>7600</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>7900</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>6700</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1060,8 +1073,9 @@
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD11" s="3"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1143,8 +1157,11 @@
       <c r="AC12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1226,8 +1243,11 @@
       <c r="AC13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1258,14 +1278,14 @@
       <c r="L14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M14" s="3">
+      <c r="M14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N14" s="3">
         <v>500</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>400</v>
-      </c>
-      <c r="O14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>8</v>
@@ -1282,8 +1302,8 @@
       <c r="T14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U14" s="3">
-        <v>0</v>
+      <c r="U14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="V14" s="3">
         <v>0</v>
@@ -1309,8 +1329,11 @@
       <c r="AC14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1392,8 +1415,11 @@
       <c r="AC15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1420,174 +1446,181 @@
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
-    </row>
-    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD16" s="3"/>
+    </row>
+    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>168700</v>
+      </c>
+      <c r="E17" s="3">
         <v>176100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>639200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>169500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>160200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>148100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>128500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>118500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>94100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>99600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>91000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>104200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>109100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>117700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>124900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>135700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>127800</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>123100</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>137500</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>120100</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>106400</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>108500</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>103600</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>95800</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>89800</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>86800</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>83300</v>
       </c>
     </row>
-    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>4700</v>
+      </c>
+      <c r="E18" s="3">
         <v>12400</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>64800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>21100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>13200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>19400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>17000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>8500</v>
-      </c>
-      <c r="K18" s="3">
-        <v>200</v>
       </c>
       <c r="L18" s="3">
         <v>200</v>
       </c>
       <c r="M18" s="3">
+        <v>200</v>
+      </c>
+      <c r="N18" s="3">
         <v>-1900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>3300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>4800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>5100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>10000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>8100</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>13900</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>10300</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>7200</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>4600</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>5800</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>3000</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>2500</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>1800</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>1500</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1617,8 +1650,9 @@
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
-    </row>
-    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD19" s="3"/>
+    </row>
+    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1659,381 +1693,396 @@
         <v>0</v>
       </c>
       <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
         <v>-100</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-200</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-100</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-300</v>
       </c>
-      <c r="T20" s="3">
-        <v>0</v>
-      </c>
       <c r="U20" s="3">
+        <v>0</v>
+      </c>
+      <c r="V20" s="3">
         <v>100</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>200</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>400</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>200</v>
       </c>
-      <c r="Y20" s="3">
-        <v>0</v>
-      </c>
       <c r="Z20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA20" s="3">
         <v>200</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>900</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>500</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>8000</v>
+      </c>
+      <c r="E21" s="3">
         <v>15700</v>
       </c>
-      <c r="E21" s="3" t="s">
+      <c r="F21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>24500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>20200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>9100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>20500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>11900</v>
-      </c>
-      <c r="K21" s="3">
-        <v>3800</v>
       </c>
       <c r="L21" s="3">
         <v>3800</v>
       </c>
       <c r="M21" s="3">
+        <v>3800</v>
+      </c>
+      <c r="N21" s="3">
         <v>1700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>4000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>6900</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>8300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>8400</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>13300</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>11200</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>17300</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>13700</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>10500</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>8000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>9100</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>6100</v>
-      </c>
-      <c r="Z21" s="3">
-        <v>5600</v>
       </c>
       <c r="AA21" s="3">
         <v>5600</v>
       </c>
       <c r="AB21" s="3">
+        <v>5600</v>
+      </c>
+      <c r="AC21" s="3">
         <v>4900</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>3600</v>
       </c>
     </row>
-    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E22" s="3">
         <v>1500</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>3300</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>800</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>700</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>600</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>400</v>
-      </c>
-      <c r="J22" s="3">
-        <v>300</v>
       </c>
       <c r="K22" s="3">
         <v>300</v>
       </c>
       <c r="L22" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="M22" s="3">
         <v>400</v>
       </c>
       <c r="N22" s="3">
+        <v>400</v>
+      </c>
+      <c r="O22" s="3">
         <v>700</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>800</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>900</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>1000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>1200</v>
-      </c>
-      <c r="S22" s="3">
-        <v>1300</v>
       </c>
       <c r="T22" s="3">
         <v>1300</v>
       </c>
       <c r="U22" s="3">
+        <v>1300</v>
+      </c>
+      <c r="V22" s="3">
         <v>1100</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>900</v>
-      </c>
-      <c r="W22" s="3">
-        <v>800</v>
       </c>
       <c r="X22" s="3">
         <v>800</v>
       </c>
       <c r="Y22" s="3">
+        <v>800</v>
+      </c>
+      <c r="Z22" s="3">
         <v>600</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>500</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>600</v>
-      </c>
-      <c r="AB22" s="3">
-        <v>700</v>
       </c>
       <c r="AC22" s="3">
         <v>700</v>
       </c>
-    </row>
-    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD22" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E23" s="3">
         <v>10900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>61500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>20300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>12600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>18800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>16700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>8200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-2300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>2500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>3800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>4000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>8700</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>6500</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>12500</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>9200</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>6500</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>4200</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>5200</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>2400</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>2200</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>2000</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>1300</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E24" s="3">
         <v>2500</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>13200</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>4300</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>3000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>4200</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>3300</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>1700</v>
       </c>
-      <c r="K24" s="3">
-        <v>0</v>
-      </c>
       <c r="L24" s="3">
         <v>0</v>
       </c>
       <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3">
         <v>-1200</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-300</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>500</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>700</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-400</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>2100</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>1600</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>2800</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>2400</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>1500</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>-4200</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>2200</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>1000</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>900</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>-100</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>600</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2115,174 +2164,183 @@
       <c r="AC25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E26" s="3">
         <v>8400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>48400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>16000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>9500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>14600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>13400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>6500</v>
       </c>
-      <c r="K26" s="3">
-        <v>0</v>
-      </c>
       <c r="L26" s="3">
+        <v>0</v>
+      </c>
+      <c r="M26" s="3">
         <v>-200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-1100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>2000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>3200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>4300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>6600</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>4900</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>9800</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>6800</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>5000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>8400</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>3000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>1400</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>1300</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>2200</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>700</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E27" s="3">
         <v>8400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>48400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>16000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>9500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>14600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>13400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>6500</v>
       </c>
-      <c r="K27" s="3">
-        <v>0</v>
-      </c>
       <c r="L27" s="3">
+        <v>0</v>
+      </c>
+      <c r="M27" s="3">
         <v>-200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-1100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>2000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>3200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>4300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>6600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>4900</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>9800</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>6800</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>5000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>8400</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>3000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>1400</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>1300</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>2200</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>700</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2364,8 +2422,11 @@
       <c r="AC28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2447,8 +2508,11 @@
       <c r="AC29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2530,8 +2594,11 @@
       <c r="AC30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2613,8 +2680,11 @@
       <c r="AC31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2655,132 +2725,138 @@
         <v>0</v>
       </c>
       <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
         <v>100</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>200</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>100</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>300</v>
       </c>
-      <c r="T32" s="3">
-        <v>0</v>
-      </c>
       <c r="U32" s="3">
+        <v>0</v>
+      </c>
+      <c r="V32" s="3">
         <v>-100</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-200</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-400</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-200</v>
       </c>
-      <c r="Y32" s="3">
-        <v>0</v>
-      </c>
       <c r="Z32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA32" s="3">
         <v>-200</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-900</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>-500</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E33" s="3">
         <v>8400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>48400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>16000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>9500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>14600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>13400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>6500</v>
       </c>
-      <c r="K33" s="3">
-        <v>0</v>
-      </c>
       <c r="L33" s="3">
+        <v>0</v>
+      </c>
+      <c r="M33" s="3">
         <v>-200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-1100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>2000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>3200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>4300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>6600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>4900</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>9800</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>6800</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>5000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>8400</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>3000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>1400</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>1300</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>2200</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>700</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2862,179 +2938,188 @@
       <c r="AC34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E35" s="3">
         <v>8400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>48400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>16000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>9500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>14600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>13400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>6500</v>
       </c>
-      <c r="K35" s="3">
-        <v>0</v>
-      </c>
       <c r="L35" s="3">
+        <v>0</v>
+      </c>
+      <c r="M35" s="3">
         <v>-200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-1100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>2000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>3200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>4300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>6600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>4900</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>9800</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>6800</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>5000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>8400</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>3000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>1400</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>1300</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>2200</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>700</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44957</v>
+      </c>
+      <c r="E38" s="2">
         <v>44865</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44773</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44681</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44592</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44500</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44408</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44316</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44227</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44135</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44043</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43951</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43861</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43769</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43677</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43585</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43496</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43404</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43312</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43220</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43131</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43039</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42947</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42855</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42766</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42674</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42582</v>
       </c>
     </row>
-    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3064,8 +3149,9 @@
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
-    </row>
-    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD39" s="3"/>
+    </row>
+    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3095,114 +3181,118 @@
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
-    </row>
-    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD40" s="3"/>
+    </row>
+    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E41" s="3">
         <v>12800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>11800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>10900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>8800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>8400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>7100</v>
-      </c>
-      <c r="J41" s="3">
-        <v>5400</v>
       </c>
       <c r="K41" s="3">
         <v>5400</v>
       </c>
       <c r="L41" s="3">
+        <v>5400</v>
+      </c>
+      <c r="M41" s="3">
         <v>6200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>4600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>11300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>3400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>6200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>7100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>6800</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>4900</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>6200</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>7100</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>4400</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>6800</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>6300</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>7200</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>8100</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>8000</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>8400</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>6300</v>
       </c>
     </row>
-    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>0</v>
-      </c>
-      <c r="E42" s="3">
-        <v>0</v>
-      </c>
-      <c r="F42" s="3">
-        <v>0</v>
-      </c>
-      <c r="G42" s="3">
-        <v>0</v>
-      </c>
-      <c r="H42" s="3">
-        <v>0</v>
-      </c>
-      <c r="I42" s="3">
-        <v>0</v>
-      </c>
-      <c r="J42" s="3">
-        <v>0</v>
+        <v>10600</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J42" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K42" s="3">
         <v>0</v>
@@ -3261,340 +3351,355 @@
       <c r="AC42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>87000</v>
+      </c>
+      <c r="E43" s="3">
         <v>87400</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>94100</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>79500</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>83700</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>75200</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>59900</v>
-      </c>
-      <c r="J43" s="3">
-        <v>45000</v>
       </c>
       <c r="K43" s="3">
         <v>45000</v>
       </c>
       <c r="L43" s="3">
+        <v>45000</v>
+      </c>
+      <c r="M43" s="3">
         <v>48900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>41700</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>47300</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>54200</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>55600</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>59400</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>67200</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>64400</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>64700</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>76500</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>68800</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>55500</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>54700</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>53000</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>49500</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>43000</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>39700</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>39900</v>
       </c>
     </row>
-    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>219000</v>
+      </c>
+      <c r="E44" s="3">
         <v>234700</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>225500</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>232600</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>203000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>149800</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>121100</v>
-      </c>
-      <c r="J44" s="3">
-        <v>114900</v>
       </c>
       <c r="K44" s="3">
         <v>114900</v>
       </c>
       <c r="L44" s="3">
+        <v>114900</v>
+      </c>
+      <c r="M44" s="3">
         <v>112500</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>135800</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>160200</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>156300</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>168800</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>176400</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>185800</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>197900</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>198600</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>170900</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>153700</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>144900</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>130700</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>124500</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>115200</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>112600</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>117000</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AD44" s="3">
         <v>113400</v>
       </c>
     </row>
-    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>15000</v>
+      </c>
+      <c r="E45" s="3">
         <v>13900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>7600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>8200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>8400</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>7200</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>6700</v>
-      </c>
-      <c r="J45" s="3">
-        <v>2400</v>
       </c>
       <c r="K45" s="3">
         <v>2400</v>
       </c>
       <c r="L45" s="3">
+        <v>2400</v>
+      </c>
+      <c r="M45" s="3">
         <v>7400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>5600</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>6700</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>2000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>11800</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>11600</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>6700</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>3700</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>5300</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>7200</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>5700</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>2900</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>5900</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>5500</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>3400</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>1200</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>1700</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>9800</v>
       </c>
     </row>
-    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>335300</v>
+      </c>
+      <c r="E46" s="3">
         <v>348800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>339000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>331100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>304000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>240600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>194800</v>
-      </c>
-      <c r="J46" s="3">
-        <v>167700</v>
       </c>
       <c r="K46" s="3">
         <v>167700</v>
       </c>
       <c r="L46" s="3">
+        <v>167700</v>
+      </c>
+      <c r="M46" s="3">
         <v>175100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>187600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>225500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>215800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>242500</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>254600</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>266400</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>270900</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>274800</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>261700</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>232500</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>210100</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>197600</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>190200</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>176300</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>164800</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>166700</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>169300</v>
       </c>
     </row>
-    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3676,91 +3781,97 @@
       <c r="AC47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>158100</v>
+      </c>
+      <c r="E48" s="3">
         <v>151000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>141400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>140800</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>137800</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>137400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>135700</v>
-      </c>
-      <c r="J48" s="3">
-        <v>139000</v>
       </c>
       <c r="K48" s="3">
         <v>139000</v>
       </c>
       <c r="L48" s="3">
+        <v>139000</v>
+      </c>
+      <c r="M48" s="3">
         <v>135400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>134600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>133400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>134700</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>122800</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>112500</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>107900</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>104700</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>105500</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>104200</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>102500</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>98100</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>96100</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>97200</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>96900</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>93700</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>93200</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>92600</v>
       </c>
     </row>
-    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3842,8 +3953,11 @@
       <c r="AC49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3925,8 +4039,11 @@
       <c r="AC50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4008,91 +4125,97 @@
       <c r="AC51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>10200</v>
+      </c>
+      <c r="E52" s="3">
         <v>9300</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>10600</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>9500</v>
-      </c>
-      <c r="G52" s="3">
-        <v>7200</v>
       </c>
       <c r="H52" s="3">
         <v>7200</v>
       </c>
       <c r="I52" s="3">
+        <v>7200</v>
+      </c>
+      <c r="J52" s="3">
         <v>6200</v>
-      </c>
-      <c r="J52" s="3">
-        <v>6100</v>
       </c>
       <c r="K52" s="3">
         <v>6100</v>
       </c>
       <c r="L52" s="3">
+        <v>6100</v>
+      </c>
+      <c r="M52" s="3">
         <v>6600</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>5500</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>4700</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>4800</v>
-      </c>
-      <c r="P52" s="3">
-        <v>3900</v>
       </c>
       <c r="Q52" s="3">
         <v>3900</v>
       </c>
       <c r="R52" s="3">
+        <v>3900</v>
+      </c>
+      <c r="S52" s="3">
         <v>4500</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>4300</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>3900</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>3600</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>6200</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>5400</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>4600</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>4700</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>2000</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>2300</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>1500</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4174,91 +4297,97 @@
       <c r="AC53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>503700</v>
+      </c>
+      <c r="E54" s="3">
         <v>509200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>490900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>481500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>449000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>385200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>336800</v>
-      </c>
-      <c r="J54" s="3">
-        <v>312800</v>
       </c>
       <c r="K54" s="3">
         <v>312800</v>
       </c>
       <c r="L54" s="3">
+        <v>312800</v>
+      </c>
+      <c r="M54" s="3">
         <v>317000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>327700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>363500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>355300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>369200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>371000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>378900</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>379900</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>384100</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>369500</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>341200</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>313600</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>298200</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>292200</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>275200</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>260800</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>261400</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>263200</v>
       </c>
     </row>
-    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4288,8 +4417,9 @@
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
-    </row>
-    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD55" s="3"/>
+    </row>
+    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4319,43 +4449,44 @@
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
-    </row>
-    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD56" s="3"/>
+    </row>
+    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>39000</v>
+      </c>
+      <c r="E57" s="3">
         <v>39200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>40800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>52800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>38500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>34600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>19000</v>
-      </c>
-      <c r="J57" s="3">
-        <v>16400</v>
       </c>
       <c r="K57" s="3">
         <v>16400</v>
       </c>
       <c r="L57" s="3">
+        <v>16400</v>
+      </c>
+      <c r="M57" s="3">
         <v>8300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>14500</v>
-      </c>
-      <c r="N57" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="O57" s="3" t="s">
         <v>8</v>
@@ -4369,8 +4500,8 @@
       <c r="R57" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S57" s="3">
-        <v>0</v>
+      <c r="S57" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="T57" s="3">
         <v>0</v>
@@ -4402,257 +4533,269 @@
       <c r="AC57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>106800</v>
+      </c>
+      <c r="E58" s="3">
         <v>117200</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>111400</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>113800</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>104400</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>59000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>32700</v>
-      </c>
-      <c r="J58" s="3">
-        <v>21300</v>
       </c>
       <c r="K58" s="3">
         <v>21300</v>
       </c>
       <c r="L58" s="3">
+        <v>21300</v>
+      </c>
+      <c r="M58" s="3">
         <v>35400</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>42000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>74500</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>65800</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>82500</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>88600</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>100600</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>107100</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>111200</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>110500</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>90700</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>77800</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>67000</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>67900</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>56800</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>49100</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>50200</v>
       </c>
-      <c r="AC58" s="3">
+      <c r="AD58" s="3">
         <v>43400</v>
       </c>
     </row>
-    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>34800</v>
+      </c>
+      <c r="E59" s="3">
         <v>35500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>43400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>35200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>31900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>26900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>23500</v>
-      </c>
-      <c r="J59" s="3">
-        <v>22000</v>
       </c>
       <c r="K59" s="3">
         <v>22000</v>
       </c>
       <c r="L59" s="3">
+        <v>22000</v>
+      </c>
+      <c r="M59" s="3">
         <v>21000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>19500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>40700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>39900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>41800</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>46400</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>46000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>48100</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>52500</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>46700</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>45300</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>36400</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>35400</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>31400</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>29100</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>26200</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>29200</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>30200</v>
       </c>
     </row>
-    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>180600</v>
+      </c>
+      <c r="E60" s="3">
         <v>192000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>195600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>201800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>174800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>120500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>75200</v>
-      </c>
-      <c r="J60" s="3">
-        <v>59600</v>
       </c>
       <c r="K60" s="3">
         <v>59600</v>
       </c>
       <c r="L60" s="3">
+        <v>59600</v>
+      </c>
+      <c r="M60" s="3">
         <v>64700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>75900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>115200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>105700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>124400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>135000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>146600</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>155200</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>163600</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>157100</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>136000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>114200</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>102400</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>99200</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>85900</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>75300</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>79300</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>73500</v>
       </c>
     </row>
-    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4660,19 +4803,19 @@
         <v>20500</v>
       </c>
       <c r="E61" s="3">
+        <v>20500</v>
+      </c>
+      <c r="F61" s="3">
         <v>12700</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>12800</v>
-      </c>
-      <c r="G61" s="3">
-        <v>12900</v>
       </c>
       <c r="H61" s="3">
         <v>12900</v>
       </c>
       <c r="I61" s="3">
-        <v>13100</v>
+        <v>12900</v>
       </c>
       <c r="J61" s="3">
         <v>13100</v>
@@ -4681,13 +4824,13 @@
         <v>13100</v>
       </c>
       <c r="L61" s="3">
+        <v>13100</v>
+      </c>
+      <c r="M61" s="3">
         <v>13000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>13100</v>
-      </c>
-      <c r="N61" s="3">
-        <v>12000</v>
       </c>
       <c r="O61" s="3">
         <v>12000</v>
@@ -4696,10 +4839,10 @@
         <v>12000</v>
       </c>
       <c r="Q61" s="3">
+        <v>12000</v>
+      </c>
+      <c r="R61" s="3">
         <v>12200</v>
-      </c>
-      <c r="R61" s="3">
-        <v>12000</v>
       </c>
       <c r="S61" s="3">
         <v>12000</v>
@@ -4734,91 +4877,97 @@
       <c r="AC61" s="3">
         <v>12000</v>
       </c>
-    </row>
-    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD61" s="3">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>17900</v>
+      </c>
+      <c r="E62" s="3">
         <v>16000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>18200</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>17100</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>18500</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>20600</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>23900</v>
-      </c>
-      <c r="J62" s="3">
-        <v>22900</v>
       </c>
       <c r="K62" s="3">
         <v>22900</v>
       </c>
       <c r="L62" s="3">
+        <v>22900</v>
+      </c>
+      <c r="M62" s="3">
         <v>22700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>22200</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>19000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>21000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>15100</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>8700</v>
-      </c>
-      <c r="R62" s="3">
-        <v>7200</v>
       </c>
       <c r="S62" s="3">
         <v>7200</v>
       </c>
       <c r="T62" s="3">
+        <v>7200</v>
+      </c>
+      <c r="U62" s="3">
         <v>8000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>8800</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>7600</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>7100</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>12300</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>12800</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>11100</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>9100</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>8300</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>17000</v>
       </c>
     </row>
-    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4900,8 +5049,11 @@
       <c r="AC63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4983,8 +5135,11 @@
       <c r="AC64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5066,91 +5221,97 @@
       <c r="AC65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>219000</v>
+      </c>
+      <c r="E66" s="3">
         <v>228400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>226400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>231700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>206200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>154100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>112200</v>
-      </c>
-      <c r="J66" s="3">
-        <v>95700</v>
       </c>
       <c r="K66" s="3">
         <v>95700</v>
       </c>
       <c r="L66" s="3">
+        <v>95700</v>
+      </c>
+      <c r="M66" s="3">
         <v>100400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>111200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>146200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>138700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>151500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>155900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>165800</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>174400</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>183700</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>177900</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>155600</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>133300</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>126700</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>124000</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>109000</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>96500</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>99700</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>102500</v>
       </c>
     </row>
-    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5180,8 +5341,9 @@
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
-    </row>
-    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD67" s="3"/>
+    </row>
+    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5263,8 +5425,11 @@
       <c r="AC68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5346,8 +5511,11 @@
       <c r="AC69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5429,8 +5597,11 @@
       <c r="AC70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5512,43 +5683,46 @@
       <c r="AC71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>235600</v>
+      </c>
+      <c r="E72" s="3">
         <v>232100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>216200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>201300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>193800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>181000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>171700</v>
-      </c>
-      <c r="J72" s="3">
-        <v>165400</v>
       </c>
       <c r="K72" s="3">
         <v>165400</v>
       </c>
       <c r="L72" s="3">
+        <v>165400</v>
+      </c>
+      <c r="M72" s="3">
         <v>165500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>165600</v>
-      </c>
-      <c r="N72" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="O72" s="3" t="s">
         <v>8</v>
@@ -5559,20 +5733,20 @@
       <c r="Q72" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R72" s="3">
+      <c r="R72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S72" s="3">
         <v>213100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>205600</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>200500</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>191500</v>
-      </c>
-      <c r="V72" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="W72" s="3" t="s">
         <v>8</v>
@@ -5586,8 +5760,8 @@
       <c r="Z72" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AA72" s="3">
-        <v>0</v>
+      <c r="AA72" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="AB72" s="3">
         <v>0</v>
@@ -5595,8 +5769,11 @@
       <c r="AC72" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5678,8 +5855,11 @@
       <c r="AC73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5761,8 +5941,11 @@
       <c r="AC74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5844,91 +6027,97 @@
       <c r="AC75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>284700</v>
+      </c>
+      <c r="E76" s="3">
         <v>280700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>264500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>249800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>242800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>231100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>224600</v>
-      </c>
-      <c r="J76" s="3">
-        <v>217100</v>
       </c>
       <c r="K76" s="3">
         <v>217100</v>
       </c>
       <c r="L76" s="3">
+        <v>217100</v>
+      </c>
+      <c r="M76" s="3">
         <v>216600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>216500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>217300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>216600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>217800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>215200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>213100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>205600</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>200500</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>191500</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>185600</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>180400</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>171500</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>168200</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>166200</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>164400</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>161700</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>160600</v>
       </c>
     </row>
-    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6010,179 +6199,188 @@
       <c r="AC77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44957</v>
+      </c>
+      <c r="E80" s="2">
         <v>44865</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44773</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44681</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44592</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44500</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44408</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44316</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44227</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44135</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44043</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43951</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43861</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43769</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43677</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43585</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43496</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43404</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43312</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43220</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43131</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43039</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42947</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42855</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42766</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42674</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42582</v>
       </c>
     </row>
-    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E81" s="3">
         <v>8400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>48400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>16000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>9500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>14600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>13400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>6500</v>
       </c>
-      <c r="K81" s="3">
-        <v>0</v>
-      </c>
       <c r="L81" s="3">
+        <v>0</v>
+      </c>
+      <c r="M81" s="3">
         <v>-200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-1100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>2000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>3200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>4300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>6600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>4900</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>9800</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>6800</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>5000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>8400</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>3000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>1400</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>1300</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>2200</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>700</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6212,46 +6410,47 @@
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
-    </row>
-    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD82" s="3"/>
+    </row>
+    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
         <v>3300</v>
       </c>
-      <c r="E83" s="3" t="s">
+      <c r="E83" s="3">
+        <v>3300</v>
+      </c>
+      <c r="F83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>3500</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>7000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>-10300</v>
-      </c>
-      <c r="I83" s="3">
-        <v>3400</v>
       </c>
       <c r="J83" s="3">
         <v>3400</v>
       </c>
       <c r="K83" s="3">
+        <v>3400</v>
+      </c>
+      <c r="L83" s="3">
         <v>3500</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>3600</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>3500</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>3400</v>
-      </c>
-      <c r="O83" s="3">
-        <v>3500</v>
       </c>
       <c r="P83" s="3">
         <v>3500</v>
@@ -6260,7 +6459,7 @@
         <v>3500</v>
       </c>
       <c r="R83" s="3">
-        <v>3400</v>
+        <v>3500</v>
       </c>
       <c r="S83" s="3">
         <v>3400</v>
@@ -6269,22 +6468,22 @@
         <v>3400</v>
       </c>
       <c r="U83" s="3">
+        <v>3400</v>
+      </c>
+      <c r="V83" s="3">
         <v>3300</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>3100</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>3000</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>3100</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>3000</v>
-      </c>
-      <c r="Z83" s="3">
-        <v>2900</v>
       </c>
       <c r="AA83" s="3">
         <v>2900</v>
@@ -6293,10 +6492,13 @@
         <v>2900</v>
       </c>
       <c r="AC83" s="3">
+        <v>2900</v>
+      </c>
+      <c r="AD83" s="3">
         <v>3100</v>
       </c>
     </row>
-    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6378,8 +6580,11 @@
       <c r="AC84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6461,8 +6666,11 @@
       <c r="AC85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6544,8 +6752,11 @@
       <c r="AC86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6627,8 +6838,11 @@
       <c r="AC87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6710,91 +6924,97 @@
       <c r="AC88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>6700</v>
+      </c>
+      <c r="E89" s="3">
         <v>-100</v>
       </c>
-      <c r="E89" s="3" t="s">
+      <c r="F89" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>5100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-30200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-54700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-6300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-4600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>21200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>3600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>23600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>5000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>23000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>11100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>22600</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>12900</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>14800</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>1400</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-9500</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-11800</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-4300</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>2500</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>-2500</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>-6000</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>7800</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>-1600</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>-3900</v>
       </c>
     </row>
-    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6824,8 +7044,9 @@
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
-    </row>
-    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD90" s="3"/>
+    </row>
+    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6907,8 +7128,11 @@
       <c r="AC91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6990,8 +7214,11 @@
       <c r="AC92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7073,8 +7300,11 @@
       <c r="AC93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -7099,14 +7329,14 @@
       <c r="J94" s="3">
         <v>0</v>
       </c>
-      <c r="K94" s="3" t="s">
+      <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>4100</v>
-      </c>
-      <c r="M94" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="N94" s="3" t="s">
         <v>8</v>
@@ -7117,8 +7347,8 @@
       <c r="P94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q94" s="3">
-        <v>0</v>
+      <c r="Q94" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="R94" s="3">
         <v>0</v>
@@ -7156,8 +7386,11 @@
       <c r="AC94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7187,8 +7420,9 @@
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
-    </row>
-    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD95" s="3"/>
+    </row>
+    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7270,8 +7504,11 @@
       <c r="AC96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7353,8 +7590,11 @@
       <c r="AC97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7436,8 +7676,11 @@
       <c r="AC98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7519,8 +7762,11 @@
       <c r="AC99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -7602,8 +7848,11 @@
       <c r="AC100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7685,8 +7934,11 @@
       <c r="AC101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -7766,6 +8018,9 @@
         <v>0</v>
       </c>
       <c r="AC102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/WEBC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/WEBC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="92">
   <si>
     <t>WEBC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AD102"/>
+  <dimension ref="A5:AE102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,385 +665,397 @@
     <col min="1" max="1" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45046</v>
+      </c>
+      <c r="E7" s="2">
         <v>44957</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44865</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44773</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44681</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44592</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44500</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44408</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44316</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44227</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44135</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44043</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43951</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43861</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43769</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43677</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43585</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43496</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43404</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43312</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43220</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43131</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43039</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42947</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42855</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42766</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42674</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42582</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>168600</v>
+      </c>
+      <c r="E8" s="3">
         <v>173400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>188500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>704000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>190600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>173400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>167500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>145500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>127000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>94300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>99800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>89100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>104800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>112400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>122500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>130000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>145700</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>135900</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>137000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>147800</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>127300</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>111000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>114300</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>106600</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>98300</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>91600</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>88300</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>84000</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>145000</v>
+      </c>
+      <c r="E9" s="3">
         <v>158100</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>162500</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>585900</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>157100</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>144300</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>133100</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>116900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>108400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>87000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>92500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>86300</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>94900</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>100700</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>108900</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>118600</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>126000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>117500</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>112800</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>123700</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>108700</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>98000</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>100400</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>96400</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>89400</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>84000</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>80400</v>
       </c>
-      <c r="AD9" s="3">
+      <c r="AE9" s="3">
         <v>77300</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>23600</v>
+      </c>
+      <c r="E10" s="3">
         <v>15300</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>26000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>118100</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>33500</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>29100</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>34400</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>28600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>18600</v>
-      </c>
-      <c r="L10" s="3">
-        <v>7300</v>
       </c>
       <c r="M10" s="3">
         <v>7300</v>
       </c>
       <c r="N10" s="3">
+        <v>7300</v>
+      </c>
+      <c r="O10" s="3">
         <v>2800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>9900</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>11700</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>13600</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>11400</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>19700</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>18400</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>24200</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>24100</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>18600</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>13000</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>13900</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>10200</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>8900</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>7600</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>7900</v>
       </c>
-      <c r="AD10" s="3">
+      <c r="AE10" s="3">
         <v>6700</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1074,8 +1086,9 @@
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1160,8 +1173,11 @@
       <c r="AD12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1246,8 +1262,11 @@
       <c r="AD13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1281,14 +1300,14 @@
       <c r="M14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N14" s="3">
+      <c r="N14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O14" s="3">
         <v>500</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>400</v>
-      </c>
-      <c r="P14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Q14" s="3" t="s">
         <v>8</v>
@@ -1305,8 +1324,8 @@
       <c r="U14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V14" s="3">
-        <v>0</v>
+      <c r="V14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="W14" s="3">
         <v>0</v>
@@ -1332,8 +1351,11 @@
       <c r="AD14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1418,8 +1440,11 @@
       <c r="AD15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1447,180 +1472,187 @@
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
-    </row>
-    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>157200</v>
+      </c>
+      <c r="E17" s="3">
         <v>168700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>176100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>639200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>169500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>160200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>148100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>128500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>118500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>94100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>99600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>91000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>104200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>109100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>117700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>124900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>135700</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>127800</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>123100</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>137500</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>120100</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>106400</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>108500</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>103600</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>95800</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>89800</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>86800</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>83300</v>
       </c>
     </row>
-    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>11400</v>
+      </c>
+      <c r="E18" s="3">
         <v>4700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>12400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>64800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>21100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>13200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>19400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>17000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>8500</v>
-      </c>
-      <c r="L18" s="3">
-        <v>200</v>
       </c>
       <c r="M18" s="3">
         <v>200</v>
       </c>
       <c r="N18" s="3">
+        <v>200</v>
+      </c>
+      <c r="O18" s="3">
         <v>-1900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>3300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>4800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>5100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>10000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>8100</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>13900</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>10300</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>7200</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>4600</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>5800</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>3000</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>2500</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>1800</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>1500</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1651,8 +1683,9 @@
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
-    </row>
-    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1696,393 +1729,408 @@
         <v>0</v>
       </c>
       <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
         <v>-100</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-200</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-100</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-300</v>
       </c>
-      <c r="U20" s="3">
-        <v>0</v>
-      </c>
       <c r="V20" s="3">
+        <v>0</v>
+      </c>
+      <c r="W20" s="3">
         <v>100</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>200</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>400</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>200</v>
       </c>
-      <c r="Z20" s="3">
-        <v>0</v>
-      </c>
       <c r="AA20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB20" s="3">
         <v>200</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>900</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>500</v>
       </c>
-      <c r="AD20" s="3">
+      <c r="AE20" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>14700</v>
+      </c>
+      <c r="E21" s="3">
         <v>8000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>15700</v>
       </c>
-      <c r="F21" s="3" t="s">
+      <c r="G21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>24500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>20200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>9100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>20500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>11900</v>
-      </c>
-      <c r="L21" s="3">
-        <v>3800</v>
       </c>
       <c r="M21" s="3">
         <v>3800</v>
       </c>
       <c r="N21" s="3">
+        <v>3800</v>
+      </c>
+      <c r="O21" s="3">
         <v>1700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>4000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>6900</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>8300</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>8400</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>13300</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>11200</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>17300</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>13700</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>10500</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>8000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>9100</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>6100</v>
-      </c>
-      <c r="AA21" s="3">
-        <v>5600</v>
       </c>
       <c r="AB21" s="3">
         <v>5600</v>
       </c>
       <c r="AC21" s="3">
+        <v>5600</v>
+      </c>
+      <c r="AD21" s="3">
         <v>4900</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AE21" s="3">
         <v>3600</v>
       </c>
     </row>
-    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E22" s="3">
         <v>1700</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>1500</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>3300</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>800</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>700</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>600</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>400</v>
-      </c>
-      <c r="K22" s="3">
-        <v>300</v>
       </c>
       <c r="L22" s="3">
         <v>300</v>
       </c>
       <c r="M22" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="N22" s="3">
         <v>400</v>
       </c>
       <c r="O22" s="3">
+        <v>400</v>
+      </c>
+      <c r="P22" s="3">
         <v>700</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>800</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>900</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>1000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>1200</v>
-      </c>
-      <c r="T22" s="3">
-        <v>1300</v>
       </c>
       <c r="U22" s="3">
         <v>1300</v>
       </c>
       <c r="V22" s="3">
+        <v>1300</v>
+      </c>
+      <c r="W22" s="3">
         <v>1100</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>900</v>
-      </c>
-      <c r="X22" s="3">
-        <v>800</v>
       </c>
       <c r="Y22" s="3">
         <v>800</v>
       </c>
       <c r="Z22" s="3">
+        <v>800</v>
+      </c>
+      <c r="AA22" s="3">
         <v>600</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>500</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AC22" s="3">
         <v>600</v>
-      </c>
-      <c r="AC22" s="3">
-        <v>700</v>
       </c>
       <c r="AD22" s="3">
         <v>700</v>
       </c>
-    </row>
-    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE22" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>9800</v>
+      </c>
+      <c r="E23" s="3">
         <v>2900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>10900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>61500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>20300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>12600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>18800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>16700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>8200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-2300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>2500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>3800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>4000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>8700</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>6500</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>12500</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>9200</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>6500</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>4200</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>5200</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>2400</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>2200</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>2000</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>1300</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E24" s="3">
         <v>-600</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>2500</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>13200</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>4300</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>3000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>4200</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>3300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>1700</v>
       </c>
-      <c r="L24" s="3">
-        <v>0</v>
-      </c>
       <c r="M24" s="3">
         <v>0</v>
       </c>
       <c r="N24" s="3">
+        <v>0</v>
+      </c>
+      <c r="O24" s="3">
         <v>-1200</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-300</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>500</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>700</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-400</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>2100</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>1600</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>2800</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>2400</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>1500</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>-4200</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>2200</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>1000</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>900</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>-100</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>600</v>
       </c>
-      <c r="AD24" s="3">
+      <c r="AE24" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2167,180 +2215,189 @@
       <c r="AD25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>6400</v>
+      </c>
+      <c r="E26" s="3">
         <v>3500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>8400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>48400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>16000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>9500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>14600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>13400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>6500</v>
       </c>
-      <c r="L26" s="3">
-        <v>0</v>
-      </c>
       <c r="M26" s="3">
+        <v>0</v>
+      </c>
+      <c r="N26" s="3">
         <v>-200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-1100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>2000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>3200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>4300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>6600</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>4900</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>9800</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>6800</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>5000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>8400</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>3000</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>1400</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>1300</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>2200</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>700</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>6400</v>
+      </c>
+      <c r="E27" s="3">
         <v>3500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>8400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>48400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>16000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>9500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>14600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>13400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>6500</v>
       </c>
-      <c r="L27" s="3">
-        <v>0</v>
-      </c>
       <c r="M27" s="3">
+        <v>0</v>
+      </c>
+      <c r="N27" s="3">
         <v>-200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-1100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>2000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>3200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>4300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>6600</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>4900</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>9800</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>6800</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>5000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>8400</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>3000</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>1400</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>1300</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>2200</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>700</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2425,8 +2482,11 @@
       <c r="AD28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2511,8 +2571,11 @@
       <c r="AD29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2597,8 +2660,11 @@
       <c r="AD30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2683,8 +2749,11 @@
       <c r="AD31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2728,135 +2797,141 @@
         <v>0</v>
       </c>
       <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
         <v>100</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>200</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>100</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>300</v>
       </c>
-      <c r="U32" s="3">
-        <v>0</v>
-      </c>
       <c r="V32" s="3">
+        <v>0</v>
+      </c>
+      <c r="W32" s="3">
         <v>-100</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-200</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-400</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-200</v>
       </c>
-      <c r="Z32" s="3">
-        <v>0</v>
-      </c>
       <c r="AA32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB32" s="3">
         <v>-200</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>-900</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>-500</v>
       </c>
-      <c r="AD32" s="3">
+      <c r="AE32" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>6400</v>
+      </c>
+      <c r="E33" s="3">
         <v>3500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>8400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>48400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>16000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>9500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>14600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>13400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>6500</v>
       </c>
-      <c r="L33" s="3">
-        <v>0</v>
-      </c>
       <c r="M33" s="3">
+        <v>0</v>
+      </c>
+      <c r="N33" s="3">
         <v>-200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-1100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>2000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>3200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>4300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>6600</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>4900</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>9800</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>6800</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>5000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>8400</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>3000</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>1400</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>1300</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>2200</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>700</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2941,185 +3016,194 @@
       <c r="AD34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>6400</v>
+      </c>
+      <c r="E35" s="3">
         <v>3500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>8400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>48400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>16000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>9500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>14600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>13400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>6500</v>
       </c>
-      <c r="L35" s="3">
-        <v>0</v>
-      </c>
       <c r="M35" s="3">
+        <v>0</v>
+      </c>
+      <c r="N35" s="3">
         <v>-200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-1100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>2000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>3200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>4300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>6600</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>4900</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>9800</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>6800</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>5000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>8400</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>3000</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>1400</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>1300</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>2200</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>700</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45046</v>
+      </c>
+      <c r="E38" s="2">
         <v>44957</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44865</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44773</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44681</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44592</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44500</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44408</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44316</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44227</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44135</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44043</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43951</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43861</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43769</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43677</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43585</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43496</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43404</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43312</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43220</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43131</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43039</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42947</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42855</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42766</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42674</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42582</v>
       </c>
     </row>
-    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3150,8 +3234,9 @@
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
-    </row>
-    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE39" s="3"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3182,102 +3267,106 @@
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
-    </row>
-    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE40" s="3"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>5100</v>
+      </c>
+      <c r="E41" s="3">
         <v>3700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>12800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>11800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>10900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>8800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>8400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>7100</v>
-      </c>
-      <c r="K41" s="3">
-        <v>5400</v>
       </c>
       <c r="L41" s="3">
         <v>5400</v>
       </c>
       <c r="M41" s="3">
+        <v>5400</v>
+      </c>
+      <c r="N41" s="3">
         <v>6200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>4600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>11300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>3400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>6200</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>7100</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>6800</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>4900</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>6200</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>7100</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>4400</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>6800</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>6300</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>7200</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>8100</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>8000</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>8400</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AE41" s="3">
         <v>6300</v>
       </c>
     </row>
-    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>14600</v>
+      </c>
+      <c r="E42" s="3">
         <v>10600</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="F42" s="3" t="s">
         <v>8</v>
@@ -3294,8 +3383,8 @@
       <c r="J42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K42" s="3">
-        <v>0</v>
+      <c r="K42" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L42" s="3">
         <v>0</v>
@@ -3354,352 +3443,367 @@
       <c r="AD42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>78200</v>
+      </c>
+      <c r="E43" s="3">
         <v>87000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>87400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>94100</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>79500</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>83700</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>75200</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>59900</v>
-      </c>
-      <c r="K43" s="3">
-        <v>45000</v>
       </c>
       <c r="L43" s="3">
         <v>45000</v>
       </c>
       <c r="M43" s="3">
+        <v>45000</v>
+      </c>
+      <c r="N43" s="3">
         <v>48900</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>41700</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>47300</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>54200</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>55600</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>59400</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>67200</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>64400</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>64700</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>76500</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>68800</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>55500</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>54700</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>53000</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>49500</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>43000</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>39700</v>
       </c>
-      <c r="AD43" s="3">
+      <c r="AE43" s="3">
         <v>39900</v>
       </c>
     </row>
-    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>208700</v>
+      </c>
+      <c r="E44" s="3">
         <v>219000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>234700</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>225500</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>232600</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>203000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>149800</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>121100</v>
-      </c>
-      <c r="K44" s="3">
-        <v>114900</v>
       </c>
       <c r="L44" s="3">
         <v>114900</v>
       </c>
       <c r="M44" s="3">
+        <v>114900</v>
+      </c>
+      <c r="N44" s="3">
         <v>112500</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>135800</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>160200</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>156300</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>168800</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>176400</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>185800</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>197900</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>198600</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>170900</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>153700</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>144900</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>130700</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>124500</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>115200</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>112600</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AD44" s="3">
         <v>117000</v>
       </c>
-      <c r="AD44" s="3">
+      <c r="AE44" s="3">
         <v>113400</v>
       </c>
     </row>
-    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E45" s="3">
         <v>15000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>13900</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>7600</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>8200</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>8400</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>7200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>6700</v>
-      </c>
-      <c r="K45" s="3">
-        <v>2400</v>
       </c>
       <c r="L45" s="3">
         <v>2400</v>
       </c>
       <c r="M45" s="3">
+        <v>2400</v>
+      </c>
+      <c r="N45" s="3">
         <v>7400</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>5600</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>6700</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>2000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>11800</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>11600</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>6700</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>3700</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>5300</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>7200</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>5700</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>2900</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>5900</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>5500</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>3400</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>1200</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>1700</v>
       </c>
-      <c r="AD45" s="3">
+      <c r="AE45" s="3">
         <v>9800</v>
       </c>
     </row>
-    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>309900</v>
+      </c>
+      <c r="E46" s="3">
         <v>335300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>348800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>339000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>331100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>304000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>240600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>194800</v>
-      </c>
-      <c r="K46" s="3">
-        <v>167700</v>
       </c>
       <c r="L46" s="3">
         <v>167700</v>
       </c>
       <c r="M46" s="3">
+        <v>167700</v>
+      </c>
+      <c r="N46" s="3">
         <v>175100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>187600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>225500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>215800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>242500</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>254600</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>266400</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>270900</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>274800</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>261700</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>232500</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>210100</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>197600</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>190200</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>176300</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>164800</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>166700</v>
       </c>
-      <c r="AD46" s="3">
+      <c r="AE46" s="3">
         <v>169300</v>
       </c>
     </row>
-    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3784,94 +3888,100 @@
       <c r="AD47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>160800</v>
+      </c>
+      <c r="E48" s="3">
         <v>158100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>151000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>141400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>140800</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>137800</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>137400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>135700</v>
-      </c>
-      <c r="K48" s="3">
-        <v>139000</v>
       </c>
       <c r="L48" s="3">
         <v>139000</v>
       </c>
       <c r="M48" s="3">
+        <v>139000</v>
+      </c>
+      <c r="N48" s="3">
         <v>135400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>134600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>133400</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>134700</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>122800</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>112500</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>107900</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>104700</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>105500</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>104200</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>102500</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>98100</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>96100</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>97200</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>96900</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>93700</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>93200</v>
       </c>
-      <c r="AD48" s="3">
+      <c r="AE48" s="3">
         <v>92600</v>
       </c>
     </row>
-    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3956,8 +4066,11 @@
       <c r="AD49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4042,8 +4155,11 @@
       <c r="AD50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4128,94 +4244,100 @@
       <c r="AD51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>10900</v>
+      </c>
+      <c r="E52" s="3">
         <v>10200</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>9300</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>10600</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>9500</v>
-      </c>
-      <c r="H52" s="3">
-        <v>7200</v>
       </c>
       <c r="I52" s="3">
         <v>7200</v>
       </c>
       <c r="J52" s="3">
+        <v>7200</v>
+      </c>
+      <c r="K52" s="3">
         <v>6200</v>
-      </c>
-      <c r="K52" s="3">
-        <v>6100</v>
       </c>
       <c r="L52" s="3">
         <v>6100</v>
       </c>
       <c r="M52" s="3">
+        <v>6100</v>
+      </c>
+      <c r="N52" s="3">
         <v>6600</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>5500</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>4700</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>4800</v>
-      </c>
-      <c r="Q52" s="3">
-        <v>3900</v>
       </c>
       <c r="R52" s="3">
         <v>3900</v>
       </c>
       <c r="S52" s="3">
+        <v>3900</v>
+      </c>
+      <c r="T52" s="3">
         <v>4500</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>4300</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>3900</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>3600</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>6200</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>5400</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>4600</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>4700</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>2000</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>2300</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>1500</v>
       </c>
-      <c r="AD52" s="3">
+      <c r="AE52" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4300,94 +4422,100 @@
       <c r="AD53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>481700</v>
+      </c>
+      <c r="E54" s="3">
         <v>503700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>509200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>490900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>481500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>449000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>385200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>336800</v>
-      </c>
-      <c r="K54" s="3">
-        <v>312800</v>
       </c>
       <c r="L54" s="3">
         <v>312800</v>
       </c>
       <c r="M54" s="3">
+        <v>312800</v>
+      </c>
+      <c r="N54" s="3">
         <v>317000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>327700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>363500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>355300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>369200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>371000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>378900</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>379900</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>384100</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>369500</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>341200</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>313600</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>298200</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>292200</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>275200</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>260800</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>261400</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>263200</v>
       </c>
     </row>
-    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4418,8 +4546,9 @@
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
-    </row>
-    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE55" s="3"/>
+    </row>
+    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4450,46 +4579,47 @@
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
-    </row>
-    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE56" s="3"/>
+    </row>
+    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>34200</v>
+      </c>
+      <c r="E57" s="3">
         <v>39000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>39200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>40800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>52800</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>38500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>34600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>19000</v>
-      </c>
-      <c r="K57" s="3">
-        <v>16400</v>
       </c>
       <c r="L57" s="3">
         <v>16400</v>
       </c>
       <c r="M57" s="3">
+        <v>16400</v>
+      </c>
+      <c r="N57" s="3">
         <v>8300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>14500</v>
-      </c>
-      <c r="O57" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="P57" s="3" t="s">
         <v>8</v>
@@ -4503,8 +4633,8 @@
       <c r="S57" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T57" s="3">
-        <v>0</v>
+      <c r="T57" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="U57" s="3">
         <v>0</v>
@@ -4536,266 +4666,278 @@
       <c r="AD57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>82200</v>
+      </c>
+      <c r="E58" s="3">
         <v>106800</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>117200</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>111400</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>113800</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>104400</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>59000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>32700</v>
-      </c>
-      <c r="K58" s="3">
-        <v>21300</v>
       </c>
       <c r="L58" s="3">
         <v>21300</v>
       </c>
       <c r="M58" s="3">
+        <v>21300</v>
+      </c>
+      <c r="N58" s="3">
         <v>35400</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>42000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>74500</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>65800</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>82500</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>88600</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>100600</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>107100</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>111200</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>110500</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>90700</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>77800</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>67000</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>67900</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>56800</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>49100</v>
       </c>
-      <c r="AC58" s="3">
+      <c r="AD58" s="3">
         <v>50200</v>
       </c>
-      <c r="AD58" s="3">
+      <c r="AE58" s="3">
         <v>43400</v>
       </c>
     </row>
-    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>34900</v>
+      </c>
+      <c r="E59" s="3">
         <v>34800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>35500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>43400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>35200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>31900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>26900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>23500</v>
-      </c>
-      <c r="K59" s="3">
-        <v>22000</v>
       </c>
       <c r="L59" s="3">
         <v>22000</v>
       </c>
       <c r="M59" s="3">
+        <v>22000</v>
+      </c>
+      <c r="N59" s="3">
         <v>21000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>19500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>40700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>39900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>41800</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>46400</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>46000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>48100</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>52500</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>46700</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>45300</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>36400</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>35400</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>31400</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>29100</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>26200</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>29200</v>
       </c>
-      <c r="AD59" s="3">
+      <c r="AE59" s="3">
         <v>30200</v>
       </c>
     </row>
-    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>151300</v>
+      </c>
+      <c r="E60" s="3">
         <v>180600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>192000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>195600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>201800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>174800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>120500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>75200</v>
-      </c>
-      <c r="K60" s="3">
-        <v>59600</v>
       </c>
       <c r="L60" s="3">
         <v>59600</v>
       </c>
       <c r="M60" s="3">
+        <v>59600</v>
+      </c>
+      <c r="N60" s="3">
         <v>64700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>75900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>115200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>105700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>124400</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>135000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>146600</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>155200</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>163600</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>157100</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>136000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>114200</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>102400</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>99200</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>85900</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>75300</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>79300</v>
       </c>
-      <c r="AD60" s="3">
+      <c r="AE60" s="3">
         <v>73500</v>
       </c>
     </row>
-    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4806,19 +4948,19 @@
         <v>20500</v>
       </c>
       <c r="F61" s="3">
+        <v>20500</v>
+      </c>
+      <c r="G61" s="3">
         <v>12700</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>12800</v>
-      </c>
-      <c r="H61" s="3">
-        <v>12900</v>
       </c>
       <c r="I61" s="3">
         <v>12900</v>
       </c>
       <c r="J61" s="3">
-        <v>13100</v>
+        <v>12900</v>
       </c>
       <c r="K61" s="3">
         <v>13100</v>
@@ -4827,13 +4969,13 @@
         <v>13100</v>
       </c>
       <c r="M61" s="3">
+        <v>13100</v>
+      </c>
+      <c r="N61" s="3">
         <v>13000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>13100</v>
-      </c>
-      <c r="O61" s="3">
-        <v>12000</v>
       </c>
       <c r="P61" s="3">
         <v>12000</v>
@@ -4842,10 +4984,10 @@
         <v>12000</v>
       </c>
       <c r="R61" s="3">
+        <v>12000</v>
+      </c>
+      <c r="S61" s="3">
         <v>12200</v>
-      </c>
-      <c r="S61" s="3">
-        <v>12000</v>
       </c>
       <c r="T61" s="3">
         <v>12000</v>
@@ -4880,94 +5022,100 @@
       <c r="AD61" s="3">
         <v>12000</v>
       </c>
-    </row>
-    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE61" s="3">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>17400</v>
+      </c>
+      <c r="E62" s="3">
         <v>17900</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>16000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>18200</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>17100</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>18500</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>20600</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>23900</v>
-      </c>
-      <c r="K62" s="3">
-        <v>22900</v>
       </c>
       <c r="L62" s="3">
         <v>22900</v>
       </c>
       <c r="M62" s="3">
+        <v>22900</v>
+      </c>
+      <c r="N62" s="3">
         <v>22700</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>22200</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>19000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>21000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>15100</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>8700</v>
-      </c>
-      <c r="S62" s="3">
-        <v>7200</v>
       </c>
       <c r="T62" s="3">
         <v>7200</v>
       </c>
       <c r="U62" s="3">
+        <v>7200</v>
+      </c>
+      <c r="V62" s="3">
         <v>8000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>8800</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>7600</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>7100</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>12300</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>12800</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>11100</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>9100</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>8300</v>
       </c>
-      <c r="AD62" s="3">
+      <c r="AE62" s="3">
         <v>17000</v>
       </c>
     </row>
-    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5052,8 +5200,11 @@
       <c r="AD63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5138,8 +5289,11 @@
       <c r="AD64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5224,94 +5378,100 @@
       <c r="AD65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>189200</v>
+      </c>
+      <c r="E66" s="3">
         <v>219000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>228400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>226400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>231700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>206200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>154100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>112200</v>
-      </c>
-      <c r="K66" s="3">
-        <v>95700</v>
       </c>
       <c r="L66" s="3">
         <v>95700</v>
       </c>
       <c r="M66" s="3">
+        <v>95700</v>
+      </c>
+      <c r="N66" s="3">
         <v>100400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>111200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>146200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>138700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>151500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>155900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>165800</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>174400</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>183700</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>177900</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>155600</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>133300</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>126700</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>124000</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>109000</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>96500</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>99700</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>102500</v>
       </c>
     </row>
-    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5342,8 +5502,9 @@
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
-    </row>
-    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE67" s="3"/>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5428,8 +5589,11 @@
       <c r="AD68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5514,8 +5678,11 @@
       <c r="AD69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5600,8 +5767,11 @@
       <c r="AD70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5686,46 +5856,49 @@
       <c r="AD71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>241600</v>
+      </c>
+      <c r="E72" s="3">
         <v>235600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>232100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>216200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>201300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>193800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>181000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>171700</v>
-      </c>
-      <c r="K72" s="3">
-        <v>165400</v>
       </c>
       <c r="L72" s="3">
         <v>165400</v>
       </c>
       <c r="M72" s="3">
+        <v>165400</v>
+      </c>
+      <c r="N72" s="3">
         <v>165500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>165600</v>
-      </c>
-      <c r="O72" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="P72" s="3" t="s">
         <v>8</v>
@@ -5736,20 +5909,20 @@
       <c r="R72" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S72" s="3">
+      <c r="S72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T72" s="3">
         <v>213100</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>205600</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>200500</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>191500</v>
-      </c>
-      <c r="W72" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="X72" s="3" t="s">
         <v>8</v>
@@ -5763,8 +5936,8 @@
       <c r="AA72" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AB72" s="3">
-        <v>0</v>
+      <c r="AB72" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="AC72" s="3">
         <v>0</v>
@@ -5772,8 +5945,11 @@
       <c r="AD72" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5858,8 +6034,11 @@
       <c r="AD73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5944,8 +6123,11 @@
       <c r="AD74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6030,94 +6212,100 @@
       <c r="AD75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>292500</v>
+      </c>
+      <c r="E76" s="3">
         <v>284700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>280700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>264500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>249800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>242800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>231100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>224600</v>
-      </c>
-      <c r="K76" s="3">
-        <v>217100</v>
       </c>
       <c r="L76" s="3">
         <v>217100</v>
       </c>
       <c r="M76" s="3">
+        <v>217100</v>
+      </c>
+      <c r="N76" s="3">
         <v>216600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>216500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>217300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>216600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>217800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>215200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>213100</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>205600</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>200500</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>191500</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>185600</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>180400</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>171500</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>168200</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>166200</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>164400</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>161700</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>160600</v>
       </c>
     </row>
-    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6202,185 +6390,194 @@
       <c r="AD77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45046</v>
+      </c>
+      <c r="E80" s="2">
         <v>44957</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44865</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44773</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44681</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44592</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44500</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44408</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44316</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44227</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44135</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44043</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43951</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43861</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43769</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43677</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43585</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43496</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43404</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43312</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43220</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43131</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43039</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42947</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42855</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42766</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42674</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42582</v>
       </c>
     </row>
-    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>6400</v>
+      </c>
+      <c r="E81" s="3">
         <v>3500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>8400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>48400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>16000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>9500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>14600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>13400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>6500</v>
       </c>
-      <c r="L81" s="3">
-        <v>0</v>
-      </c>
       <c r="M81" s="3">
+        <v>0</v>
+      </c>
+      <c r="N81" s="3">
         <v>-200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-1100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>2000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>3200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>4300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>6600</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>4900</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>9800</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>6800</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>5000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>8400</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>3000</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>1400</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>1300</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>2200</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>700</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6411,8 +6608,9 @@
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
-    </row>
-    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE82" s="3"/>
+    </row>
+    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6422,38 +6620,38 @@
       <c r="E83" s="3">
         <v>3300</v>
       </c>
-      <c r="F83" s="3" t="s">
+      <c r="F83" s="3">
+        <v>3300</v>
+      </c>
+      <c r="G83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>3500</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>7000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>-10300</v>
-      </c>
-      <c r="J83" s="3">
-        <v>3400</v>
       </c>
       <c r="K83" s="3">
         <v>3400</v>
       </c>
       <c r="L83" s="3">
+        <v>3400</v>
+      </c>
+      <c r="M83" s="3">
         <v>3500</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>3600</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>3500</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>3400</v>
-      </c>
-      <c r="P83" s="3">
-        <v>3500</v>
       </c>
       <c r="Q83" s="3">
         <v>3500</v>
@@ -6462,7 +6660,7 @@
         <v>3500</v>
       </c>
       <c r="S83" s="3">
-        <v>3400</v>
+        <v>3500</v>
       </c>
       <c r="T83" s="3">
         <v>3400</v>
@@ -6471,22 +6669,22 @@
         <v>3400</v>
       </c>
       <c r="V83" s="3">
+        <v>3400</v>
+      </c>
+      <c r="W83" s="3">
         <v>3300</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>3100</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>3000</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>3100</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>3000</v>
-      </c>
-      <c r="AA83" s="3">
-        <v>2900</v>
       </c>
       <c r="AB83" s="3">
         <v>2900</v>
@@ -6495,10 +6693,13 @@
         <v>2900</v>
       </c>
       <c r="AD83" s="3">
+        <v>2900</v>
+      </c>
+      <c r="AE83" s="3">
         <v>3100</v>
       </c>
     </row>
-    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6583,8 +6784,11 @@
       <c r="AD84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6669,8 +6873,11 @@
       <c r="AD85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6755,8 +6962,11 @@
       <c r="AD86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6841,8 +7051,11 @@
       <c r="AD87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6927,94 +7140,100 @@
       <c r="AD88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>53200</v>
+      </c>
+      <c r="E89" s="3">
         <v>6700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-100</v>
       </c>
-      <c r="F89" s="3" t="s">
+      <c r="G89" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>5100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-30200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-54700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-6300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-4600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>21200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>3600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>23600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>5000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>23000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>11100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>22600</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>12900</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>14800</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>1400</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-9500</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-11800</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-4300</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>2500</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>-2500</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>-6000</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>7800</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>-1600</v>
       </c>
-      <c r="AD89" s="3">
+      <c r="AE89" s="3">
         <v>-3900</v>
       </c>
     </row>
-    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7045,8 +7264,9 @@
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
-    </row>
-    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE90" s="3"/>
+    </row>
+    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -7131,8 +7351,11 @@
       <c r="AD91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7217,8 +7440,11 @@
       <c r="AD92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7303,8 +7529,11 @@
       <c r="AD93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -7332,14 +7561,14 @@
       <c r="K94" s="3">
         <v>0</v>
       </c>
-      <c r="L94" s="3" t="s">
+      <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>4100</v>
-      </c>
-      <c r="N94" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="O94" s="3" t="s">
         <v>8</v>
@@ -7350,8 +7579,8 @@
       <c r="Q94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R94" s="3">
-        <v>0</v>
+      <c r="R94" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="S94" s="3">
         <v>0</v>
@@ -7389,8 +7618,11 @@
       <c r="AD94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7421,8 +7653,9 @@
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
-    </row>
-    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE95" s="3"/>
+    </row>
+    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7507,8 +7740,11 @@
       <c r="AD96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7593,8 +7829,11 @@
       <c r="AD97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7679,8 +7918,11 @@
       <c r="AD98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7765,8 +8007,11 @@
       <c r="AD99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -7851,8 +8096,11 @@
       <c r="AD100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7937,8 +8185,11 @@
       <c r="AD101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -8021,6 +8272,9 @@
         <v>0</v>
       </c>
       <c r="AD102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE102" s="3">
         <v>0</v>
       </c>
     </row>
